--- a/lit review master COMBINED.xlsx
+++ b/lit review master COMBINED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB20FD61-1448-C848-9309-FC2CBF23CE66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D612D70-A2BA-2742-B8AB-BC639288CC80}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="480" windowWidth="25540" windowHeight="15600" xr2:uid="{07FD1B6C-CECF-8349-8E75-6C5556405F20}"/>
+    <workbookView xWindow="11480" yWindow="1120" windowWidth="17320" windowHeight="12900" xr2:uid="{07FD1B6C-CECF-8349-8E75-6C5556405F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Lit review" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="2167">
   <si>
     <t>Latin name</t>
   </si>
@@ -17092,9 +17092,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6312287/</t>
   </si>
   <si>
-    <t>STATA 15, GPS, QGIS</t>
-  </si>
-  <si>
     <r>
       <t>Butrous G. (2019). Schistosome infection and its effect on pulmonary circulation. </t>
     </r>
@@ -17626,9 +17623,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3183225/</t>
-  </si>
-  <si>
-    <t>Stool sampling, EpiData 3.1, R 2.10.1, GPS, GoogleEarth 5, ArcView 9.3, SaTScan 9.1</t>
   </si>
   <si>
     <t>126 mothers, 247 children</t>
@@ -17711,9 +17705,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2990690/</t>
   </si>
   <si>
-    <t>Stool sampling, Excel, Stata 10.0, GPS, ArcView 9.3, LST, NDVI, AVHRR, SRTM digital elevation model, WinBUGS 1.4</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Schistosomiases, </t>
     </r>
@@ -17777,9 +17768,6 @@
     <t>East and Southern Africa, Uganda</t>
   </si>
   <si>
-    <t>Lot quality assurance sampling, remote sensing, GIS, Stool sampling, GPS</t>
-  </si>
-  <si>
     <t>What makes rapid mapping different from regular mapping?</t>
   </si>
   <si>
@@ -17911,9 +17899,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4270510/</t>
   </si>
   <si>
-    <t>ISODATA, Stool sampling, LST, NDVI, WinBUGS 14, kriging</t>
-  </si>
-  <si>
     <t>Schistosomiases, soil-transmitted helminthiases</t>
   </si>
   <si>
@@ -18062,9 +18047,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3527617/</t>
-  </si>
-  <si>
-    <t>Stool sampling, GPS, ELISA, Excel, STATA 10, ArcGIS 9.2</t>
   </si>
   <si>
     <t>13588 children, 3986 adults</t>
@@ -18130,9 +18112,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3216917/</t>
   </si>
   <si>
-    <t>ICT, Stool sampling</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Soil-transmitted helminthiases, Schistosomiases, </t>
     </r>
@@ -18242,9 +18221,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3777864/</t>
   </si>
   <si>
-    <t>PubMed, LILACS, BIREME, Cochrane, Excel, Tableau 7.0</t>
-  </si>
-  <si>
     <r>
       <t>Mejia Torres, R. E., Franco Garcia, D. N., Fontecha Sandoval, G. A., Hernandez Santana, A., Singh, P., Mancero Bucheli, S. T., Saboya, M., … Paz, M. Y. (2014). Prevalence and intensity of soil-transmitted helminthiasis, prevalence of malaria and nutritional status of school going children in honduras. </t>
     </r>
@@ -18291,9 +18267,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4199552/</t>
   </si>
   <si>
-    <t>Stool sampling, PCR, Epi-Info, SAS, ArcGIS</t>
-  </si>
-  <si>
     <t>Number of children at risk briefly mentioned</t>
   </si>
   <si>
@@ -18343,9 +18316,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3973510/</t>
   </si>
   <si>
-    <t>Stool sampling, ICT, GPS, ArcGIS 10.1</t>
-  </si>
-  <si>
     <r>
       <t>Drabo, F., Ouedraogo, H., Bougma, R., Bougouma, C., Bamba, I., Zongo, D., Bagayan, M., Barrett, L., Yago-Wienne, F., Palmer, S., Chu, B., Toubali, E., … Zhang, Y. (2016). Successful Control of Soil-Transmitted Helminthiasis in School Age Children in Burkina Faso and an Example of Community-Based Assessment via Lymphatic Filariasis Transmission Assessment Survey. </t>
     </r>
@@ -18392,9 +18362,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4862685/</t>
   </si>
   <si>
-    <t>Stool sampling, SPSS 19, ArcMap 10</t>
-  </si>
-  <si>
     <r>
       <t>Ganguly, S., Barkataki, S., Karmakar, S., Sanga, P., Boopathi, K., Kanagasabai, K., Kamaraj, P., Chowdhury, P., Sarkar, R., Raj, D., James, L., Dutta, S., Sehgal, R., Jha, P., … Murhekar, M. (2017). High prevalence of soil-transmitted helminth infections among primary school children, Uttar Pradesh, India, 2015. </t>
     </r>
@@ -18441,9 +18408,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5632835/</t>
   </si>
   <si>
-    <t>Stool sampling, Stata 13, ArcGIS 10</t>
-  </si>
-  <si>
     <r>
       <t>Mupfasoni, D., Mikhailov, A., Mbabazi, P., King, J., Gyorkos, T. W., &amp; Montresor, A. (2018). Estimation of the number of women of reproductive age in need of preventive chemotherapy for soil-transmitted helminth infections. </t>
     </r>
@@ -18539,9 +18503,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4802658/</t>
   </si>
   <si>
-    <t>Stool sampling, LST, NDVI, Kriging</t>
-  </si>
-  <si>
     <r>
       <t>Smith, J. L., Sturrock, H., Assefa, L., Nikolay, B., Njenga, S. M., Kihara, J., … Brooker, S. J. (2015). Factors associated with the performance and cost-effectiveness of using lymphatic filariasis transmission assessment surveys for monitoring soil-transmitted helminths: a case study in Kenya. </t>
     </r>
@@ -18588,9 +18549,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4347340/</t>
   </si>
   <si>
-    <t>Mixed effects logistic regression, R, Stool sampling</t>
-  </si>
-  <si>
     <t>6653 schools</t>
   </si>
   <si>
@@ -18689,12 +18647,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4228865/</t>
   </si>
   <si>
-    <t>SAS 9.3, Stool sampling, R 2.15.2</t>
-  </si>
-  <si>
-    <t>GPS, ArcMap 9.2, GRUMP</t>
-  </si>
-  <si>
     <r>
       <t>Hagge, D. A., Parajuli, P., Kunwar, C. B., Rana, D., Thapa, R., Neupane, K. D., … Napit, I. B. (2017). Opening a Can of Worms: Leprosy Reactions and Complicit Soil-Transmitted Helminths. </t>
     </r>
@@ -18739,9 +18691,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5605364/</t>
-  </si>
-  <si>
-    <t>PCR, SPSS 12, STATA 9</t>
   </si>
   <si>
     <r>
@@ -18922,12 +18871,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3526959/</t>
   </si>
   <si>
-    <t>Prevalence mapping, predicted prevalence mapping, recommended intervention mapping from systematic literature review</t>
-  </si>
-  <si>
-    <t>Kenya, West Africa, Ethiopia</t>
-  </si>
-  <si>
     <t>No detailed methods or sample sizes listed</t>
   </si>
   <si>
@@ -18980,9 +18923,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4055527/</t>
   </si>
   <si>
-    <t>LST, EVI, LULC, RFE, EpiData, STATA 12.1, ArcGIS, WinBUGS, generalized estimating equations, Kriging</t>
-  </si>
-  <si>
     <t>Taenia asiatica</t>
   </si>
   <si>
@@ -19033,9 +18973,6 @@
   </si>
   <si>
     <t>Asia</t>
-  </si>
-  <si>
-    <t>PubMed, Asia Journals OnLine (AsiaJOL), African Journals OnLine (AJOL), Latin American Journals OnLine (LAMJOL), WHO Global Health Library, and IndMED</t>
   </si>
   <si>
     <r>
@@ -19231,9 +19168,6 @@
     <t>Spatial analysis and risk mapping</t>
   </si>
   <si>
-    <t>ArcGIS 10.1, Excel</t>
-  </si>
-  <si>
     <t>78 counties</t>
   </si>
   <si>
@@ -19281,9 +19215,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6149206/</t>
-  </si>
-  <si>
-    <t>PubMed, Web of Science, OpenGrey, CABDirect, ArcGis 10.3</t>
   </si>
   <si>
     <t>66 papers</t>
@@ -25789,6 +25720,150 @@
   </si>
   <si>
     <t>QGIS 2.4</t>
+  </si>
+  <si>
+    <t>Percent revalence mapping</t>
+  </si>
+  <si>
+    <t>Ethiopia (South Tigray)</t>
+  </si>
+  <si>
+    <t>Stool sampling, correlation matrix (Stata 15), chi-squared test, QGIS</t>
+  </si>
+  <si>
+    <t>China, Northern Africa and the Middle East, Brazil</t>
+  </si>
+  <si>
+    <t>Africa, East Asia, South America</t>
+  </si>
+  <si>
+    <t>Stool sampling, blood sampling, EpiData 3.1, R 2.10.1, ArcView 9.3, spatial scan statistic (SaTScan 9.1)</t>
+  </si>
+  <si>
+    <t>Stool sampling, ArcView 9.3, fixed-effects binomial logistic regression models (Stata 10.1), model-based geostatistical spatial prediction models (WinBUGS 1.4), exponentially decaying autocorrelation function</t>
+  </si>
+  <si>
+    <t>Uganda, Kenya, Rwanda, Burundi, Tanzania</t>
+  </si>
+  <si>
+    <t>Systematic literature review, lot quality assurance sampling, stool sampling</t>
+  </si>
+  <si>
+    <t>Africa, Cote D'Ivoire (Man region)</t>
+  </si>
+  <si>
+    <t>Co-infection mapping also</t>
+  </si>
+  <si>
+    <t>Stool sampling, urine sampling, Bayesian multinomial regression model, MCMC simulations (WinBUGS 14), Bayesian kriging, multinomial geostatistical model, binomial models, non-stationary multinomial model</t>
+  </si>
+  <si>
+    <t>Leading causes of DALYs mapping</t>
+  </si>
+  <si>
+    <t>Stool sampling, blood sampling, urine sampling, STATA 10, ArcGIS 9.2</t>
+  </si>
+  <si>
+    <t>Mali (Banamba district), Senegal (Diourbel district)</t>
+  </si>
+  <si>
+    <t>Stool sampling, urine sampling, blood sampling</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Latin America, South America, Caribbean</t>
+  </si>
+  <si>
+    <t>Systematic literature review, Tableau 7.0</t>
+  </si>
+  <si>
+    <t>Stool sampling, blood sampling, Epi-Info, SAS, ArcGIS, univariate and multivariate analyses</t>
+  </si>
+  <si>
+    <t>Stool sampling, blood sampling, ArcGIS 10.1</t>
+  </si>
+  <si>
+    <t>Kenya (Kibera)</t>
+  </si>
+  <si>
+    <t>SAS 9.3, Stool sampling, blood sampling, R 2.15.2, chi-squared test, Fisher's exact test, univariable and multivariable analyses</t>
+  </si>
+  <si>
+    <t>Coastal and western Kenya</t>
+  </si>
+  <si>
+    <t>Mixed effects logistic regression, semivariograms, likelihood ratio tests, R, lot-quality assurance sampling</t>
+  </si>
+  <si>
+    <t>India (Bihar State)</t>
+  </si>
+  <si>
+    <t>Stool sampling, complex samples module (SPSS 19), chi-squared test, Kruskal-Wallis test, ArcMap 10</t>
+  </si>
+  <si>
+    <t>Proportion prevalence mapping and risk mapping</t>
+  </si>
+  <si>
+    <t>Stool sampling, MCMC simulations, Bayesian geostatistical variable selection approach, non-spatial univariate associations, Bayesian kriging</t>
+  </si>
+  <si>
+    <t>Prevalence mapping, climatic suitability mapping, risk of transmission mapping</t>
+  </si>
+  <si>
+    <t>Systematic literature review, ArcMap 9.2, Kruskal-Wallis non-parametric test</t>
+  </si>
+  <si>
+    <t>India (Uttar Pradesh)</t>
+  </si>
+  <si>
+    <t>Stool sampling, chi-squared test (Stata 13), Inverse Distance Weighting method, ArcGIS 10, multiple logistic regression analysis</t>
+  </si>
+  <si>
+    <t>Coendemicity with leprosy</t>
+  </si>
+  <si>
+    <t>Latin America, South America, Caribbean, Africa, Asia</t>
+  </si>
+  <si>
+    <t>Stool sampling, SPSS 12, STATA 9, chi-squared test, logistic regression</t>
+  </si>
+  <si>
+    <t>Latin America, South America, Caribbean, Sub-Saharan Africa, South Asia</t>
+  </si>
+  <si>
+    <t>Southern Ethiopia</t>
+  </si>
+  <si>
+    <t>Percent prevalence mapping, predicted prevalence mapping, recommended intervention mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>Western Kenya, Mali, Burkina Faso, Ghana, Ethiopia</t>
+  </si>
+  <si>
+    <t>Kenya, West Africa</t>
+  </si>
+  <si>
+    <t>Bayesian space-time geostatistical models, kriging</t>
+  </si>
+  <si>
+    <t>Cambodia (Preah Vihear province)</t>
+  </si>
+  <si>
+    <t>Stool sampling, EpiData 3.1, STATA 12.1, generalized estimating equations, ArcGIS 10.0, bivariate regressions, Bayesian multivariate models (WinBUGS 1.4.3), mixed logistic regression models, likelihood ratio test, mixed bivariate logistic regressions, Bayesian mixed logistic models, MCMC simulation, Bayesian kriging</t>
+  </si>
+  <si>
+    <t>Spatial scan statistic</t>
+  </si>
+  <si>
+    <t>Brazil (Espirito Santo)</t>
+  </si>
+  <si>
+    <t>ArcGIS 10.1</t>
+  </si>
+  <si>
+    <t>Systematic literature review, ArcGIS 10.3</t>
   </si>
 </sst>
 </file>
@@ -26302,8 +26377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A845E-5A1C-224D-879C-239DE5930762}">
   <dimension ref="A1:L528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="G429" sqref="G429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26491,7 +26566,7 @@
         <v>2005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1775</v>
+        <v>1752</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -26501,7 +26576,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" t="s">
-        <v>1776</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -26644,26 +26719,26 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="17" t="s">
-        <v>1777</v>
+        <v>1754</v>
       </c>
       <c r="C11" s="5">
         <v>2018</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1778</v>
+        <v>1755</v>
       </c>
       <c r="E11" t="s">
-        <v>1779</v>
+        <v>1756</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>565</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
-        <v>1780</v>
+        <v>1757</v>
       </c>
       <c r="I11" t="s">
-        <v>1781</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -26738,13 +26813,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="17" t="s">
-        <v>1782</v>
+        <v>1759</v>
       </c>
       <c r="C14" s="5">
         <v>2003</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1786</v>
+        <v>1763</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -26754,31 +26829,31 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" t="s">
-        <v>1787</v>
+        <v>1764</v>
       </c>
       <c r="L14" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="17" t="s">
-        <v>1782</v>
+        <v>1759</v>
       </c>
       <c r="C15" s="5">
         <v>2017</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1783</v>
+        <v>1760</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>856</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" t="s">
-        <v>1784</v>
+        <v>1761</v>
       </c>
       <c r="L15" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -26955,13 +27030,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="C21" s="5">
         <v>2013</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1794</v>
+        <v>1771</v>
       </c>
       <c r="E21" t="s">
         <v>154</v>
@@ -26971,10 +27046,10 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" t="s">
-        <v>1795</v>
+        <v>1772</v>
       </c>
       <c r="I21" t="s">
-        <v>1796</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -27081,23 +27156,23 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="17" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="C25" s="5">
         <v>2014</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1797</v>
+        <v>1774</v>
       </c>
       <c r="E25" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1798</v>
+        <v>1775</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" t="s">
-        <v>1799</v>
+        <v>1776</v>
       </c>
       <c r="I25">
         <v>47118</v>
@@ -27207,13 +27282,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="17" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1789</v>
+        <v>1766</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -27223,34 +27298,34 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" t="s">
-        <v>1790</v>
+        <v>1767</v>
       </c>
       <c r="I29" t="s">
-        <v>1791</v>
+        <v>1768</v>
       </c>
       <c r="L29" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="17" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="C30" s="5">
         <v>2015</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1792</v>
+        <v>1769</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>542</v>
       </c>
       <c r="G30" s="7"/>
       <c r="I30" t="s">
-        <v>1793</v>
+        <v>1770</v>
       </c>
       <c r="L30" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -27745,17 +27820,17 @@
         <v>2015</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1800</v>
+        <v>1777</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>223</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="L45" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -28380,20 +28455,20 @@
         <v>2014</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1806</v>
+        <v>1783</v>
       </c>
       <c r="E64" t="s">
         <v>1184</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>1803</v>
+        <v>1780</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" t="s">
-        <v>1807</v>
+        <v>1784</v>
       </c>
       <c r="L64" t="s">
-        <v>1808</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -28440,14 +28515,14 @@
         <v>2016</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1805</v>
+        <v>1782</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>312</v>
       </c>
       <c r="G66" s="7"/>
       <c r="L66" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -28560,28 +28635,28 @@
         <v>2019</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1802</v>
+        <v>1779</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>1803</v>
+        <v>1780</v>
       </c>
       <c r="G70" s="7"/>
       <c r="I70">
         <v>208</v>
       </c>
       <c r="L70" t="s">
-        <v>1804</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="17" t="s">
-        <v>1809</v>
+        <v>1786</v>
       </c>
       <c r="C71" s="5">
         <v>2018</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1810</v>
+        <v>1787</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>154</v>
@@ -28591,7 +28666,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" t="s">
-        <v>1811</v>
+        <v>1788</v>
       </c>
       <c r="I71">
         <v>7547</v>
@@ -28642,7 +28717,7 @@
         <v>2001</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1821</v>
+        <v>1798</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>27</v>
@@ -28655,7 +28730,7 @@
         <v>5365</v>
       </c>
       <c r="L73" t="s">
-        <v>1822</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -28666,17 +28741,17 @@
         <v>2003</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1819</v>
+        <v>1796</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" t="s">
-        <v>1820</v>
+        <v>1797</v>
       </c>
       <c r="L74" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -28687,7 +28762,7 @@
         <v>2004</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1817</v>
+        <v>1794</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>27</v>
@@ -28697,10 +28772,10 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" t="s">
-        <v>1818</v>
+        <v>1795</v>
       </c>
       <c r="L75" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -28740,23 +28815,23 @@
         <v>2011</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1814</v>
+        <v>1791</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>388</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>1815</v>
+        <v>1792</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I77">
         <v>799</v>
       </c>
       <c r="L77" t="s">
-        <v>1816</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -28867,7 +28942,7 @@
         <v>2013</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>1173</v>
@@ -28877,7 +28952,7 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" t="s">
-        <v>1813</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -28986,14 +29061,14 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="8" t="s">
-        <v>1823</v>
+        <v>1800</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="5">
         <v>2018</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1824</v>
+        <v>1801</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>230</v>
@@ -29003,15 +29078,15 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>1726</v>
+        <v>1703</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1825</v>
+        <v>1802</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7" t="s">
-        <v>1826</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -29022,7 +29097,7 @@
         <v>2007</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1827</v>
+        <v>1804</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>388</v>
@@ -29032,13 +29107,13 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I86">
         <v>1406</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -29187,7 +29262,7 @@
         <v>2010</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1870</v>
+        <v>1847</v>
       </c>
       <c r="E91" t="s">
         <v>27</v>
@@ -29197,13 +29272,13 @@
       </c>
       <c r="G91" s="7"/>
       <c r="H91" t="s">
-        <v>1856</v>
+        <v>1833</v>
       </c>
       <c r="I91">
         <v>3130</v>
       </c>
       <c r="L91" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -29214,7 +29289,7 @@
         <v>2010</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1871</v>
+        <v>1848</v>
       </c>
       <c r="E92" t="s">
         <v>27</v>
@@ -29224,13 +29299,13 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I92" t="s">
-        <v>1872</v>
+        <v>1849</v>
       </c>
       <c r="L92" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -29305,20 +29380,20 @@
         <v>2011</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1864</v>
+        <v>1841</v>
       </c>
       <c r="E95" t="s">
         <v>995</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1865</v>
+        <v>1842</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" t="s">
-        <v>1866</v>
+        <v>1843</v>
       </c>
       <c r="L95" t="s">
-        <v>1867</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -29329,20 +29404,20 @@
         <v>2011</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1868</v>
+        <v>1845</v>
       </c>
       <c r="E96" t="s">
-        <v>1568</v>
+        <v>1545</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>1869</v>
+        <v>1846</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" t="s">
         <v>36</v>
       </c>
       <c r="L96" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -29387,7 +29462,7 @@
         <v>2012</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1859</v>
+        <v>1836</v>
       </c>
       <c r="E98" t="s">
         <v>388</v>
@@ -29397,10 +29472,10 @@
       </c>
       <c r="G98" s="7"/>
       <c r="H98" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="L98" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -29411,23 +29486,23 @@
         <v>2012</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1860</v>
+        <v>1837</v>
       </c>
       <c r="E99" t="s">
-        <v>1861</v>
+        <v>1838</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>1862</v>
+        <v>1839</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" t="s">
-        <v>1863</v>
+        <v>1840</v>
       </c>
       <c r="I99">
         <v>6016</v>
       </c>
       <c r="L99" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -29438,7 +29513,7 @@
         <v>2013</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1857</v>
+        <v>1834</v>
       </c>
       <c r="E100" t="s">
         <v>27</v>
@@ -29448,7 +29523,7 @@
       </c>
       <c r="G100" s="7"/>
       <c r="H100" t="s">
-        <v>1858</v>
+        <v>1835</v>
       </c>
       <c r="I100">
         <v>19947</v>
@@ -29568,20 +29643,20 @@
         <v>2015</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1839</v>
+        <v>1816</v>
       </c>
       <c r="E104" t="s">
         <v>154</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>1840</v>
+        <v>1817</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" t="s">
-        <v>1841</v>
+        <v>1818</v>
       </c>
       <c r="I104" t="s">
-        <v>1842</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -29592,13 +29667,13 @@
         <v>2015</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1843</v>
+        <v>1820</v>
       </c>
       <c r="E105" t="s">
         <v>564</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
       <c r="G105" s="7"/>
     </row>
@@ -29610,7 +29685,7 @@
         <v>2015</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1844</v>
+        <v>1821</v>
       </c>
       <c r="E106" t="s">
         <v>27</v>
@@ -29620,10 +29695,10 @@
       </c>
       <c r="G106" s="7"/>
       <c r="H106" t="s">
-        <v>1845</v>
+        <v>1822</v>
       </c>
       <c r="I106" t="s">
-        <v>1846</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -29634,7 +29709,7 @@
         <v>2015</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1847</v>
+        <v>1824</v>
       </c>
       <c r="E107" t="s">
         <v>154</v>
@@ -29644,7 +29719,7 @@
       </c>
       <c r="G107" s="7"/>
       <c r="H107" t="s">
-        <v>1848</v>
+        <v>1825</v>
       </c>
       <c r="I107">
         <v>5116</v>
@@ -29658,7 +29733,7 @@
         <v>2015</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1849</v>
+        <v>1826</v>
       </c>
       <c r="E108" t="s">
         <v>564</v>
@@ -29668,7 +29743,7 @@
       </c>
       <c r="G108" s="7"/>
       <c r="H108" t="s">
-        <v>1850</v>
+        <v>1827</v>
       </c>
       <c r="I108">
         <v>1292</v>
@@ -29682,17 +29757,17 @@
         <v>2015</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1851</v>
+        <v>1828</v>
       </c>
       <c r="E109" t="s">
         <v>154</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" t="s">
-        <v>1852</v>
+        <v>1829</v>
       </c>
       <c r="I109">
         <v>3359</v>
@@ -29706,7 +29781,7 @@
         <v>2015</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1853</v>
+        <v>1830</v>
       </c>
       <c r="E110" t="s">
         <v>511</v>
@@ -29716,10 +29791,10 @@
       </c>
       <c r="G110" s="7"/>
       <c r="H110" t="s">
-        <v>1854</v>
+        <v>1831</v>
       </c>
       <c r="L110" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -29730,7 +29805,7 @@
         <v>2015</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1855</v>
+        <v>1832</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
@@ -29740,13 +29815,13 @@
       </c>
       <c r="G111" s="7"/>
       <c r="H111" t="s">
-        <v>1856</v>
+        <v>1833</v>
       </c>
       <c r="I111">
         <v>369</v>
       </c>
       <c r="L111" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -29859,17 +29934,17 @@
         <v>2016</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1835</v>
+        <v>1812</v>
       </c>
       <c r="E115" t="s">
         <v>388</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>1836</v>
+        <v>1813</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" t="s">
-        <v>1726</v>
+        <v>1703</v>
       </c>
       <c r="I115">
         <v>749</v>
@@ -29886,7 +29961,7 @@
         <v>2016</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1837</v>
+        <v>1814</v>
       </c>
       <c r="E116" t="s">
         <v>154</v>
@@ -29896,7 +29971,7 @@
       </c>
       <c r="G116" s="7"/>
       <c r="H116" t="s">
-        <v>1838</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -30009,7 +30084,7 @@
         <v>2017</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1834</v>
+        <v>1811</v>
       </c>
       <c r="E120" t="s">
         <v>564</v>
@@ -30019,10 +30094,10 @@
       </c>
       <c r="G120" s="7"/>
       <c r="H120" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="L120" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -30099,20 +30174,20 @@
         <v>2018</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1830</v>
+        <v>1807</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>1831</v>
+        <v>1808</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>456</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" t="s">
-        <v>1832</v>
+        <v>1809</v>
       </c>
       <c r="I123" t="s">
-        <v>1833</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -30123,7 +30198,7 @@
         <v>2019</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1828</v>
+        <v>1805</v>
       </c>
       <c r="E124" t="s">
         <v>27</v>
@@ -30133,61 +30208,61 @@
       </c>
       <c r="G124" s="7"/>
       <c r="I124" t="s">
-        <v>1829</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="17" t="s">
-        <v>1873</v>
+        <v>1850</v>
       </c>
       <c r="C125" s="5">
         <v>2009</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1876</v>
+        <v>1853</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>1803</v>
+        <v>1780</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I125" t="s">
-        <v>1877</v>
+        <v>1854</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="17" t="s">
-        <v>1873</v>
+        <v>1850</v>
       </c>
       <c r="C126" s="5">
         <v>2011</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>1803</v>
+        <v>1780</v>
       </c>
       <c r="G126" s="7"/>
       <c r="H126" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I126" t="s">
-        <v>1875</v>
+        <v>1852</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -31032,14 +31107,14 @@
         <v>2000</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1879</v>
+        <v>1856</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>601</v>
       </c>
       <c r="G152" s="7"/>
       <c r="L152" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -31050,7 +31125,7 @@
         <v>2003</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1878</v>
+        <v>1855</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>578</v>
@@ -31060,7 +31135,7 @@
         <v>4532</v>
       </c>
       <c r="L153" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -31677,47 +31752,47 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="17" t="s">
-        <v>1881</v>
+        <v>1858</v>
       </c>
       <c r="C172" s="5">
         <v>2018</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1882</v>
+        <v>1859</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>1883</v>
+        <v>1860</v>
       </c>
       <c r="G172" s="7"/>
       <c r="L172" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="17" t="s">
-        <v>1884</v>
+        <v>1861</v>
       </c>
       <c r="C173" s="5">
         <v>2012</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1885</v>
+        <v>1862</v>
       </c>
       <c r="E173" t="s">
-        <v>1568</v>
+        <v>1545</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G173" s="7"/>
       <c r="H173" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="L173" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -31758,26 +31833,26 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="17" t="s">
-        <v>1886</v>
+        <v>1863</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>1887</v>
+        <v>1864</v>
       </c>
       <c r="C175" s="5">
         <v>2005</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1888</v>
+        <v>1865</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>1889</v>
+        <v>1866</v>
       </c>
       <c r="G175" s="7"/>
       <c r="H175" s="7" t="s">
-        <v>1890</v>
+        <v>1867</v>
       </c>
       <c r="I175" s="9">
         <v>20250</v>
@@ -31785,7 +31860,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7" t="s">
-        <v>1891</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -32628,23 +32703,23 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="17" t="s">
-        <v>1892</v>
+        <v>1869</v>
       </c>
       <c r="C201" s="5">
         <v>2018</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>1894</v>
+        <v>1871</v>
       </c>
       <c r="G201" s="7"/>
       <c r="L201" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -32723,7 +32798,7 @@
         <v>2015</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1902</v>
+        <v>1879</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>564</v>
@@ -32839,20 +32914,20 @@
         <v>2017</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>1898</v>
+        <v>1875</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>1899</v>
+        <v>1876</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>565</v>
       </c>
       <c r="G208" s="7"/>
       <c r="H208" t="s">
-        <v>1900</v>
+        <v>1877</v>
       </c>
       <c r="I208" t="s">
-        <v>1901</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -32863,17 +32938,17 @@
         <v>2019</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>1895</v>
+        <v>1872</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>565</v>
       </c>
       <c r="G209" s="7"/>
       <c r="H209" t="s">
-        <v>1896</v>
+        <v>1873</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>1897</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -32950,17 +33025,17 @@
         <v>1983</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>1909</v>
+        <v>1886</v>
       </c>
       <c r="E212" t="s">
         <v>27</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>1908</v>
+        <v>1885</v>
       </c>
       <c r="G212" s="7"/>
       <c r="L212" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -33715,10 +33790,10 @@
         <v>2016</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1903</v>
+        <v>1880</v>
       </c>
       <c r="E235" t="s">
-        <v>1904</v>
+        <v>1881</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>856</v>
@@ -33728,7 +33803,7 @@
         <v>435</v>
       </c>
       <c r="L235" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -33913,17 +33988,17 @@
         <v>2018</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>1907</v>
+        <v>1884</v>
       </c>
       <c r="E241" t="s">
         <v>27</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>1908</v>
+        <v>1885</v>
       </c>
       <c r="G241" s="7"/>
       <c r="L241" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -33934,7 +34009,7 @@
         <v>2019</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>1905</v>
+        <v>1882</v>
       </c>
       <c r="E242" t="s">
         <v>27</v>
@@ -33944,13 +34019,13 @@
       </c>
       <c r="G242" s="7"/>
       <c r="H242" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I242">
         <v>450</v>
       </c>
       <c r="L242" t="s">
-        <v>1906</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -34231,7 +34306,7 @@
         <v>2007</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1927</v>
+        <v>1904</v>
       </c>
       <c r="E251" t="s">
         <v>27</v>
@@ -34241,10 +34316,10 @@
       </c>
       <c r="G251" s="7"/>
       <c r="H251" t="s">
-        <v>1928</v>
+        <v>1905</v>
       </c>
       <c r="L251" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -34289,7 +34364,7 @@
         <v>2008</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1931</v>
+        <v>1908</v>
       </c>
       <c r="E253" t="s">
         <v>388</v>
@@ -34299,7 +34374,7 @@
       </c>
       <c r="G253" s="7"/>
       <c r="H253" t="s">
-        <v>1932</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -34512,23 +34587,23 @@
         <v>2013</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>1915</v>
+        <v>1892</v>
       </c>
       <c r="E260" t="s">
-        <v>1916</v>
+        <v>1893</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G260" s="7"/>
       <c r="H260" t="s">
-        <v>1917</v>
+        <v>1894</v>
       </c>
       <c r="I260">
         <v>13100</v>
       </c>
       <c r="L260" t="s">
-        <v>1918</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -34669,7 +34744,7 @@
         <v>2014</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1914</v>
+        <v>1891</v>
       </c>
       <c r="E265" t="s">
         <v>1184</v>
@@ -34679,10 +34754,10 @@
       </c>
       <c r="G265" s="7"/>
       <c r="H265" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="L265" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -34693,7 +34768,7 @@
         <v>2014</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>1921</v>
+        <v>1898</v>
       </c>
       <c r="E266" t="s">
         <v>920</v>
@@ -34703,7 +34778,7 @@
       </c>
       <c r="G266" s="7"/>
       <c r="L266" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -34714,7 +34789,7 @@
         <v>2014</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1922</v>
+        <v>1899</v>
       </c>
       <c r="E267" t="s">
         <v>59</v>
@@ -34724,7 +34799,7 @@
       </c>
       <c r="G267" s="7"/>
       <c r="H267" t="s">
-        <v>1923</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -35025,7 +35100,7 @@
         <v>2016</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>1924</v>
+        <v>1901</v>
       </c>
       <c r="E277" t="s">
         <v>27</v>
@@ -35035,10 +35110,10 @@
       </c>
       <c r="G277" s="7"/>
       <c r="H277" t="s">
-        <v>1925</v>
+        <v>1902</v>
       </c>
       <c r="L277" t="s">
-        <v>1926</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -35145,7 +35220,7 @@
         <v>2017</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>1910</v>
+        <v>1887</v>
       </c>
       <c r="E281" t="s">
         <v>1184</v>
@@ -35155,10 +35230,10 @@
       </c>
       <c r="G281" s="7"/>
       <c r="H281" t="s">
-        <v>1911</v>
+        <v>1888</v>
       </c>
       <c r="L281" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -35203,17 +35278,17 @@
         <v>2018</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>1912</v>
+        <v>1889</v>
       </c>
       <c r="E283" t="s">
-        <v>1913</v>
+        <v>1890</v>
       </c>
       <c r="F283" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G283" s="7"/>
       <c r="L283" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -35224,7 +35299,7 @@
         <v>2018</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>1919</v>
+        <v>1896</v>
       </c>
       <c r="E284" t="s">
         <v>27</v>
@@ -35234,7 +35309,7 @@
       </c>
       <c r="G284" s="7"/>
       <c r="H284" t="s">
-        <v>1920</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -35245,7 +35320,7 @@
         <v>2018</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>1929</v>
+        <v>1906</v>
       </c>
       <c r="E285" t="s">
         <v>27</v>
@@ -35255,21 +35330,21 @@
       </c>
       <c r="G285" s="7"/>
       <c r="H285" t="s">
-        <v>1930</v>
+        <v>1907</v>
       </c>
       <c r="L285" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="17" t="s">
-        <v>1933</v>
+        <v>1910</v>
       </c>
       <c r="C286" s="5">
         <v>2017</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>1934</v>
+        <v>1911</v>
       </c>
       <c r="E286" t="s">
         <v>27</v>
@@ -35279,7 +35354,7 @@
       </c>
       <c r="G286" s="7"/>
       <c r="H286" t="s">
-        <v>1935</v>
+        <v>1912</v>
       </c>
       <c r="I286">
         <v>10434</v>
@@ -35323,7 +35398,7 @@
         <v>1996</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>1957</v>
+        <v>1934</v>
       </c>
       <c r="E288" t="s">
         <v>27</v>
@@ -35333,13 +35408,13 @@
       </c>
       <c r="G288" s="7"/>
       <c r="H288" t="s">
-        <v>1784</v>
+        <v>1761</v>
       </c>
       <c r="I288">
         <v>197</v>
       </c>
       <c r="L288" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -35350,7 +35425,7 @@
         <v>1997</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>1949</v>
+        <v>1926</v>
       </c>
       <c r="E289" t="s">
         <v>744</v>
@@ -35383,10 +35458,10 @@
         <v>41</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>2011</v>
+        <v>1988</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>2012</v>
+        <v>1989</v>
       </c>
       <c r="I290" s="7">
         <v>67</v>
@@ -35417,10 +35492,10 @@
         <v>41</v>
       </c>
       <c r="G291" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H291" s="7" t="s">
         <v>2011</v>
-      </c>
-      <c r="H291" s="7" t="s">
-        <v>2034</v>
       </c>
       <c r="I291" s="7">
         <v>96</v>
@@ -35439,7 +35514,7 @@
         <v>2004</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>1952</v>
+        <v>1929</v>
       </c>
       <c r="E292" t="s">
         <v>388</v>
@@ -35449,7 +35524,7 @@
       </c>
       <c r="G292" s="7"/>
       <c r="H292" t="s">
-        <v>1953</v>
+        <v>1930</v>
       </c>
       <c r="I292">
         <v>2784</v>
@@ -35466,7 +35541,7 @@
         <v>2005</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>1940</v>
+        <v>1917</v>
       </c>
       <c r="E293" t="s">
         <v>388</v>
@@ -35529,16 +35604,16 @@
         <v>1135</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>2037</v>
+        <v>2014</v>
       </c>
       <c r="F295" s="7" t="s">
         <v>1136</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>2035</v>
+        <v>2012</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>2036</v>
+        <v>2013</v>
       </c>
       <c r="I295" s="7"/>
       <c r="J295" s="7" t="s">
@@ -35557,7 +35632,7 @@
         <v>2009</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>1954</v>
+        <v>1931</v>
       </c>
       <c r="E296" t="s">
         <v>388</v>
@@ -35570,7 +35645,7 @@
         <v>3818</v>
       </c>
       <c r="L296" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -35625,10 +35700,10 @@
         <v>82</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>2038</v>
+        <v>2015</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>2039</v>
+        <v>2016</v>
       </c>
       <c r="I298" s="7">
         <v>1014</v>
@@ -35659,10 +35734,10 @@
         <v>1170</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>2041</v>
+        <v>2018</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>2042</v>
+        <v>2019</v>
       </c>
       <c r="I299" s="7"/>
       <c r="J299" s="7" t="s">
@@ -35679,7 +35754,7 @@
         <v>2010</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>1955</v>
+        <v>1932</v>
       </c>
       <c r="E300" t="s">
         <v>27</v>
@@ -35689,7 +35764,7 @@
       </c>
       <c r="G300" s="7"/>
       <c r="H300" t="s">
-        <v>1956</v>
+        <v>1933</v>
       </c>
       <c r="I300">
         <v>197</v>
@@ -35751,10 +35826,10 @@
         <v>82</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>2038</v>
+        <v>2015</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>2040</v>
+        <v>2017</v>
       </c>
       <c r="I302" s="7"/>
       <c r="J302" s="7" t="s">
@@ -35786,7 +35861,7 @@
         <v>1089</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>2043</v>
+        <v>2020</v>
       </c>
       <c r="I303" s="7" t="s">
         <v>1165</v>
@@ -35811,16 +35886,16 @@
         <v>1176</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>2045</v>
+        <v>2022</v>
       </c>
       <c r="F304" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>2044</v>
+        <v>2021</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>2046</v>
+        <v>2023</v>
       </c>
       <c r="I304" s="7" t="s">
         <v>1177</v>
@@ -35839,7 +35914,7 @@
         <v>2012</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>1950</v>
+        <v>1927</v>
       </c>
       <c r="E305" t="s">
         <v>27</v>
@@ -35849,7 +35924,7 @@
       </c>
       <c r="G305" s="7"/>
       <c r="H305" t="s">
-        <v>1951</v>
+        <v>1928</v>
       </c>
       <c r="I305">
         <v>310</v>
@@ -35875,10 +35950,10 @@
         <v>41</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>2047</v>
+        <v>2024</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>2048</v>
+        <v>2025</v>
       </c>
       <c r="I306" s="7" t="s">
         <v>1146</v>
@@ -35897,7 +35972,7 @@
         <v>2013</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>1946</v>
+        <v>1923</v>
       </c>
       <c r="E307" t="s">
         <v>59</v>
@@ -35907,7 +35982,7 @@
       </c>
       <c r="G307" s="7"/>
       <c r="L307" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -36001,7 +36076,7 @@
         <v>717</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>2049</v>
+        <v>2026</v>
       </c>
       <c r="I310" s="7">
         <v>1286</v>
@@ -36026,16 +36101,16 @@
         <v>1142</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="F311" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>2044</v>
+        <v>2021</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>2051</v>
+        <v>2028</v>
       </c>
       <c r="I311" s="7">
         <v>11012</v>
@@ -36071,7 +36146,7 @@
         <v>1085</v>
       </c>
       <c r="H312" s="7" t="s">
-        <v>2052</v>
+        <v>2029</v>
       </c>
       <c r="I312" s="7">
         <v>459</v>
@@ -36090,7 +36165,7 @@
         <v>2014</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>1943</v>
+        <v>1920</v>
       </c>
       <c r="E313" t="s">
         <v>154</v>
@@ -36100,7 +36175,7 @@
       </c>
       <c r="G313" s="7"/>
       <c r="L313" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -36111,7 +36186,7 @@
         <v>2014</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>1944</v>
+        <v>1921</v>
       </c>
       <c r="E314" t="s">
         <v>154</v>
@@ -36121,7 +36196,7 @@
       </c>
       <c r="G314" s="7"/>
       <c r="H314" t="s">
-        <v>1945</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -36132,7 +36207,7 @@
         <v>2014</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>1947</v>
+        <v>1924</v>
       </c>
       <c r="E315" t="s">
         <v>27</v>
@@ -36142,7 +36217,7 @@
       </c>
       <c r="G315" s="7"/>
       <c r="H315" t="s">
-        <v>1948</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -36165,7 +36240,7 @@
         <v>155</v>
       </c>
       <c r="G316" s="7" t="s">
-        <v>2053</v>
+        <v>2030</v>
       </c>
       <c r="H316" s="7"/>
       <c r="I316" s="7" t="s">
@@ -36185,7 +36260,7 @@
         <v>2015</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>1938</v>
+        <v>1915</v>
       </c>
       <c r="E317" t="s">
         <v>154</v>
@@ -36195,7 +36270,7 @@
       </c>
       <c r="G317" s="7"/>
       <c r="H317" t="s">
-        <v>1939</v>
+        <v>1916</v>
       </c>
       <c r="I317">
         <v>12462</v>
@@ -36359,10 +36434,10 @@
         <v>41</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>2054</v>
+        <v>2031</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>2055</v>
+        <v>2032</v>
       </c>
       <c r="I322" s="7"/>
       <c r="J322" s="7" t="s">
@@ -36391,10 +36466,10 @@
         <v>1123</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>2056</v>
+        <v>2033</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>2057</v>
+        <v>2034</v>
       </c>
       <c r="I323" s="7">
         <v>399</v>
@@ -36428,7 +36503,7 @@
         <v>1089</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>2058</v>
+        <v>2035</v>
       </c>
       <c r="I324" s="7" t="s">
         <v>1150</v>
@@ -36464,7 +36539,7 @@
         <v>135</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>2059</v>
+        <v>2036</v>
       </c>
       <c r="I325" s="7">
         <v>17331</v>
@@ -36489,16 +36564,16 @@
         <v>1158</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>2060</v>
+        <v>2037</v>
       </c>
       <c r="F326" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>2061</v>
+        <v>2038</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>2062</v>
+        <v>2039</v>
       </c>
       <c r="I326" s="7">
         <v>1604</v>
@@ -36523,7 +36598,7 @@
         <v>1160</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>2063</v>
+        <v>2040</v>
       </c>
       <c r="F327" s="7" t="s">
         <v>110</v>
@@ -36532,7 +36607,7 @@
         <v>110</v>
       </c>
       <c r="H327" s="7" t="s">
-        <v>2064</v>
+        <v>2041</v>
       </c>
       <c r="I327" s="7"/>
       <c r="J327" s="7" t="s">
@@ -36555,7 +36630,7 @@
         <v>1172</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>2065</v>
+        <v>2042</v>
       </c>
       <c r="F328" s="7" t="s">
         <v>966</v>
@@ -36564,7 +36639,7 @@
         <v>966</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>2066</v>
+        <v>2043</v>
       </c>
       <c r="I328" s="7" t="s">
         <v>1174</v>
@@ -36583,7 +36658,7 @@
         <v>2017</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>1936</v>
+        <v>1913</v>
       </c>
       <c r="E329" t="s">
         <v>27</v>
@@ -36593,7 +36668,7 @@
       </c>
       <c r="G329" s="7"/>
       <c r="H329" t="s">
-        <v>1937</v>
+        <v>1914</v>
       </c>
       <c r="I329">
         <v>187</v>
@@ -36607,20 +36682,20 @@
         <v>2017</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>1941</v>
+        <v>1918</v>
       </c>
       <c r="E330" t="s">
         <v>27</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>1908</v>
+        <v>1885</v>
       </c>
       <c r="G330" s="7"/>
       <c r="H330" t="s">
-        <v>1784</v>
+        <v>1761</v>
       </c>
       <c r="I330" t="s">
-        <v>1942</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -36680,7 +36755,7 @@
         <v>578</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>2067</v>
+        <v>2044</v>
       </c>
       <c r="I332" s="7" t="s">
         <v>1117</v>
@@ -36713,10 +36788,10 @@
         <v>41</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>2068</v>
+        <v>2045</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>2069</v>
+        <v>2046</v>
       </c>
       <c r="I333" s="7">
         <v>813</v>
@@ -36750,7 +36825,7 @@
         <v>717</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>2070</v>
+        <v>2047</v>
       </c>
       <c r="I334" s="7"/>
       <c r="J334" s="7" t="s">
@@ -36775,16 +36850,16 @@
         <v>1180</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>2071</v>
+        <v>2048</v>
       </c>
       <c r="F335" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>2072</v>
+        <v>2049</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>2073</v>
+        <v>2050</v>
       </c>
       <c r="I335" s="7">
         <v>27729</v>
@@ -36849,10 +36924,10 @@
         <v>155</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>2074</v>
+        <v>2051</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>2075</v>
+        <v>2052</v>
       </c>
       <c r="I337" s="7"/>
       <c r="J337" s="7" t="s">
@@ -36881,10 +36956,10 @@
         <v>47</v>
       </c>
       <c r="G338" s="7" t="s">
-        <v>2076</v>
+        <v>2053</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>2077</v>
+        <v>2054</v>
       </c>
       <c r="I338" s="7">
         <v>457</v>
@@ -36915,10 +36990,10 @@
         <v>781</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>2078</v>
+        <v>2055</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>2079</v>
+        <v>2056</v>
       </c>
       <c r="I339" s="7"/>
       <c r="J339" s="7" t="s">
@@ -36949,10 +37024,10 @@
         <v>1185</v>
       </c>
       <c r="G340" s="7" t="s">
-        <v>2080</v>
+        <v>2057</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>2081</v>
+        <v>2058</v>
       </c>
       <c r="I340" s="7">
         <v>17896</v>
@@ -36979,16 +37054,16 @@
         <v>1202</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>2083</v>
+        <v>2060</v>
       </c>
       <c r="F341" s="7" t="s">
         <v>781</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>2082</v>
+        <v>2059</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>2084</v>
+        <v>2061</v>
       </c>
       <c r="I341" s="7"/>
       <c r="J341" s="7" t="s">
@@ -37019,10 +37094,10 @@
         <v>1200</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>2086</v>
+        <v>2063</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>2085</v>
+        <v>2062</v>
       </c>
       <c r="I342" s="7">
         <v>1954</v>
@@ -37085,10 +37160,10 @@
         <v>840</v>
       </c>
       <c r="G344" s="7" t="s">
-        <v>2088</v>
+        <v>2065</v>
       </c>
       <c r="H344" s="7" t="s">
-        <v>2087</v>
+        <v>2064</v>
       </c>
       <c r="I344" s="7">
         <v>681</v>
@@ -37113,16 +37188,16 @@
         <v>1195</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>2089</v>
+        <v>2066</v>
       </c>
       <c r="F345" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>2090</v>
+        <v>2067</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>2091</v>
+        <v>2068</v>
       </c>
       <c r="I345" s="7"/>
       <c r="J345" s="7" t="s">
@@ -37135,13 +37210,13 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="17" t="s">
-        <v>1958</v>
+        <v>1935</v>
       </c>
       <c r="C346" s="5">
         <v>2009</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>1959</v>
+        <v>1936</v>
       </c>
       <c r="E346" t="s">
         <v>27</v>
@@ -37151,7 +37226,7 @@
       </c>
       <c r="G346" s="7"/>
       <c r="I346" t="s">
-        <v>1960</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -37174,10 +37249,10 @@
         <v>717</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>2092</v>
+        <v>2069</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>2093</v>
+        <v>2070</v>
       </c>
       <c r="I347" s="7">
         <v>1760</v>
@@ -37208,10 +37283,10 @@
         <v>41</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>2094</v>
+        <v>2071</v>
       </c>
       <c r="H348" s="7" t="s">
-        <v>2095</v>
+        <v>2072</v>
       </c>
       <c r="I348" s="7">
         <v>2113</v>
@@ -37236,16 +37311,16 @@
         <v>1224</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>2096</v>
+        <v>2073</v>
       </c>
       <c r="F349" s="7" t="s">
         <v>840</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>2098</v>
+        <v>2075</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>2097</v>
+        <v>2074</v>
       </c>
       <c r="I349" s="7">
         <v>4755</v>
@@ -37278,10 +37353,10 @@
         <v>840</v>
       </c>
       <c r="G350" s="7" t="s">
-        <v>2098</v>
+        <v>2075</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>2099</v>
+        <v>2076</v>
       </c>
       <c r="I350" s="7">
         <v>3578</v>
@@ -37347,7 +37422,7 @@
         <v>1089</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>2100</v>
+        <v>2077</v>
       </c>
       <c r="I352" s="7">
         <v>1208</v>
@@ -37372,7 +37447,7 @@
         <v>1234</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>2101</v>
+        <v>2078</v>
       </c>
       <c r="F353" s="7" t="s">
         <v>135</v>
@@ -37404,16 +37479,16 @@
         <v>1250</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>2071</v>
+        <v>2048</v>
       </c>
       <c r="F354" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G354" s="7" t="s">
-        <v>2102</v>
+        <v>2079</v>
       </c>
       <c r="H354" s="7" t="s">
-        <v>2103</v>
+        <v>2080</v>
       </c>
       <c r="I354" s="7" t="s">
         <v>1251</v>
@@ -37444,10 +37519,10 @@
         <v>781</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>2105</v>
+        <v>2082</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>2104</v>
+        <v>2081</v>
       </c>
       <c r="I355" s="7"/>
       <c r="J355" s="7" t="s">
@@ -37478,10 +37553,10 @@
         <v>699</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>2106</v>
+        <v>2083</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>2107</v>
+        <v>2084</v>
       </c>
       <c r="I356" s="16" t="s">
         <v>1243</v>
@@ -37506,7 +37581,7 @@
         <v>1248</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>2108</v>
+        <v>2085</v>
       </c>
       <c r="F357" s="7" t="s">
         <v>717</v>
@@ -37515,7 +37590,7 @@
         <v>717</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>2109</v>
+        <v>2086</v>
       </c>
       <c r="I357" s="7">
         <v>2293</v>
@@ -37534,7 +37609,7 @@
         <v>2013</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>1961</v>
+        <v>1938</v>
       </c>
       <c r="E358" t="s">
         <v>154</v>
@@ -37544,10 +37619,10 @@
       </c>
       <c r="G358" s="7"/>
       <c r="H358" t="s">
-        <v>1820</v>
+        <v>1797</v>
       </c>
       <c r="L358" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -37564,16 +37639,16 @@
         <v>1245</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>2110</v>
+        <v>2087</v>
       </c>
       <c r="F359" s="7" t="s">
         <v>1246</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>2112</v>
+        <v>2089</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>2111</v>
+        <v>2088</v>
       </c>
       <c r="I359" s="7"/>
       <c r="J359" s="7" t="s">
@@ -37590,23 +37665,23 @@
         <v>2019</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>1962</v>
+        <v>1939</v>
       </c>
       <c r="E360" t="s">
         <v>27</v>
       </c>
       <c r="F360" s="7" t="s">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="G360" s="7"/>
       <c r="H360" t="s">
-        <v>1784</v>
+        <v>1761</v>
       </c>
       <c r="I360">
         <v>19250</v>
       </c>
       <c r="L360" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -37632,7 +37707,7 @@
         <v>578</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>2113</v>
+        <v>2090</v>
       </c>
       <c r="I361" s="7">
         <v>22166</v>
@@ -37657,16 +37732,16 @@
         <v>1257</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>2114</v>
+        <v>2091</v>
       </c>
       <c r="F362" s="7" t="s">
         <v>699</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>2115</v>
+        <v>2092</v>
       </c>
       <c r="H362" s="7" t="s">
-        <v>2116</v>
+        <v>2093</v>
       </c>
       <c r="I362" s="7"/>
       <c r="J362" s="7" t="s">
@@ -37697,10 +37772,10 @@
         <v>699</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>2117</v>
+        <v>2094</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>2118</v>
+        <v>2095</v>
       </c>
       <c r="I363" s="7"/>
       <c r="J363" s="7" t="s">
@@ -37732,7 +37807,7 @@
         <v>560</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>2119</v>
+        <v>2096</v>
       </c>
       <c r="I364" s="7">
         <v>16890</v>
@@ -37768,7 +37843,7 @@
         <v>610</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>2120</v>
+        <v>2097</v>
       </c>
       <c r="I365" s="7">
         <v>2245</v>
@@ -37802,7 +37877,7 @@
         <v>578</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>2122</v>
+        <v>2099</v>
       </c>
       <c r="I366" s="7">
         <v>12594</v>
@@ -37835,10 +37910,10 @@
         <v>578</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>2121</v>
+        <v>2098</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>2123</v>
+        <v>2100</v>
       </c>
       <c r="I367" s="7">
         <v>4130</v>
@@ -37859,7 +37934,7 @@
         <v>2013</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>1963</v>
+        <v>1940</v>
       </c>
       <c r="E368" t="s">
         <v>154</v>
@@ -37869,7 +37944,7 @@
       </c>
       <c r="G368" s="7"/>
       <c r="H368" t="s">
-        <v>1964</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -37895,7 +37970,7 @@
         <v>622</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>2124</v>
+        <v>2101</v>
       </c>
       <c r="I369" s="7"/>
       <c r="J369" s="7" t="s">
@@ -37926,7 +38001,7 @@
         <v>465</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>2125</v>
+        <v>2102</v>
       </c>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
@@ -37956,7 +38031,7 @@
         <v>16</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>2126</v>
+        <v>2103</v>
       </c>
       <c r="H371" s="7" t="s">
         <v>130</v>
@@ -38022,10 +38097,10 @@
         <v>162</v>
       </c>
       <c r="G373" s="7" t="s">
-        <v>2127</v>
+        <v>2104</v>
       </c>
       <c r="H373" s="7" t="s">
-        <v>2128</v>
+        <v>2105</v>
       </c>
       <c r="I373" s="7">
         <v>15455</v>
@@ -38059,7 +38134,7 @@
         <v>135</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>2129</v>
+        <v>2106</v>
       </c>
       <c r="I374" s="7" t="s">
         <v>1291</v>
@@ -38107,13 +38182,13 @@
         <v>1295</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C376" s="5">
         <v>2010</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E376" s="7" t="s">
         <v>239</v>
@@ -38137,25 +38212,25 @@
         <v>1295</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C377" s="5">
         <v>2012</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E377" s="7" t="s">
         <v>239</v>
       </c>
       <c r="F377" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G377" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H377" s="7" t="s">
         <v>1330</v>
-      </c>
-      <c r="G377" s="7" t="s">
-        <v>2130</v>
-      </c>
-      <c r="H377" s="7" t="s">
-        <v>1331</v>
       </c>
       <c r="I377" s="7"/>
       <c r="J377" s="7" t="s">
@@ -38187,7 +38262,7 @@
         <v>996</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>2131</v>
+        <v>2108</v>
       </c>
       <c r="I378" s="7"/>
       <c r="J378" s="7" t="s">
@@ -38235,25 +38310,25 @@
         <v>1295</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C380" s="5">
         <v>2015</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E380" s="7" t="s">
-        <v>2132</v>
+        <v>2109</v>
       </c>
       <c r="F380" s="7" t="s">
         <v>883</v>
       </c>
       <c r="G380" s="7" t="s">
-        <v>2133</v>
+        <v>2110</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>2134</v>
+        <v>2111</v>
       </c>
       <c r="I380" s="7"/>
       <c r="J380" s="7" t="s">
@@ -38261,7 +38336,7 @@
       </c>
       <c r="K380" s="7"/>
       <c r="L380" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -38269,16 +38344,16 @@
         <v>1295</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C381" s="5">
         <v>2015</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>2135</v>
+        <v>2112</v>
       </c>
       <c r="F381" s="7" t="s">
         <v>110</v>
@@ -38287,7 +38362,7 @@
         <v>1089</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>2136</v>
+        <v>2113</v>
       </c>
       <c r="I381" s="7"/>
       <c r="J381" s="7" t="s">
@@ -38295,7 +38370,7 @@
       </c>
       <c r="K381" s="7"/>
       <c r="L381" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -38303,16 +38378,16 @@
         <v>1295</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C382" s="5">
         <v>2016</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E382" s="7" t="s">
-        <v>2137</v>
+        <v>2114</v>
       </c>
       <c r="F382" s="7" t="s">
         <v>16</v>
@@ -38321,7 +38396,7 @@
         <v>16</v>
       </c>
       <c r="H382" s="11" t="s">
-        <v>2138</v>
+        <v>2115</v>
       </c>
       <c r="I382" s="7"/>
       <c r="J382" s="7" t="s">
@@ -38329,7 +38404,7 @@
       </c>
       <c r="K382" s="7"/>
       <c r="L382" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -38337,13 +38412,13 @@
         <v>1295</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C383" s="5">
         <v>2017</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E383" s="7" t="s">
         <v>388</v>
@@ -38352,10 +38427,10 @@
         <v>120</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>2139</v>
+        <v>2116</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>2140</v>
+        <v>2117</v>
       </c>
       <c r="I383" s="7">
         <v>1574</v>
@@ -38371,25 +38446,25 @@
         <v>1295</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C384" s="5">
         <v>2017</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E384" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F384" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G384" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>2141</v>
+        <v>2118</v>
       </c>
       <c r="I384" s="7"/>
       <c r="J384" s="7" t="s">
@@ -38397,7 +38472,7 @@
       </c>
       <c r="K384" s="7"/>
       <c r="L384" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -38405,13 +38480,13 @@
         <v>1295</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C385" s="5">
         <v>2017</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E385" s="7" t="s">
         <v>46</v>
@@ -38429,7 +38504,7 @@
       </c>
       <c r="K385" s="7"/>
       <c r="L385" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -38446,13 +38521,17 @@
         <v>1300</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>1156</v>
+        <v>2119</v>
       </c>
       <c r="F386" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G386" s="7"/>
-      <c r="H386" s="7"/>
+      <c r="G386" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H386" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="I386" s="7"/>
       <c r="J386" s="7" t="s">
         <v>63</v>
@@ -38476,14 +38555,16 @@
         <v>1304</v>
       </c>
       <c r="E387" s="7" t="s">
-        <v>1156</v>
+        <v>337</v>
       </c>
       <c r="F387" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G387" s="7"/>
+      <c r="G387" s="7" t="s">
+        <v>2120</v>
+      </c>
       <c r="H387" s="7" t="s">
-        <v>1305</v>
+        <v>2121</v>
       </c>
       <c r="I387" s="7"/>
       <c r="J387" s="7" t="s">
@@ -38497,21 +38578,23 @@
         <v>1295</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C388" s="5">
         <v>2018</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>1156</v>
+        <v>239</v>
       </c>
       <c r="F388" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G388" s="7"/>
+      <c r="G388" s="7" t="s">
+        <v>2122</v>
+      </c>
       <c r="H388" s="7"/>
       <c r="I388" s="7"/>
       <c r="J388" s="7" t="s">
@@ -38519,7 +38602,7 @@
       </c>
       <c r="K388" s="7"/>
       <c r="L388" s="7" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -38527,21 +38610,23 @@
         <v>1295</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C389" s="5">
         <v>2019</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E389" s="7" t="s">
-        <v>1156</v>
+        <v>46</v>
       </c>
       <c r="F389" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G389" s="7"/>
+      <c r="G389" s="7" t="s">
+        <v>2123</v>
+      </c>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
       <c r="J389" s="7" t="s">
@@ -38549,21 +38634,21 @@
       </c>
       <c r="K389" s="7"/>
       <c r="L389" s="7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B390" s="4" t="s">
         <v>1334</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>1335</v>
       </c>
       <c r="C390" s="5">
         <v>2011</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E390" s="7" t="s">
         <v>27</v>
@@ -38571,12 +38656,14 @@
       <c r="F390" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G390" s="7"/>
+      <c r="G390" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="H390" s="7" t="s">
-        <v>1337</v>
+        <v>2124</v>
       </c>
       <c r="I390" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="J390" s="7" t="s">
         <v>17</v>
@@ -38586,26 +38673,28 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="7" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C391" s="5">
         <v>2010</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>27</v>
+        <v>2048</v>
       </c>
       <c r="F391" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G391" s="7"/>
+      <c r="G391" s="7" t="s">
+        <v>717</v>
+      </c>
       <c r="H391" s="7" t="s">
-        <v>1342</v>
+        <v>2125</v>
       </c>
       <c r="I391" s="7">
         <v>5069</v>
@@ -38618,26 +38707,28 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="7" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C392" s="5">
         <v>2009</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E392" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G392" s="7"/>
+        <v>1343</v>
+      </c>
+      <c r="G392" s="7" t="s">
+        <v>2126</v>
+      </c>
       <c r="H392" s="7" t="s">
-        <v>1347</v>
+        <v>2127</v>
       </c>
       <c r="I392" s="7"/>
       <c r="J392" s="7" t="s">
@@ -38645,29 +38736,31 @@
       </c>
       <c r="K392" s="7"/>
       <c r="L392" s="7" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="7" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C393" s="5">
         <v>2009</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="E393" s="7" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="F393" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="G393" s="7"/>
+      <c r="G393" s="7" t="s">
+        <v>2128</v>
+      </c>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
       <c r="J393" s="7" t="s">
@@ -38675,31 +38768,33 @@
       </c>
       <c r="K393" s="7"/>
       <c r="L393" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="7" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C394" s="5">
         <v>2014</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E394" s="7" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F394" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="G394" s="7"/>
+      <c r="G394" s="7" t="s">
+        <v>840</v>
+      </c>
       <c r="H394" s="7" t="s">
-        <v>1355</v>
+        <v>2130</v>
       </c>
       <c r="I394" s="7">
         <v>5104</v>
@@ -38707,29 +38802,35 @@
       <c r="J394" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K394" s="7"/>
-      <c r="L394" s="7"/>
+      <c r="K394" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L394" s="7" t="s">
+        <v>2129</v>
+      </c>
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="7" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C395" s="5">
         <v>2017</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E395" s="7" t="s">
-        <v>1156</v>
+        <v>239</v>
       </c>
       <c r="F395" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G395" s="7"/>
+      <c r="G395" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
       <c r="J395" s="7" t="s">
@@ -38737,31 +38838,33 @@
       </c>
       <c r="K395" s="7"/>
       <c r="L395" s="7" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="7" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C396" s="5">
         <v>2018</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="E396" s="7" t="s">
-        <v>1156</v>
+        <v>2131</v>
       </c>
       <c r="F396" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G396" s="7"/>
+      <c r="G396" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="H396" s="7" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I396" s="7"/>
       <c r="J396" s="7" t="s">
@@ -38772,29 +38875,31 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="7" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="C397" s="5">
         <v>2012</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E397" s="7" t="s">
-        <v>27</v>
+        <v>633</v>
       </c>
       <c r="F397" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G397" s="7"/>
+      <c r="G397" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="H397" s="7" t="s">
-        <v>1366</v>
+        <v>2132</v>
       </c>
       <c r="I397" s="7" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="J397" s="7" t="s">
         <v>63</v>
@@ -38804,26 +38909,28 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="7" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="C398" s="5">
         <v>2011</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="E398" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F398" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="G398" s="7"/>
+      <c r="G398" s="7" t="s">
+        <v>2133</v>
+      </c>
       <c r="H398" s="7" t="s">
-        <v>1371</v>
+        <v>2134</v>
       </c>
       <c r="I398" s="7"/>
       <c r="J398" s="7" t="s">
@@ -38836,25 +38943,29 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="7" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="C399" s="5">
         <v>2012</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="E399" s="7" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="F399" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="G399" s="7"/>
-      <c r="H399" s="7"/>
+      <c r="G399" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="H399" s="7" t="s">
+        <v>2135</v>
+      </c>
       <c r="I399" s="7"/>
       <c r="J399" s="7" t="s">
         <v>17</v>
@@ -38864,26 +38975,28 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="C400" s="5">
         <v>2013</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="E400" s="7" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="F400" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="G400" s="7"/>
+      <c r="G400" s="7" t="s">
+        <v>2136</v>
+      </c>
       <c r="H400" s="7" t="s">
-        <v>1378</v>
+        <v>2137</v>
       </c>
       <c r="I400" s="7">
         <v>335</v>
@@ -38896,26 +39009,28 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="C401" s="5">
         <v>2014</v>
       </c>
-      <c r="D401" s="7" t="s">
-        <v>1380</v>
+      <c r="D401" s="6" t="s">
+        <v>1372</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F401" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G401" s="7"/>
+      <c r="G401" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H401" s="7" t="s">
-        <v>1381</v>
+        <v>2138</v>
       </c>
       <c r="I401" s="7">
         <v>2554</v>
@@ -38925,21 +39040,21 @@
       </c>
       <c r="K401" s="7"/>
       <c r="L401" s="7" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="C402" s="5">
         <v>2014</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>27</v>
@@ -38947,9 +39062,11 @@
       <c r="F402" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G402" s="7"/>
+      <c r="G402" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="H402" s="7" t="s">
-        <v>1385</v>
+        <v>2139</v>
       </c>
       <c r="I402" s="7">
         <v>1462</v>
@@ -38962,26 +39079,28 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="C403" s="5">
         <v>2014</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="E403" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F403" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G403" s="7"/>
+      <c r="G403" s="7" t="s">
+        <v>2140</v>
+      </c>
       <c r="H403" s="7" t="s">
-        <v>1407</v>
+        <v>2141</v>
       </c>
       <c r="I403" s="7">
         <v>692</v>
@@ -38994,50 +39113,52 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="C404" s="5">
         <v>2015</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="E404" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F404" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G404" s="7"/>
+      <c r="G404" s="7" t="s">
+        <v>2142</v>
+      </c>
       <c r="H404" s="7" t="s">
-        <v>1400</v>
+        <v>2143</v>
       </c>
       <c r="I404" s="7" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="J404" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K404" s="7"/>
       <c r="L404" s="7" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="C405" s="5">
         <v>2015</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="E405" s="7" t="s">
         <v>59</v>
@@ -39045,7 +39166,9 @@
       <c r="F405" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G405" s="7"/>
+      <c r="G405" s="7" t="s">
+        <v>2144</v>
+      </c>
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
       <c r="J405" s="7" t="s">
@@ -39058,26 +39181,28 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="C406" s="5">
         <v>2016</v>
       </c>
       <c r="D406" s="7" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F406" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="G406" s="7"/>
+      <c r="G406" s="7" t="s">
+        <v>883</v>
+      </c>
       <c r="H406" s="7" t="s">
-        <v>1388</v>
+        <v>2145</v>
       </c>
       <c r="I406" s="7">
         <v>3514</v>
@@ -39090,26 +39215,28 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="C407" s="5">
         <v>2016</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="E407" s="7" t="s">
-        <v>564</v>
+        <v>2146</v>
       </c>
       <c r="F407" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="G407" s="7"/>
+      <c r="G407" s="7" t="s">
+        <v>840</v>
+      </c>
       <c r="H407" s="7" t="s">
-        <v>1397</v>
+        <v>2147</v>
       </c>
       <c r="I407" s="7">
         <v>5246</v>
@@ -39122,7 +39249,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>89</v>
@@ -39134,14 +39261,16 @@
         <v>90</v>
       </c>
       <c r="E408" s="7" t="s">
-        <v>27</v>
+        <v>2148</v>
       </c>
       <c r="F408" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G408" s="7"/>
+      <c r="G408" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H408" s="7" t="s">
-        <v>1408</v>
+        <v>2149</v>
       </c>
       <c r="I408" s="7"/>
       <c r="J408" s="7" t="s">
@@ -39154,16 +39283,16 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="C409" s="5">
         <v>2017</v>
       </c>
       <c r="D409" s="7" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="E409" s="7" t="s">
         <v>59</v>
@@ -39171,9 +39300,11 @@
       <c r="F409" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G409" s="7"/>
+      <c r="G409" s="7" t="s">
+        <v>2150</v>
+      </c>
       <c r="H409" s="7" t="s">
-        <v>1391</v>
+        <v>2151</v>
       </c>
       <c r="I409" s="7">
         <v>6421</v>
@@ -39186,54 +39317,60 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="C410" s="5">
         <v>2017</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="E410" s="7" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="F410" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G410" s="7"/>
+      <c r="G410" s="7" t="s">
+        <v>2153</v>
+      </c>
       <c r="H410" s="7" t="s">
-        <v>1411</v>
+        <v>2154</v>
       </c>
       <c r="I410" s="7"/>
       <c r="J410" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K410" s="7"/>
-      <c r="L410" s="7"/>
+      <c r="L410" s="7" t="s">
+        <v>2152</v>
+      </c>
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C411" s="5">
         <v>2018</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="E411" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F411" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G411" s="7"/>
+      <c r="G411" s="7" t="s">
+        <v>2155</v>
+      </c>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
       <c r="J411" s="7" t="s">
@@ -39241,29 +39378,31 @@
       </c>
       <c r="K411" s="7"/>
       <c r="L411" s="7" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="7" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="C412" s="5">
         <v>2019</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>1156</v>
+        <v>239</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G412" s="7"/>
+      <c r="G412" s="7" t="s">
+        <v>2156</v>
+      </c>
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
       <c r="J412" s="7" t="s">
@@ -39274,29 +39413,31 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="7" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
       <c r="C413" s="5">
         <v>2011</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="F413" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G413" s="7"/>
+        <v>2136</v>
+      </c>
+      <c r="G413" s="7" t="s">
+        <v>2136</v>
+      </c>
       <c r="H413" s="7" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="I413" s="7" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="J413" s="7" t="s">
         <v>63</v>
@@ -39306,46 +39447,50 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="7" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="C414" s="5">
         <v>2012</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="E414" s="7" t="s">
-        <v>1422</v>
+        <v>2157</v>
       </c>
       <c r="F414" s="7" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G414" s="7"/>
-      <c r="H414" s="7"/>
+        <v>2159</v>
+      </c>
+      <c r="G414" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H414" s="7" t="s">
+        <v>2160</v>
+      </c>
       <c r="I414" s="7"/>
       <c r="J414" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K414" s="7"/>
       <c r="L414" s="7" t="s">
-        <v>1424</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="8" t="s">
-        <v>1425</v>
+        <v>1406</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1426</v>
+        <v>1407</v>
       </c>
       <c r="C415" s="5">
         <v>2014</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>1427</v>
+        <v>1408</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>59</v>
@@ -39353,9 +39498,11 @@
       <c r="F415" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G415" s="7"/>
+      <c r="G415" s="7" t="s">
+        <v>2161</v>
+      </c>
       <c r="H415" s="7" t="s">
-        <v>1428</v>
+        <v>2162</v>
       </c>
       <c r="I415" s="7">
         <v>2396</v>
@@ -39368,26 +39515,28 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="8" t="s">
-        <v>1429</v>
+        <v>1409</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1430</v>
+        <v>1410</v>
       </c>
       <c r="C416" s="5">
         <v>2014</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>1431</v>
+        <v>1411</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>130</v>
       </c>
       <c r="F416" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G416" s="7"/>
+        <v>1412</v>
+      </c>
+      <c r="G416" s="7" t="s">
+        <v>1416</v>
+      </c>
       <c r="H416" s="11" t="s">
-        <v>1433</v>
+        <v>130</v>
       </c>
       <c r="I416" s="7"/>
       <c r="J416" s="7" t="s">
@@ -39398,61 +39547,67 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="7" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="C417" s="5">
         <v>2018</v>
       </c>
-      <c r="D417" s="7" t="s">
-        <v>1436</v>
+      <c r="D417" s="6" t="s">
+        <v>1415</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G417" s="7"/>
+        <v>1416</v>
+      </c>
+      <c r="G417" s="7" t="s">
+        <v>1416</v>
+      </c>
       <c r="H417" s="7" t="s">
-        <v>1438</v>
+        <v>130</v>
       </c>
       <c r="I417" s="7" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="J417" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K417" s="7"/>
       <c r="L417" s="7" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="8" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="C418" s="5">
         <v>2015</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="E418" s="7" t="s">
-        <v>1444</v>
+        <v>46</v>
       </c>
       <c r="F418" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G418" s="7"/>
-      <c r="H418" s="7"/>
+      <c r="G418" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H418" s="7" t="s">
+        <v>2163</v>
+      </c>
       <c r="I418" s="7" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="J418" s="7" t="s">
         <v>17</v>
@@ -39461,34 +39616,36 @@
         <v>63</v>
       </c>
       <c r="L418" s="7" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="8" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="C419" s="5">
         <v>2016</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="F419" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G419" s="7"/>
+      <c r="G419" s="7" t="s">
+        <v>2164</v>
+      </c>
       <c r="H419" s="7" t="s">
-        <v>1450</v>
+        <v>2165</v>
       </c>
       <c r="I419" s="7" t="s">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="J419" s="7" t="s">
         <v>17</v>
@@ -39498,13 +39655,13 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="17" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="C420" s="5">
         <v>2016</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>1969</v>
+        <v>1946</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>27</v>
@@ -39514,24 +39671,24 @@
       </c>
       <c r="G420" s="7"/>
       <c r="H420" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I420">
         <v>6200497</v>
       </c>
       <c r="L420" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="17" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="C421" s="5">
         <v>2017</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>1965</v>
+        <v>1942</v>
       </c>
       <c r="E421" s="7" t="s">
         <v>27</v>
@@ -39541,24 +39698,24 @@
       </c>
       <c r="G421" s="7"/>
       <c r="H421" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I421">
         <v>146346244</v>
       </c>
       <c r="L421" s="7" t="s">
-        <v>1966</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="17" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="C422" s="5">
         <v>2017</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>1967</v>
+        <v>1944</v>
       </c>
       <c r="E422" s="7" t="s">
         <v>27</v>
@@ -39568,24 +39725,24 @@
       </c>
       <c r="G422" s="7"/>
       <c r="H422" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I422">
         <v>7415998</v>
       </c>
       <c r="L422" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="17" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="C423" s="5">
         <v>2017</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>1968</v>
+        <v>1945</v>
       </c>
       <c r="E423" s="7" t="s">
         <v>920</v>
@@ -39595,40 +39752,42 @@
       </c>
       <c r="G423" s="7"/>
       <c r="H423" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="I423">
         <v>104180</v>
       </c>
       <c r="L423" s="7" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="8" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1452</v>
+        <v>1430</v>
       </c>
       <c r="C424" s="5">
         <v>2018</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>1453</v>
+        <v>1431</v>
       </c>
       <c r="E424" s="7" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="F424" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G424" s="7"/>
+      <c r="G424" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="H424" s="7" t="s">
-        <v>1454</v>
+        <v>2166</v>
       </c>
       <c r="I424" s="7" t="s">
-        <v>1455</v>
+        <v>1432</v>
       </c>
       <c r="J424" s="7" t="s">
         <v>17</v>
@@ -39638,7 +39797,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="8" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>303</v>
@@ -39647,17 +39806,17 @@
         <v>2018</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>1456</v>
+        <v>1433</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="F425" s="7" t="s">
-        <v>1457</v>
+        <v>1434</v>
       </c>
       <c r="G425" s="7"/>
       <c r="H425" s="7" t="s">
-        <v>1458</v>
+        <v>1435</v>
       </c>
       <c r="I425" s="7"/>
       <c r="J425" s="7" t="s">
@@ -39665,31 +39824,31 @@
       </c>
       <c r="K425" s="7"/>
       <c r="L425" s="7" t="s">
-        <v>1459</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1461</v>
+        <v>1438</v>
       </c>
       <c r="C426" s="5">
         <v>2008</v>
       </c>
       <c r="D426" s="7" t="s">
-        <v>1462</v>
+        <v>1439</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="F426" s="7" t="s">
-        <v>1463</v>
+        <v>1440</v>
       </c>
       <c r="G426" s="7"/>
       <c r="H426" s="7" t="s">
-        <v>1464</v>
+        <v>1441</v>
       </c>
       <c r="I426" s="7">
         <v>562</v>
@@ -39699,21 +39858,21 @@
       </c>
       <c r="K426" s="7"/>
       <c r="L426" s="7" t="s">
-        <v>1465</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1466</v>
+        <v>1443</v>
       </c>
       <c r="C427" s="5">
         <v>2010</v>
       </c>
       <c r="D427" s="7" t="s">
-        <v>1467</v>
+        <v>1444</v>
       </c>
       <c r="E427" s="7" t="s">
         <v>920</v>
@@ -39723,28 +39882,28 @@
       </c>
       <c r="G427" s="7"/>
       <c r="H427" s="7" t="s">
-        <v>1468</v>
+        <v>1445</v>
       </c>
       <c r="I427" s="7" t="s">
-        <v>1469</v>
+        <v>1446</v>
       </c>
       <c r="J427" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K427" s="7"/>
       <c r="L427" s="7" t="s">
-        <v>1470</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="17" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="C428" s="5">
         <v>2010</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="E428" s="7" t="s">
         <v>1184</v>
@@ -39754,7 +39913,7 @@
       </c>
       <c r="G428" s="7"/>
       <c r="H428" t="s">
-        <v>1971</v>
+        <v>1948</v>
       </c>
       <c r="I428">
         <v>38105</v>
@@ -39762,26 +39921,26 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1471</v>
+        <v>1448</v>
       </c>
       <c r="C429" s="5">
         <v>2012</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>1472</v>
+        <v>1449</v>
       </c>
       <c r="E429" s="7" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="F429" s="7" t="s">
         <v>1190</v>
       </c>
       <c r="G429" s="7"/>
       <c r="H429" s="7" t="s">
-        <v>1473</v>
+        <v>1450</v>
       </c>
       <c r="I429" s="7">
         <v>720</v>
@@ -39791,31 +39950,31 @@
       </c>
       <c r="K429" s="7"/>
       <c r="L429" s="7" t="s">
-        <v>1474</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>1475</v>
+        <v>1452</v>
       </c>
       <c r="C430" s="5">
         <v>2012</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1476</v>
+        <v>1453</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F430" s="7" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
       <c r="G430" s="7"/>
       <c r="H430" s="7" t="s">
-        <v>1478</v>
+        <v>1455</v>
       </c>
       <c r="I430" s="7">
         <v>402</v>
@@ -39828,16 +39987,16 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1479</v>
+        <v>1456</v>
       </c>
       <c r="C431" s="5">
         <v>2015</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>1480</v>
+        <v>1457</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>130</v>
@@ -39847,7 +40006,7 @@
       </c>
       <c r="G431" s="7"/>
       <c r="H431" s="7" t="s">
-        <v>1481</v>
+        <v>1458</v>
       </c>
       <c r="I431" s="7"/>
       <c r="J431" s="7" t="s">
@@ -39858,26 +40017,26 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1482</v>
+        <v>1459</v>
       </c>
       <c r="C432" s="5">
         <v>2015</v>
       </c>
       <c r="D432" s="7" t="s">
-        <v>1483</v>
+        <v>1460</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>1484</v>
+        <v>1461</v>
       </c>
       <c r="F432" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G432" s="7"/>
       <c r="H432" s="7" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
       <c r="I432" s="7">
         <v>2113</v>
@@ -39890,16 +40049,16 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1486</v>
+        <v>1463</v>
       </c>
       <c r="C433" s="5">
         <v>2015</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1487</v>
+        <v>1464</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>27</v>
@@ -39909,7 +40068,7 @@
       </c>
       <c r="G433" s="7"/>
       <c r="H433" s="7" t="s">
-        <v>1488</v>
+        <v>1465</v>
       </c>
       <c r="I433" s="7">
         <v>68432</v>
@@ -39919,31 +40078,31 @@
       </c>
       <c r="K433" s="7"/>
       <c r="L433" s="7" t="s">
-        <v>1465</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1489</v>
+        <v>1466</v>
       </c>
       <c r="C434" s="5">
         <v>2015</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1490</v>
+        <v>1467</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>1491</v>
+        <v>1468</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G434" s="7"/>
       <c r="H434" s="7" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
       <c r="I434" s="7"/>
       <c r="J434" s="7" t="s">
@@ -39951,65 +40110,65 @@
       </c>
       <c r="K434" s="7"/>
       <c r="L434" s="7" t="s">
-        <v>1493</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1494</v>
+        <v>1471</v>
       </c>
       <c r="C435" s="5">
         <v>2016</v>
       </c>
       <c r="D435" s="7" t="s">
-        <v>1495</v>
+        <v>1472</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>230</v>
       </c>
       <c r="F435" s="7" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
       <c r="G435" s="7"/>
       <c r="H435" s="7" t="s">
-        <v>1496</v>
+        <v>1473</v>
       </c>
       <c r="I435" s="7" t="s">
-        <v>1497</v>
+        <v>1474</v>
       </c>
       <c r="J435" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K435" s="7"/>
       <c r="L435" s="7" t="s">
-        <v>1498</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="C436" s="5">
         <v>2016</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>1500</v>
+        <v>1477</v>
       </c>
       <c r="E436" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F436" s="7" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
       <c r="G436" s="7"/>
       <c r="H436" s="7" t="s">
-        <v>1501</v>
+        <v>1478</v>
       </c>
       <c r="I436" s="7">
         <v>403</v>
@@ -40022,16 +40181,16 @@
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1502</v>
+        <v>1479</v>
       </c>
       <c r="C437" s="5">
         <v>2017</v>
       </c>
       <c r="D437" s="7" t="s">
-        <v>1503</v>
+        <v>1480</v>
       </c>
       <c r="E437" s="7" t="s">
         <v>920</v>
@@ -40041,7 +40200,7 @@
       </c>
       <c r="G437" s="7"/>
       <c r="H437" s="7" t="s">
-        <v>1504</v>
+        <v>1481</v>
       </c>
       <c r="I437" s="7">
         <v>4599</v>
@@ -40054,29 +40213,29 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1505</v>
+        <v>1482</v>
       </c>
       <c r="C438" s="5">
         <v>2017</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="E438" s="7" t="s">
         <v>130</v>
       </c>
       <c r="F438" s="7" t="s">
-        <v>1507</v>
+        <v>1484</v>
       </c>
       <c r="G438" s="7"/>
       <c r="H438" s="7" t="s">
-        <v>1508</v>
+        <v>1485</v>
       </c>
       <c r="I438" s="7" t="s">
-        <v>1509</v>
+        <v>1486</v>
       </c>
       <c r="J438" s="7" t="s">
         <v>17</v>
@@ -40086,26 +40245,26 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1510</v>
+        <v>1487</v>
       </c>
       <c r="C439" s="5">
         <v>2017</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>1511</v>
+        <v>1488</v>
       </c>
       <c r="E439" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F439" s="7" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
       <c r="G439" s="7"/>
       <c r="H439" s="7" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
       <c r="I439" s="7">
         <v>1420</v>
@@ -40115,31 +40274,31 @@
       </c>
       <c r="K439" s="7"/>
       <c r="L439" s="7" t="s">
-        <v>1513</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1514</v>
+        <v>1491</v>
       </c>
       <c r="C440" s="5">
         <v>2018</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>1515</v>
+        <v>1492</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>1516</v>
+        <v>1493</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>223</v>
       </c>
       <c r="G440" s="7"/>
       <c r="H440" s="7" t="s">
-        <v>1517</v>
+        <v>1494</v>
       </c>
       <c r="I440" s="7">
         <v>2067</v>
@@ -40152,26 +40311,26 @@
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="8" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1518</v>
+        <v>1495</v>
       </c>
       <c r="C441" s="5">
         <v>2018</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>1519</v>
+        <v>1496</v>
       </c>
       <c r="E441" s="7" t="s">
         <v>230</v>
       </c>
       <c r="F441" s="7" t="s">
-        <v>1520</v>
+        <v>1497</v>
       </c>
       <c r="G441" s="7"/>
       <c r="H441" s="7" t="s">
-        <v>1521</v>
+        <v>1498</v>
       </c>
       <c r="I441" s="7">
         <v>342</v>
@@ -40181,36 +40340,36 @@
       </c>
       <c r="K441" s="7"/>
       <c r="L441" s="7" t="s">
-        <v>1522</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="17" t="s">
-        <v>1972</v>
+        <v>1949</v>
       </c>
       <c r="C442" s="5">
         <v>2006</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>1973</v>
+        <v>1950</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F442" s="7" t="s">
-        <v>1803</v>
+        <v>1780</v>
       </c>
       <c r="G442" s="7"/>
       <c r="H442" t="s">
-        <v>1974</v>
+        <v>1951</v>
       </c>
       <c r="L442" s="7" t="s">
-        <v>1975</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="8" t="s">
-        <v>1523</v>
+        <v>1500</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>237</v>
@@ -40222,10 +40381,10 @@
         <v>238</v>
       </c>
       <c r="E443" s="7" t="s">
-        <v>1524</v>
+        <v>1501</v>
       </c>
       <c r="F443" s="7" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
       <c r="G443" s="7"/>
       <c r="H443" s="7"/>
@@ -40238,22 +40397,22 @@
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="8" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1527</v>
+        <v>1504</v>
       </c>
       <c r="C444" s="5">
         <v>2012</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>1528</v>
+        <v>1505</v>
       </c>
       <c r="E444" s="7" t="s">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="F444" s="7" t="s">
-        <v>1530</v>
+        <v>1507</v>
       </c>
       <c r="G444" s="7"/>
       <c r="H444" s="7" t="s">
@@ -40270,18 +40429,18 @@
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="8" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
       <c r="B445" s="18"/>
       <c r="C445" s="5">
         <v>2014</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>1979</v>
+        <v>1956</v>
       </c>
       <c r="E445" s="7"/>
       <c r="F445" s="7" t="s">
-        <v>1980</v>
+        <v>1957</v>
       </c>
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
@@ -40289,18 +40448,18 @@
       <c r="J445" s="7"/>
       <c r="K445" s="7"/>
       <c r="L445" s="7" t="s">
-        <v>1981</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="17" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
       <c r="C446" s="20">
         <v>2016</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>1976</v>
+        <v>1953</v>
       </c>
       <c r="E446" t="s">
         <v>27</v>
@@ -40309,24 +40468,24 @@
         <v>200</v>
       </c>
       <c r="H446" t="s">
-        <v>1977</v>
+        <v>1954</v>
       </c>
       <c r="L446" t="s">
-        <v>1978</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="7" t="s">
-        <v>1531</v>
+        <v>1508</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1532</v>
+        <v>1509</v>
       </c>
       <c r="C447" s="5">
         <v>2016</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>1533</v>
+        <v>1510</v>
       </c>
       <c r="E447" s="7" t="s">
         <v>27</v>
@@ -40336,7 +40495,7 @@
       </c>
       <c r="G447" s="7"/>
       <c r="H447" s="7" t="s">
-        <v>1534</v>
+        <v>1511</v>
       </c>
       <c r="I447" s="7">
         <v>686</v>
@@ -40351,58 +40510,58 @@
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="17" t="s">
-        <v>1982</v>
+        <v>1959</v>
       </c>
       <c r="C448" s="5">
         <v>2008</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>1986</v>
+        <v>1963</v>
       </c>
       <c r="E448" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F448" s="7" t="s">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="G448" s="7"/>
       <c r="L448" s="7" t="s">
-        <v>1987</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="17" t="s">
-        <v>1982</v>
+        <v>1959</v>
       </c>
       <c r="C449" s="5">
         <v>2012</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>1983</v>
+        <v>1960</v>
       </c>
       <c r="E449" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F449" s="7" t="s">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="G449" s="7"/>
       <c r="L449" s="7" t="s">
-        <v>1985</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="8" t="s">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1536</v>
+        <v>1513</v>
       </c>
       <c r="C450" s="5">
         <v>2017</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>1537</v>
+        <v>1514</v>
       </c>
       <c r="E450" s="7" t="s">
         <v>27</v>
@@ -40412,7 +40571,7 @@
       </c>
       <c r="G450" s="7"/>
       <c r="H450" s="7" t="s">
-        <v>1538</v>
+        <v>1515</v>
       </c>
       <c r="I450" s="7">
         <v>6234</v>
@@ -40425,47 +40584,47 @@
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="7" t="s">
-        <v>1539</v>
+        <v>1516</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1540</v>
+        <v>1517</v>
       </c>
       <c r="C451" s="5">
         <v>2013</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>1541</v>
+        <v>1518</v>
       </c>
       <c r="E451" s="7" t="s">
         <v>1184</v>
       </c>
       <c r="F451" s="7" t="s">
-        <v>1542</v>
+        <v>1519</v>
       </c>
       <c r="G451" s="7"/>
       <c r="H451" s="7" t="s">
-        <v>1543</v>
+        <v>1520</v>
       </c>
       <c r="I451" s="7" t="s">
-        <v>1544</v>
+        <v>1521</v>
       </c>
       <c r="J451" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K451" s="7"/>
       <c r="L451" s="7" t="s">
-        <v>1545</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C452" s="5">
         <v>2000</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="E452" t="s">
         <v>27</v>
@@ -40478,18 +40637,18 @@
         <v>63</v>
       </c>
       <c r="L452" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C453" s="5">
         <v>2001</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="E453" t="s">
         <v>27</v>
@@ -40499,58 +40658,58 @@
       </c>
       <c r="G453" s="7"/>
       <c r="L453" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C454" s="5">
         <v>2002</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>1992</v>
+        <v>1969</v>
       </c>
       <c r="E454" t="s">
         <v>27</v>
       </c>
       <c r="F454" s="7" t="s">
-        <v>1993</v>
+        <v>1970</v>
       </c>
       <c r="G454" s="7"/>
       <c r="H454" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="I454" t="s">
-        <v>1994</v>
+        <v>1971</v>
       </c>
       <c r="L454" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1703</v>
+        <v>1680</v>
       </c>
       <c r="C455" s="5">
         <v>2003</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>1704</v>
+        <v>1681</v>
       </c>
       <c r="E455" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F455" s="7" t="s">
-        <v>1666</v>
+        <v>1643</v>
       </c>
       <c r="G455" s="7"/>
       <c r="H455" s="7" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="I455" s="7">
         <v>4488</v>
@@ -40560,18 +40719,18 @@
       </c>
       <c r="K455" s="7"/>
       <c r="L455" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C456" s="5">
         <v>2003</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>1988</v>
+        <v>1965</v>
       </c>
       <c r="F456" s="7" t="s">
         <v>578</v>
@@ -40581,21 +40740,21 @@
         <v>924</v>
       </c>
       <c r="L456" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1720</v>
+        <v>1697</v>
       </c>
       <c r="C457" s="5">
         <v>2004</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>1721</v>
+        <v>1698</v>
       </c>
       <c r="E457" s="7" t="s">
         <v>27</v>
@@ -40605,7 +40764,7 @@
       </c>
       <c r="G457" s="7"/>
       <c r="H457" s="7" t="s">
-        <v>1722</v>
+        <v>1699</v>
       </c>
       <c r="J457" s="7" t="s">
         <v>17</v>
@@ -40613,13 +40772,13 @@
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C458" s="5">
         <v>2004</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>1990</v>
+        <v>1967</v>
       </c>
       <c r="E458" t="s">
         <v>27</v>
@@ -40629,7 +40788,7 @@
       </c>
       <c r="G458" s="7"/>
       <c r="H458" t="s">
-        <v>1991</v>
+        <v>1968</v>
       </c>
       <c r="I458">
         <v>3318</v>
@@ -40637,13 +40796,13 @@
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C459" s="5">
         <v>2004</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>2005</v>
+        <v>1982</v>
       </c>
       <c r="E459" t="s">
         <v>27</v>
@@ -40656,18 +40815,18 @@
         <v>6531</v>
       </c>
       <c r="L459" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C460" s="5">
         <v>2005</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>2006</v>
+        <v>1983</v>
       </c>
       <c r="E460" t="s">
         <v>27</v>
@@ -40677,27 +40836,27 @@
       </c>
       <c r="G460" s="7"/>
       <c r="H460" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="I460">
         <v>17533</v>
       </c>
       <c r="L460" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>1700</v>
+        <v>1677</v>
       </c>
       <c r="C461" s="5">
         <v>2006</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>1701</v>
+        <v>1678</v>
       </c>
       <c r="E461" s="7" t="s">
         <v>388</v>
@@ -40707,7 +40866,7 @@
       </c>
       <c r="G461" s="7"/>
       <c r="H461" s="7" t="s">
-        <v>1702</v>
+        <v>1679</v>
       </c>
       <c r="I461" s="7">
         <v>3600</v>
@@ -40720,16 +40879,16 @@
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>1697</v>
+        <v>1674</v>
       </c>
       <c r="C462" s="5">
         <v>2007</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>1698</v>
+        <v>1675</v>
       </c>
       <c r="E462" s="7" t="s">
         <v>27</v>
@@ -40739,7 +40898,7 @@
       </c>
       <c r="G462" s="7"/>
       <c r="H462" s="7" t="s">
-        <v>1699</v>
+        <v>1676</v>
       </c>
       <c r="I462" s="7">
         <v>2913</v>
@@ -40752,16 +40911,16 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1694</v>
+        <v>1671</v>
       </c>
       <c r="C463" s="5">
         <v>2010</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>1695</v>
+        <v>1672</v>
       </c>
       <c r="E463" s="7" t="s">
         <v>27</v>
@@ -40771,7 +40930,7 @@
       </c>
       <c r="G463" s="7"/>
       <c r="H463" s="7" t="s">
-        <v>1696</v>
+        <v>1673</v>
       </c>
       <c r="I463" s="7">
         <v>1563</v>
@@ -40784,16 +40943,16 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1547</v>
+        <v>1524</v>
       </c>
       <c r="C464" s="5">
         <v>2011</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1548</v>
+        <v>1525</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>230</v>
@@ -40803,7 +40962,7 @@
       </c>
       <c r="G464" s="7"/>
       <c r="H464" s="7" t="s">
-        <v>1549</v>
+        <v>1526</v>
       </c>
       <c r="I464" s="7">
         <v>7949</v>
@@ -40813,21 +40972,21 @@
       </c>
       <c r="K464" s="7"/>
       <c r="L464" s="7" t="s">
-        <v>1550</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="465" spans="1:12">
       <c r="A465" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1551</v>
+        <v>1528</v>
       </c>
       <c r="C465" s="5">
         <v>2011</v>
       </c>
       <c r="D465" s="7" t="s">
-        <v>1552</v>
+        <v>1529</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>27</v>
@@ -40837,7 +40996,7 @@
       </c>
       <c r="G465" s="7"/>
       <c r="H465" s="7" t="s">
-        <v>1553</v>
+        <v>1530</v>
       </c>
       <c r="I465" s="7">
         <v>6489</v>
@@ -40847,21 +41006,21 @@
       </c>
       <c r="K465" s="7"/>
       <c r="L465" s="7" t="s">
-        <v>1554</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="466" spans="1:12">
       <c r="A466" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1555</v>
+        <v>1532</v>
       </c>
       <c r="C466" s="5">
         <v>2011</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>1556</v>
+        <v>1533</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>27</v>
@@ -40871,7 +41030,7 @@
       </c>
       <c r="G466" s="7"/>
       <c r="H466" s="7" t="s">
-        <v>1557</v>
+        <v>1534</v>
       </c>
       <c r="I466" s="7">
         <v>175</v>
@@ -40884,16 +41043,16 @@
     </row>
     <row r="467" spans="1:12">
       <c r="A467" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1558</v>
+        <v>1535</v>
       </c>
       <c r="C467" s="5">
         <v>2011</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>1559</v>
+        <v>1536</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>86</v>
@@ -40903,10 +41062,10 @@
       </c>
       <c r="G467" s="7"/>
       <c r="H467" s="7" t="s">
-        <v>1560</v>
+        <v>1537</v>
       </c>
       <c r="I467" s="7" t="s">
-        <v>1561</v>
+        <v>1538</v>
       </c>
       <c r="J467" s="7" t="s">
         <v>63</v>
@@ -40916,26 +41075,26 @@
     </row>
     <row r="468" spans="1:12" ht="18">
       <c r="A468" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1625</v>
+        <v>1602</v>
       </c>
       <c r="C468" s="5">
         <v>2011</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>1626</v>
+        <v>1603</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>154</v>
       </c>
       <c r="F468" s="7" t="s">
-        <v>1627</v>
+        <v>1604</v>
       </c>
       <c r="G468" s="7"/>
       <c r="H468" s="7" t="s">
-        <v>1628</v>
+        <v>1605</v>
       </c>
       <c r="I468" s="7">
         <v>17533</v>
@@ -40945,18 +41104,18 @@
       </c>
       <c r="K468" s="7"/>
       <c r="L468" s="7" t="s">
-        <v>1629</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="469" spans="1:12">
       <c r="A469" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C469" s="5">
         <v>2011</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>1989</v>
+        <v>1966</v>
       </c>
       <c r="E469" t="s">
         <v>27</v>
@@ -40969,18 +41128,18 @@
         <v>8670</v>
       </c>
       <c r="L469" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C470" s="5">
         <v>2011</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>2002</v>
+        <v>1979</v>
       </c>
       <c r="E470" t="s">
         <v>1184</v>
@@ -40990,24 +41149,24 @@
       </c>
       <c r="G470" s="7"/>
       <c r="H470" t="s">
-        <v>2003</v>
+        <v>1980</v>
       </c>
       <c r="L470" t="s">
-        <v>2004</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1562</v>
+        <v>1539</v>
       </c>
       <c r="C471" s="5">
         <v>2012</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>1563</v>
+        <v>1540</v>
       </c>
       <c r="E471" s="7" t="s">
         <v>154</v>
@@ -41017,7 +41176,7 @@
       </c>
       <c r="G471" s="7"/>
       <c r="H471" s="7" t="s">
-        <v>1564</v>
+        <v>1541</v>
       </c>
       <c r="I471" s="7">
         <v>9288</v>
@@ -41027,21 +41186,21 @@
       </c>
       <c r="K471" s="7"/>
       <c r="L471" s="7" t="s">
-        <v>1565</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1678</v>
+        <v>1655</v>
       </c>
       <c r="C472" s="5">
         <v>2012</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>1679</v>
+        <v>1656</v>
       </c>
       <c r="E472" s="7" t="s">
         <v>332</v>
@@ -41051,7 +41210,7 @@
       </c>
       <c r="G472" s="7"/>
       <c r="H472" s="7" t="s">
-        <v>1680</v>
+        <v>1657</v>
       </c>
       <c r="I472" s="7">
         <v>50363</v>
@@ -41061,21 +41220,21 @@
       </c>
       <c r="K472" s="7"/>
       <c r="L472" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1681</v>
+        <v>1658</v>
       </c>
       <c r="C473" s="5">
         <v>2012</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>1682</v>
+        <v>1659</v>
       </c>
       <c r="E473" s="7" t="s">
         <v>86</v>
@@ -41085,7 +41244,7 @@
       </c>
       <c r="G473" s="7"/>
       <c r="H473" s="7" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="I473" s="7"/>
       <c r="J473" s="7" t="s">
@@ -41096,16 +41255,16 @@
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1684</v>
+        <v>1661</v>
       </c>
       <c r="C474" s="5">
         <v>2012</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>1685</v>
+        <v>1662</v>
       </c>
       <c r="E474" s="7" t="s">
         <v>27</v>
@@ -41115,7 +41274,7 @@
       </c>
       <c r="G474" s="7"/>
       <c r="H474" s="7" t="s">
-        <v>1686</v>
+        <v>1663</v>
       </c>
       <c r="I474" s="7">
         <v>36681</v>
@@ -41125,31 +41284,31 @@
       </c>
       <c r="K474" s="7"/>
       <c r="L474" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1687</v>
+        <v>1664</v>
       </c>
       <c r="C475" s="5">
         <v>2012</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>1688</v>
+        <v>1665</v>
       </c>
       <c r="E475" s="7" t="s">
-        <v>1689</v>
+        <v>1666</v>
       </c>
       <c r="F475" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G475" s="7"/>
       <c r="H475" s="7" t="s">
-        <v>1690</v>
+        <v>1667</v>
       </c>
       <c r="I475" s="7">
         <v>23673</v>
@@ -41159,21 +41318,21 @@
       </c>
       <c r="K475" s="7"/>
       <c r="L475" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1691</v>
+        <v>1668</v>
       </c>
       <c r="C476" s="5">
         <v>2012</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>1692</v>
+        <v>1669</v>
       </c>
       <c r="E476" s="7" t="s">
         <v>995</v>
@@ -41183,7 +41342,7 @@
       </c>
       <c r="G476" s="7"/>
       <c r="H476" s="7" t="s">
-        <v>1693</v>
+        <v>1670</v>
       </c>
       <c r="I476" s="7"/>
       <c r="J476" s="7" t="s">
@@ -41194,13 +41353,13 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C477" s="5">
         <v>2012</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>1997</v>
+        <v>1974</v>
       </c>
       <c r="E477" t="s">
         <v>27</v>
@@ -41210,7 +41369,7 @@
       </c>
       <c r="G477" s="7"/>
       <c r="H477" t="s">
-        <v>1998</v>
+        <v>1975</v>
       </c>
       <c r="I477">
         <v>11685</v>
@@ -41218,13 +41377,13 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C478" s="5">
         <v>2012</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>2000</v>
+        <v>1977</v>
       </c>
       <c r="E478" t="s">
         <v>27</v>
@@ -41234,27 +41393,27 @@
       </c>
       <c r="G478" s="7"/>
       <c r="H478" t="s">
-        <v>2001</v>
+        <v>1978</v>
       </c>
       <c r="I478">
         <v>1073</v>
       </c>
       <c r="L478" t="s">
-        <v>1785</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1669</v>
+        <v>1646</v>
       </c>
       <c r="C479" s="5">
         <v>2013</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>1670</v>
+        <v>1647</v>
       </c>
       <c r="E479" s="7" t="s">
         <v>154</v>
@@ -41264,7 +41423,7 @@
       </c>
       <c r="G479" s="7"/>
       <c r="H479" s="7" t="s">
-        <v>1671</v>
+        <v>1648</v>
       </c>
       <c r="I479" s="7"/>
       <c r="J479" s="7" t="s">
@@ -41275,16 +41434,16 @@
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1672</v>
+        <v>1649</v>
       </c>
       <c r="C480" s="5">
         <v>2013</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>1673</v>
+        <v>1650</v>
       </c>
       <c r="E480" s="7" t="s">
         <v>27</v>
@@ -41294,7 +41453,7 @@
       </c>
       <c r="G480" s="7"/>
       <c r="H480" s="7" t="s">
-        <v>1674</v>
+        <v>1651</v>
       </c>
       <c r="I480" s="7"/>
       <c r="J480" s="7" t="s">
@@ -41302,21 +41461,21 @@
       </c>
       <c r="K480" s="7"/>
       <c r="L480" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1675</v>
+        <v>1652</v>
       </c>
       <c r="C481" s="5">
         <v>2013</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>1676</v>
+        <v>1653</v>
       </c>
       <c r="E481" s="7" t="s">
         <v>86</v>
@@ -41326,41 +41485,41 @@
       </c>
       <c r="G481" s="7"/>
       <c r="H481" s="7" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="I481" s="7" t="s">
-        <v>1677</v>
+        <v>1654</v>
       </c>
       <c r="J481" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K481" s="7"/>
       <c r="L481" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="482" spans="1:12">
       <c r="A482" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1566</v>
+        <v>1543</v>
       </c>
       <c r="C482" s="5">
         <v>2014</v>
       </c>
       <c r="D482" s="7" t="s">
-        <v>1567</v>
+        <v>1544</v>
       </c>
       <c r="E482" s="7" t="s">
-        <v>1568</v>
+        <v>1545</v>
       </c>
       <c r="F482" s="7" t="s">
         <v>1190</v>
       </c>
       <c r="G482" s="7"/>
       <c r="H482" s="7" t="s">
-        <v>1569</v>
+        <v>1546</v>
       </c>
       <c r="I482" s="7">
         <v>9964</v>
@@ -41373,16 +41532,16 @@
     </row>
     <row r="483" spans="1:12">
       <c r="A483" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1570</v>
+        <v>1547</v>
       </c>
       <c r="C483" s="5">
         <v>2014</v>
       </c>
       <c r="D483" s="7" t="s">
-        <v>1571</v>
+        <v>1548</v>
       </c>
       <c r="E483" s="7" t="s">
         <v>27</v>
@@ -41392,7 +41551,7 @@
       </c>
       <c r="G483" s="7"/>
       <c r="H483" s="7" t="s">
-        <v>1572</v>
+        <v>1549</v>
       </c>
       <c r="I483" s="7"/>
       <c r="J483" s="7" t="s">
@@ -41400,31 +41559,31 @@
       </c>
       <c r="K483" s="7"/>
       <c r="L483" s="7" t="s">
-        <v>1573</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="484" spans="1:12">
       <c r="A484" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1714</v>
+        <v>1691</v>
       </c>
       <c r="C484" s="5">
         <v>2014</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>1715</v>
+        <v>1692</v>
       </c>
       <c r="E484" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F484" s="7" t="s">
-        <v>1598</v>
+        <v>1575</v>
       </c>
       <c r="G484" s="7"/>
       <c r="H484" s="7" t="s">
-        <v>1716</v>
+        <v>1693</v>
       </c>
       <c r="I484">
         <v>807</v>
@@ -41436,16 +41595,16 @@
     </row>
     <row r="485" spans="1:12">
       <c r="A485" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1574</v>
+        <v>1551</v>
       </c>
       <c r="C485" s="5">
         <v>2015</v>
       </c>
       <c r="D485" s="7" t="s">
-        <v>1575</v>
+        <v>1552</v>
       </c>
       <c r="E485" s="7" t="s">
         <v>154</v>
@@ -41455,7 +41614,7 @@
       </c>
       <c r="G485" s="7"/>
       <c r="H485" s="7" t="s">
-        <v>1576</v>
+        <v>1553</v>
       </c>
       <c r="I485" s="7">
         <v>10943</v>
@@ -41468,26 +41627,26 @@
     </row>
     <row r="486" spans="1:12">
       <c r="A486" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1577</v>
+        <v>1554</v>
       </c>
       <c r="C486" s="5">
         <v>2015</v>
       </c>
       <c r="D486" s="7" t="s">
-        <v>1578</v>
+        <v>1555</v>
       </c>
       <c r="E486" s="7" t="s">
-        <v>1579</v>
+        <v>1556</v>
       </c>
       <c r="F486" s="7" t="s">
         <v>1200</v>
       </c>
       <c r="G486" s="7"/>
       <c r="H486" s="7" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="I486" s="7"/>
       <c r="J486" s="7" t="s">
@@ -41498,16 +41657,16 @@
     </row>
     <row r="487" spans="1:12">
       <c r="A487" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1581</v>
+        <v>1558</v>
       </c>
       <c r="C487" s="5">
         <v>2015</v>
       </c>
       <c r="D487" s="7" t="s">
-        <v>1582</v>
+        <v>1559</v>
       </c>
       <c r="E487" s="7" t="s">
         <v>97</v>
@@ -41517,10 +41676,10 @@
       </c>
       <c r="G487" s="7"/>
       <c r="H487" s="7" t="s">
-        <v>1583</v>
+        <v>1560</v>
       </c>
       <c r="I487" s="7" t="s">
-        <v>1584</v>
+        <v>1561</v>
       </c>
       <c r="J487" s="7" t="s">
         <v>17</v>
@@ -41530,16 +41689,16 @@
     </row>
     <row r="488" spans="1:12">
       <c r="A488" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1658</v>
+        <v>1635</v>
       </c>
       <c r="C488" s="5">
         <v>2015</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>1659</v>
+        <v>1636</v>
       </c>
       <c r="E488" s="7" t="s">
         <v>27</v>
@@ -41549,7 +41708,7 @@
       </c>
       <c r="G488" s="7"/>
       <c r="H488" s="7" t="s">
-        <v>1660</v>
+        <v>1637</v>
       </c>
       <c r="I488" s="7">
         <v>130116</v>
@@ -41562,16 +41721,16 @@
     </row>
     <row r="489" spans="1:12">
       <c r="A489" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1661</v>
+        <v>1638</v>
       </c>
       <c r="C489" s="5">
         <v>2015</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>1662</v>
+        <v>1639</v>
       </c>
       <c r="E489" s="7" t="s">
         <v>27</v>
@@ -41581,7 +41740,7 @@
       </c>
       <c r="G489" s="7"/>
       <c r="H489" s="7" t="s">
-        <v>1663</v>
+        <v>1640</v>
       </c>
       <c r="I489" s="7">
         <v>852</v>
@@ -41594,29 +41753,29 @@
     </row>
     <row r="490" spans="1:12">
       <c r="A490" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1664</v>
+        <v>1641</v>
       </c>
       <c r="C490" s="5">
         <v>2015</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>1665</v>
+        <v>1642</v>
       </c>
       <c r="E490" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F490" s="7" t="s">
-        <v>1666</v>
+        <v>1643</v>
       </c>
       <c r="G490" s="7"/>
       <c r="H490" s="7" t="s">
-        <v>1667</v>
+        <v>1644</v>
       </c>
       <c r="I490" s="7" t="s">
-        <v>1668</v>
+        <v>1645</v>
       </c>
       <c r="J490" s="7" t="s">
         <v>17</v>
@@ -41626,16 +41785,16 @@
     </row>
     <row r="491" spans="1:12">
       <c r="A491" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1621</v>
+        <v>1598</v>
       </c>
       <c r="C491" s="5">
         <v>2016</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>1622</v>
+        <v>1599</v>
       </c>
       <c r="E491" s="7" t="s">
         <v>27</v>
@@ -41645,7 +41804,7 @@
       </c>
       <c r="G491" s="7"/>
       <c r="H491" s="7" t="s">
-        <v>1623</v>
+        <v>1600</v>
       </c>
       <c r="I491" s="7">
         <v>28700</v>
@@ -41655,31 +41814,31 @@
       </c>
       <c r="K491" s="7"/>
       <c r="L491" s="7" t="s">
-        <v>1624</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="492" spans="1:12">
       <c r="A492" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1710</v>
+        <v>1687</v>
       </c>
       <c r="C492" s="5">
         <v>2016</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>1711</v>
+        <v>1688</v>
       </c>
       <c r="E492" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F492" s="7" t="s">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="G492" s="7"/>
       <c r="H492" s="7" t="s">
-        <v>1713</v>
+        <v>1690</v>
       </c>
       <c r="I492">
         <v>7500</v>
@@ -41690,26 +41849,26 @@
     </row>
     <row r="493" spans="1:12">
       <c r="A493" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1717</v>
+        <v>1694</v>
       </c>
       <c r="C493" s="5">
         <v>2016</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>1718</v>
+        <v>1695</v>
       </c>
       <c r="E493" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F493" s="7" t="s">
-        <v>1598</v>
+        <v>1575</v>
       </c>
       <c r="G493" s="7"/>
       <c r="H493" s="7" t="s">
-        <v>1719</v>
+        <v>1696</v>
       </c>
       <c r="I493">
         <v>376</v>
@@ -41720,16 +41879,16 @@
     </row>
     <row r="494" spans="1:12">
       <c r="A494" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1585</v>
+        <v>1562</v>
       </c>
       <c r="C494" s="5">
         <v>2017</v>
       </c>
       <c r="D494" s="7" t="s">
-        <v>1586</v>
+        <v>1563</v>
       </c>
       <c r="E494" s="7" t="s">
         <v>27</v>
@@ -41739,7 +41898,7 @@
       </c>
       <c r="G494" s="7"/>
       <c r="H494" s="7" t="s">
-        <v>1587</v>
+        <v>1564</v>
       </c>
       <c r="I494" s="7">
         <v>982</v>
@@ -41749,21 +41908,21 @@
       </c>
       <c r="K494" s="7"/>
       <c r="L494" s="7" t="s">
-        <v>1588</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="495" spans="1:12">
       <c r="A495" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1589</v>
+        <v>1566</v>
       </c>
       <c r="C495" s="5">
         <v>2017</v>
       </c>
       <c r="D495" s="7" t="s">
-        <v>1590</v>
+        <v>1567</v>
       </c>
       <c r="E495" s="7" t="s">
         <v>27</v>
@@ -41773,7 +41932,7 @@
       </c>
       <c r="G495" s="7"/>
       <c r="H495" s="7" t="s">
-        <v>1591</v>
+        <v>1568</v>
       </c>
       <c r="I495" s="7">
         <v>2976</v>
@@ -41783,21 +41942,21 @@
       </c>
       <c r="K495" s="7"/>
       <c r="L495" s="7" t="s">
-        <v>1592</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="496" spans="1:12">
       <c r="A496" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1593</v>
+        <v>1570</v>
       </c>
       <c r="C496" s="5">
         <v>2017</v>
       </c>
       <c r="D496" s="7" t="s">
-        <v>1594</v>
+        <v>1571</v>
       </c>
       <c r="E496" s="7" t="s">
         <v>230</v>
@@ -41815,31 +41974,31 @@
       </c>
       <c r="K496" s="7"/>
       <c r="L496" s="7" t="s">
-        <v>1595</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="497" spans="1:12">
       <c r="A497" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1596</v>
+        <v>1573</v>
       </c>
       <c r="C497" s="5">
         <v>2017</v>
       </c>
       <c r="D497" s="7" t="s">
-        <v>1597</v>
+        <v>1574</v>
       </c>
       <c r="E497" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F497" s="7" t="s">
-        <v>1598</v>
+        <v>1575</v>
       </c>
       <c r="G497" s="7"/>
       <c r="H497" s="7" t="s">
-        <v>1599</v>
+        <v>1576</v>
       </c>
       <c r="I497" s="7">
         <v>1881</v>
@@ -41849,21 +42008,21 @@
       </c>
       <c r="K497" s="7"/>
       <c r="L497" s="7" t="s">
-        <v>1595</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="498" spans="1:12">
       <c r="A498" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1618</v>
+        <v>1595</v>
       </c>
       <c r="C498" s="5">
         <v>2017</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>1619</v>
+        <v>1596</v>
       </c>
       <c r="E498" s="7" t="s">
         <v>27</v>
@@ -41873,7 +42032,7 @@
       </c>
       <c r="G498" s="7"/>
       <c r="H498" s="7" t="s">
-        <v>1620</v>
+        <v>1597</v>
       </c>
       <c r="I498" s="7">
         <v>5350</v>
@@ -41886,16 +42045,16 @@
     </row>
     <row r="499" spans="1:12">
       <c r="A499" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1639</v>
+        <v>1616</v>
       </c>
       <c r="C499" s="5">
         <v>2017</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>1640</v>
+        <v>1617</v>
       </c>
       <c r="E499" s="7" t="s">
         <v>27</v>
@@ -41905,7 +42064,7 @@
       </c>
       <c r="G499" s="7"/>
       <c r="H499" s="7" t="s">
-        <v>1641</v>
+        <v>1618</v>
       </c>
       <c r="I499" s="7">
         <v>2612</v>
@@ -41915,27 +42074,27 @@
       </c>
       <c r="K499" s="7"/>
       <c r="L499" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="500" spans="1:12">
       <c r="A500" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1642</v>
+        <v>1619</v>
       </c>
       <c r="C500" s="5">
         <v>2017</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>1643</v>
+        <v>1620</v>
       </c>
       <c r="E500" s="7" t="s">
         <v>1156</v>
       </c>
       <c r="F500" s="7" t="s">
-        <v>1644</v>
+        <v>1621</v>
       </c>
       <c r="G500" s="7"/>
       <c r="H500" s="7"/>
@@ -41948,16 +42107,16 @@
     </row>
     <row r="501" spans="1:12">
       <c r="A501" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1645</v>
+        <v>1622</v>
       </c>
       <c r="C501" s="5">
         <v>2017</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>1646</v>
+        <v>1623</v>
       </c>
       <c r="E501" s="7" t="s">
         <v>27</v>
@@ -41967,7 +42126,7 @@
       </c>
       <c r="G501" s="7"/>
       <c r="H501" s="7" t="s">
-        <v>1647</v>
+        <v>1624</v>
       </c>
       <c r="I501" s="7"/>
       <c r="J501" s="7" t="s">
@@ -41980,16 +42139,16 @@
     </row>
     <row r="502" spans="1:12">
       <c r="A502" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1648</v>
+        <v>1625</v>
       </c>
       <c r="C502" s="5">
         <v>2017</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>1649</v>
+        <v>1626</v>
       </c>
       <c r="E502" s="7" t="s">
         <v>1156</v>
@@ -41999,7 +42158,7 @@
       </c>
       <c r="G502" s="7"/>
       <c r="H502" s="7" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="I502" s="7">
         <v>7131</v>
@@ -42012,16 +42171,16 @@
     </row>
     <row r="503" spans="1:12">
       <c r="A503" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1650</v>
+        <v>1627</v>
       </c>
       <c r="C503" s="5">
         <v>2017</v>
       </c>
       <c r="D503" s="6" t="s">
-        <v>1651</v>
+        <v>1628</v>
       </c>
       <c r="E503" s="7" t="s">
         <v>27</v>
@@ -42040,16 +42199,16 @@
     </row>
     <row r="504" spans="1:12">
       <c r="A504" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1652</v>
+        <v>1629</v>
       </c>
       <c r="C504" s="5">
         <v>2017</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>1653</v>
+        <v>1630</v>
       </c>
       <c r="E504" s="7" t="s">
         <v>27</v>
@@ -42059,7 +42218,7 @@
       </c>
       <c r="G504" s="7"/>
       <c r="H504" s="7" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="I504" s="7"/>
       <c r="J504" s="7" t="s">
@@ -42072,16 +42231,16 @@
     </row>
     <row r="505" spans="1:12">
       <c r="A505" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1654</v>
+        <v>1631</v>
       </c>
       <c r="C505" s="5">
         <v>2017</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>1655</v>
+        <v>1632</v>
       </c>
       <c r="E505" s="7" t="s">
         <v>27</v>
@@ -42091,7 +42250,7 @@
       </c>
       <c r="G505" s="7"/>
       <c r="H505" s="7" t="s">
-        <v>1656</v>
+        <v>1633</v>
       </c>
       <c r="I505" s="7"/>
       <c r="J505" s="7" t="s">
@@ -42099,21 +42258,21 @@
       </c>
       <c r="K505" s="7"/>
       <c r="L505" s="7" t="s">
-        <v>1657</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="506" spans="1:12">
       <c r="A506" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1706</v>
+        <v>1683</v>
       </c>
       <c r="C506" s="5">
         <v>2017</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>1707</v>
+        <v>1684</v>
       </c>
       <c r="E506" s="7" t="s">
         <v>86</v>
@@ -42123,10 +42282,10 @@
       </c>
       <c r="G506" s="7"/>
       <c r="H506" s="7" t="s">
-        <v>1708</v>
+        <v>1685</v>
       </c>
       <c r="I506" s="7" t="s">
-        <v>1709</v>
+        <v>1686</v>
       </c>
       <c r="J506" s="7" t="s">
         <v>17</v>
@@ -42136,16 +42295,16 @@
     </row>
     <row r="507" spans="1:12">
       <c r="A507" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1600</v>
+        <v>1577</v>
       </c>
       <c r="C507" s="5">
         <v>2018</v>
       </c>
       <c r="D507" s="7" t="s">
-        <v>1601</v>
+        <v>1578</v>
       </c>
       <c r="E507" s="7" t="s">
         <v>230</v>
@@ -42155,7 +42314,7 @@
       </c>
       <c r="G507" s="7"/>
       <c r="H507" s="7" t="s">
-        <v>1602</v>
+        <v>1579</v>
       </c>
       <c r="I507" s="7">
         <v>33369</v>
@@ -42168,26 +42327,26 @@
     </row>
     <row r="508" spans="1:12">
       <c r="A508" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1603</v>
+        <v>1580</v>
       </c>
       <c r="C508" s="5">
         <v>2018</v>
       </c>
       <c r="D508" s="7" t="s">
-        <v>1604</v>
+        <v>1581</v>
       </c>
       <c r="E508" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F508" s="7" t="s">
-        <v>1605</v>
+        <v>1582</v>
       </c>
       <c r="G508" s="7"/>
       <c r="H508" s="7" t="s">
-        <v>1606</v>
+        <v>1583</v>
       </c>
       <c r="I508" s="7">
         <v>1033</v>
@@ -42197,31 +42356,31 @@
       </c>
       <c r="K508" s="7"/>
       <c r="L508" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="509" spans="1:12">
       <c r="A509" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1607</v>
+        <v>1584</v>
       </c>
       <c r="C509" s="5">
         <v>2018</v>
       </c>
       <c r="D509" s="7" t="s">
-        <v>1608</v>
+        <v>1585</v>
       </c>
       <c r="E509" s="7" t="s">
-        <v>1609</v>
+        <v>1586</v>
       </c>
       <c r="F509" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G509" s="7"/>
       <c r="H509" s="7" t="s">
-        <v>1610</v>
+        <v>1587</v>
       </c>
       <c r="I509" s="7">
         <v>18254</v>
@@ -42234,26 +42393,26 @@
     </row>
     <row r="510" spans="1:12">
       <c r="A510" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1611</v>
+        <v>1588</v>
       </c>
       <c r="C510" s="5">
         <v>2018</v>
       </c>
       <c r="D510" s="6" t="s">
-        <v>1612</v>
+        <v>1589</v>
       </c>
       <c r="E510" s="7" t="s">
-        <v>1613</v>
+        <v>1590</v>
       </c>
       <c r="F510" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G510" s="7"/>
       <c r="H510" s="7" t="s">
-        <v>1614</v>
+        <v>1591</v>
       </c>
       <c r="I510" s="7">
         <v>1192</v>
@@ -42266,16 +42425,16 @@
     </row>
     <row r="511" spans="1:12">
       <c r="A511" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="C511" s="5">
         <v>2018</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>1616</v>
+        <v>1593</v>
       </c>
       <c r="E511" s="7" t="s">
         <v>27</v>
@@ -42285,7 +42444,7 @@
       </c>
       <c r="G511" s="7"/>
       <c r="H511" s="7" t="s">
-        <v>1617</v>
+        <v>1594</v>
       </c>
       <c r="I511" s="7">
         <v>528</v>
@@ -42298,16 +42457,16 @@
     </row>
     <row r="512" spans="1:12">
       <c r="A512" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1633</v>
+        <v>1610</v>
       </c>
       <c r="C512" s="5">
         <v>2018</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>1634</v>
+        <v>1611</v>
       </c>
       <c r="E512" s="7" t="s">
         <v>27</v>
@@ -42317,7 +42476,7 @@
       </c>
       <c r="G512" s="7"/>
       <c r="H512" s="7" t="s">
-        <v>1635</v>
+        <v>1612</v>
       </c>
       <c r="I512" s="7"/>
       <c r="J512" s="7" t="s">
@@ -42328,16 +42487,16 @@
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1636</v>
+        <v>1613</v>
       </c>
       <c r="C513" s="5">
         <v>2018</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>1637</v>
+        <v>1614</v>
       </c>
       <c r="E513" s="7" t="s">
         <v>27</v>
@@ -42347,7 +42506,7 @@
       </c>
       <c r="G513" s="7"/>
       <c r="H513" s="7" t="s">
-        <v>1638</v>
+        <v>1615</v>
       </c>
       <c r="I513" s="7"/>
       <c r="J513" s="7" t="s">
@@ -42355,21 +42514,21 @@
       </c>
       <c r="K513" s="7"/>
       <c r="L513" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="8" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1630</v>
+        <v>1607</v>
       </c>
       <c r="C514" s="5">
         <v>2019</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>1631</v>
+        <v>1608</v>
       </c>
       <c r="E514" s="7" t="s">
         <v>564</v>
@@ -42379,7 +42538,7 @@
       </c>
       <c r="G514" s="7"/>
       <c r="H514" s="7" t="s">
-        <v>1632</v>
+        <v>1609</v>
       </c>
       <c r="I514" s="7">
         <v>820</v>
@@ -42392,13 +42551,13 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="17" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C515" s="5">
         <v>2019</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>1995</v>
+        <v>1972</v>
       </c>
       <c r="E515" t="s">
         <v>27</v>
@@ -42408,7 +42567,7 @@
       </c>
       <c r="G515" s="7"/>
       <c r="H515" t="s">
-        <v>1996</v>
+        <v>1973</v>
       </c>
       <c r="I515">
         <v>2301</v>
@@ -42416,16 +42575,16 @@
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="8" t="s">
-        <v>1723</v>
+        <v>1700</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1724</v>
+        <v>1701</v>
       </c>
       <c r="C516" s="5">
         <v>2017</v>
       </c>
       <c r="D516" s="7" t="s">
-        <v>1725</v>
+        <v>1702</v>
       </c>
       <c r="E516" s="7" t="s">
         <v>27</v>
@@ -42435,7 +42594,7 @@
       </c>
       <c r="G516" s="7"/>
       <c r="H516" s="7" t="s">
-        <v>1726</v>
+        <v>1703</v>
       </c>
       <c r="I516" s="7">
         <v>805</v>
@@ -42450,26 +42609,26 @@
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="7" t="s">
-        <v>1727</v>
+        <v>1704</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1728</v>
+        <v>1705</v>
       </c>
       <c r="C517" s="5">
         <v>2013</v>
       </c>
       <c r="D517" s="7" t="s">
-        <v>1729</v>
+        <v>1706</v>
       </c>
       <c r="E517" s="7" t="s">
-        <v>1730</v>
+        <v>1707</v>
       </c>
       <c r="F517" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G517" s="7"/>
       <c r="H517" s="7" t="s">
-        <v>1731</v>
+        <v>1708</v>
       </c>
       <c r="I517" s="7"/>
       <c r="J517" s="7" t="s">
@@ -42477,31 +42636,31 @@
       </c>
       <c r="K517" s="7"/>
       <c r="L517" s="7" t="s">
-        <v>1732</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="7" t="s">
-        <v>1727</v>
+        <v>1704</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="C518" s="5">
         <v>2017</v>
       </c>
       <c r="D518" s="7" t="s">
-        <v>1734</v>
+        <v>1711</v>
       </c>
       <c r="E518" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F518" s="7" t="s">
-        <v>1735</v>
+        <v>1712</v>
       </c>
       <c r="G518" s="7"/>
       <c r="H518" s="7" t="s">
-        <v>1736</v>
+        <v>1713</v>
       </c>
       <c r="I518" s="7">
         <v>870</v>
@@ -42511,21 +42670,21 @@
       </c>
       <c r="K518" s="7"/>
       <c r="L518" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="8" t="s">
-        <v>1737</v>
+        <v>1714</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1738</v>
+        <v>1715</v>
       </c>
       <c r="C519" s="5">
         <v>2018</v>
       </c>
       <c r="D519" s="6" t="s">
-        <v>1739</v>
+        <v>1716</v>
       </c>
       <c r="E519" s="7" t="s">
         <v>27</v>
@@ -42535,7 +42694,7 @@
       </c>
       <c r="G519" s="7"/>
       <c r="H519" s="7" t="s">
-        <v>1740</v>
+        <v>1717</v>
       </c>
       <c r="I519" s="7">
         <v>1014</v>
@@ -42545,34 +42704,34 @@
       </c>
       <c r="K519" s="7"/>
       <c r="L519" s="7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="8" t="s">
-        <v>1737</v>
+        <v>1714</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1741</v>
+        <v>1718</v>
       </c>
       <c r="C520" s="5">
         <v>2018</v>
       </c>
       <c r="D520" s="6" t="s">
-        <v>1742</v>
+        <v>1719</v>
       </c>
       <c r="E520" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F520" s="7" t="s">
-        <v>1598</v>
+        <v>1575</v>
       </c>
       <c r="G520" s="7"/>
       <c r="H520" s="7" t="s">
-        <v>1743</v>
+        <v>1720</v>
       </c>
       <c r="I520" s="7" t="s">
-        <v>1744</v>
+        <v>1721</v>
       </c>
       <c r="J520" s="7" t="s">
         <v>17</v>
@@ -42582,16 +42741,16 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="7" t="s">
-        <v>1745</v>
+        <v>1722</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1746</v>
+        <v>1723</v>
       </c>
       <c r="C521" s="5">
         <v>2013</v>
       </c>
       <c r="D521" s="7" t="s">
-        <v>1747</v>
+        <v>1724</v>
       </c>
       <c r="E521" s="7" t="s">
         <v>59</v>
@@ -42601,7 +42760,7 @@
       </c>
       <c r="G521" s="7"/>
       <c r="H521" s="7" t="s">
-        <v>1748</v>
+        <v>1725</v>
       </c>
       <c r="I521" s="7"/>
       <c r="J521" s="7" t="s">
@@ -42609,21 +42768,21 @@
       </c>
       <c r="K521" s="7"/>
       <c r="L521" s="7" t="s">
-        <v>1749</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="7" t="s">
-        <v>1745</v>
+        <v>1722</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1750</v>
+        <v>1727</v>
       </c>
       <c r="C522" s="5">
         <v>2014</v>
       </c>
       <c r="D522" s="7" t="s">
-        <v>1751</v>
+        <v>1728</v>
       </c>
       <c r="E522" s="7" t="s">
         <v>130</v>
@@ -42633,10 +42792,10 @@
       </c>
       <c r="G522" s="7"/>
       <c r="H522" s="7" t="s">
-        <v>1752</v>
+        <v>1729</v>
       </c>
       <c r="I522" s="7" t="s">
-        <v>1753</v>
+        <v>1730</v>
       </c>
       <c r="J522" s="7" t="s">
         <v>17</v>
@@ -42646,16 +42805,16 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="7" t="s">
-        <v>1754</v>
+        <v>1731</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1755</v>
+        <v>1732</v>
       </c>
       <c r="C523" s="5">
         <v>2017</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>1756</v>
+        <v>1733</v>
       </c>
       <c r="E523" s="7" t="s">
         <v>130</v>
@@ -42665,10 +42824,10 @@
       </c>
       <c r="G523" s="7"/>
       <c r="H523" s="7" t="s">
-        <v>1757</v>
+        <v>1734</v>
       </c>
       <c r="I523" s="7" t="s">
-        <v>1758</v>
+        <v>1735</v>
       </c>
       <c r="J523" s="7" t="s">
         <v>63</v>
@@ -42678,16 +42837,16 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="7" t="s">
-        <v>1745</v>
+        <v>1722</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1759</v>
+        <v>1736</v>
       </c>
       <c r="C524" s="5">
         <v>2018</v>
       </c>
       <c r="D524" s="7" t="s">
-        <v>1760</v>
+        <v>1737</v>
       </c>
       <c r="E524" s="7" t="s">
         <v>27</v>
@@ -42697,7 +42856,7 @@
       </c>
       <c r="G524" s="7"/>
       <c r="H524" s="7" t="s">
-        <v>1761</v>
+        <v>1738</v>
       </c>
       <c r="I524" s="7">
         <v>4230</v>
@@ -42707,21 +42866,21 @@
       </c>
       <c r="K524" s="7"/>
       <c r="L524" s="7" t="s">
-        <v>1762</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="7" t="s">
-        <v>1763</v>
+        <v>1740</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1764</v>
+        <v>1741</v>
       </c>
       <c r="C525" s="5">
         <v>2018</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>1765</v>
+        <v>1742</v>
       </c>
       <c r="E525" s="7" t="s">
         <v>27</v>
@@ -42731,7 +42890,7 @@
       </c>
       <c r="G525" s="7"/>
       <c r="H525" s="7" t="s">
-        <v>1766</v>
+        <v>1743</v>
       </c>
       <c r="I525" s="7">
         <v>10178</v>
@@ -42744,16 +42903,16 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="7" t="s">
-        <v>1767</v>
+        <v>1744</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1768</v>
+        <v>1745</v>
       </c>
       <c r="C526" s="5">
         <v>2017</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>1769</v>
+        <v>1746</v>
       </c>
       <c r="E526" s="7" t="s">
         <v>564</v>
@@ -42763,7 +42922,7 @@
       </c>
       <c r="G526" s="7"/>
       <c r="H526" s="7" t="s">
-        <v>1770</v>
+        <v>1747</v>
       </c>
       <c r="I526" s="7">
         <v>2007</v>
@@ -42773,15 +42932,15 @@
       </c>
       <c r="K526" s="7"/>
       <c r="L526" s="7" t="s">
-        <v>1771</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="7" t="s">
-        <v>1767</v>
+        <v>1744</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1772</v>
+        <v>1749</v>
       </c>
       <c r="C527" s="5">
         <v>2018</v>
@@ -42797,7 +42956,7 @@
       </c>
       <c r="G527" s="7"/>
       <c r="H527" s="7" t="s">
-        <v>1773</v>
+        <v>1750</v>
       </c>
       <c r="I527" s="7"/>
       <c r="J527" s="7" t="s">
@@ -42805,18 +42964,18 @@
       </c>
       <c r="K527" s="7"/>
       <c r="L527" s="7" t="s">
-        <v>1774</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="17" t="s">
-        <v>2008</v>
+        <v>1985</v>
       </c>
       <c r="C528" s="5">
         <v>2013</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>2009</v>
+        <v>1986</v>
       </c>
       <c r="E528" t="s">
         <v>27</v>
@@ -42826,7 +42985,7 @@
       </c>
       <c r="G528" s="7"/>
       <c r="H528" t="s">
-        <v>2010</v>
+        <v>1987</v>
       </c>
     </row>
   </sheetData>
@@ -43187,6 +43346,8 @@
     <hyperlink ref="D288" r:id="rId350" xr:uid="{D87AFE85-5BE5-4540-A233-79F5EA91942A}"/>
     <hyperlink ref="D344" r:id="rId351" xr:uid="{E6E12C35-039F-401E-897F-6C8FF62D9633}"/>
     <hyperlink ref="D355" r:id="rId352" xr:uid="{2D964555-4405-423B-9922-2EA469ACEAEC}"/>
+    <hyperlink ref="D401" r:id="rId353" xr:uid="{58E72F0F-F446-4760-90CC-8AA2764001AD}"/>
+    <hyperlink ref="D417" r:id="rId354" xr:uid="{9DAA0A7E-AD83-475D-8D82-91528E2C3B0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43194,10 +43355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C87E6CE-864F-3F40-AD3B-32EA1407E18F}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -43242,10 +43403,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="21" t="s">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>2014</v>
+        <v>1991</v>
       </c>
       <c r="C2" s="23">
         <v>2017</v>
@@ -43278,10 +43439,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="21" t="s">
-        <v>2015</v>
+        <v>1992</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>2016</v>
+        <v>1993</v>
       </c>
       <c r="C3" s="23">
         <v>2018</v>
@@ -43317,7 +43478,7 @@
         <v>269</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="C4" s="23">
         <v>2009</v>
@@ -43344,10 +43505,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="21" t="s">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="C5" s="23">
         <v>2018</v>
@@ -43381,7 +43542,7 @@
         <v>385</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C6" s="23">
         <v>2011</v>
@@ -43414,7 +43575,7 @@
         <v>385</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>2021</v>
+        <v>1998</v>
       </c>
       <c r="C7" s="23">
         <v>2017</v>
@@ -43448,7 +43609,7 @@
         <v>462</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>2022</v>
+        <v>1999</v>
       </c>
       <c r="C8" s="23">
         <v>2010</v>
@@ -43484,7 +43645,7 @@
         <v>526</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="C9" s="23">
         <v>2014</v>
@@ -43512,7 +43673,7 @@
         <v>575</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>2024</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="23">
         <v>2017</v>
@@ -43542,10 +43703,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="21" t="s">
-        <v>2025</v>
+        <v>2002</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>2026</v>
+        <v>2003</v>
       </c>
       <c r="C11" s="23">
         <v>2012</v>
@@ -43581,7 +43742,7 @@
         <v>674</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>2027</v>
+        <v>2004</v>
       </c>
       <c r="C12" s="23">
         <v>2015</v>
@@ -43613,7 +43774,7 @@
         <v>674</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>2028</v>
+        <v>2005</v>
       </c>
       <c r="C13" s="23">
         <v>2018</v>
@@ -43644,7 +43805,7 @@
         <v>674</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>2029</v>
+        <v>2006</v>
       </c>
       <c r="C14" s="23">
         <v>2016</v>
@@ -43678,7 +43839,7 @@
         <v>814</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>2030</v>
+        <v>2007</v>
       </c>
       <c r="C15" s="23">
         <v>2018</v>
@@ -43714,7 +43875,7 @@
         <v>968</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>2031</v>
+        <v>2008</v>
       </c>
       <c r="C16" s="23">
         <v>2013</v>
@@ -43747,7 +43908,7 @@
         <v>1071</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>2032</v>
+        <v>2009</v>
       </c>
       <c r="C17" s="23">
         <v>2016</v>
@@ -43783,7 +43944,7 @@
         <v>1071</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>2033</v>
+        <v>2010</v>
       </c>
       <c r="C18" s="23">
         <v>2017</v>
@@ -43834,10 +43995,10 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>2011</v>
+        <v>1988</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>2012</v>
+        <v>1989</v>
       </c>
       <c r="I19" s="7">
         <v>67</v>
@@ -43871,7 +44032,7 @@
         <v>1089</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>2043</v>
+        <v>2020</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>1165</v>
@@ -43896,16 +44057,16 @@
         <v>1176</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>2045</v>
+        <v>2022</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>2044</v>
+        <v>2021</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>2046</v>
+        <v>2023</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>1177</v>
@@ -43939,7 +44100,7 @@
         <v>135</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>2059</v>
+        <v>2036</v>
       </c>
       <c r="I22" s="7">
         <v>17331</v>
@@ -43970,10 +44131,10 @@
         <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>2076</v>
+        <v>2053</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>2077</v>
+        <v>2054</v>
       </c>
       <c r="I23" s="7">
         <v>457</v>
@@ -44019,16 +44180,16 @@
         <v>1295</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C25" s="5">
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>2135</v>
+        <v>2112</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>110</v>
@@ -44037,7 +44198,7 @@
         <v>1089</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>2136</v>
+        <v>2113</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
@@ -44045,7 +44206,7 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -44053,16 +44214,16 @@
         <v>1295</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>2137</v>
+        <v>2114</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
@@ -44071,7 +44232,7 @@
         <v>16</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>2138</v>
+        <v>2115</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
@@ -44079,8 +44240,40 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
-        <v>1317</v>
-      </c>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -44092,6 +44285,7 @@
     <hyperlink ref="D24" r:id="rId6" xr:uid="{132F2819-FEED-C24E-A78C-DB990706B9CD}"/>
     <hyperlink ref="D25" r:id="rId7" xr:uid="{70E5C390-35B9-8346-9A36-B00A652C5845}"/>
     <hyperlink ref="D26" r:id="rId8" xr:uid="{5B5CA222-4238-E840-BFB1-29B944DE58DB}"/>
+    <hyperlink ref="D27" r:id="rId9" xr:uid="{274E93A7-44A3-4687-9475-B23C9E040640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/lit review master COMBINED.xlsx
+++ b/lit review master COMBINED.xlsx
@@ -8,32 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8E16CF-91DD-F546-B034-04547241D27B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA28FB6-DCF2-ED4C-AA9B-68F26A95CDC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="460" windowWidth="17320" windowHeight="12900" activeTab="2" xr2:uid="{07FD1B6C-CECF-8349-8E75-6C5556405F20}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="26640" windowHeight="16040" xr2:uid="{07FD1B6C-CECF-8349-8E75-6C5556405F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Lit review" sheetId="1" r:id="rId1"/>
     <sheet name="Weird methodologies" sheetId="2" r:id="rId2"/>
     <sheet name="PAR evaluation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6882" uniqueCount="2457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7408" uniqueCount="2558">
   <si>
     <t>Latin name</t>
   </si>
@@ -26787,13 +26781,1053 @@
   </si>
   <si>
     <t xml:space="preserve">In Africa, Nigeria has the heaviest LF burden with an estimated 120 million people at risk. </t>
+  </si>
+  <si>
+    <t>The datasets used and analysed during the current study are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <r>
+      <t>All disease data are available from the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.gntd.org/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> database after registration, and from the Federal Ministry of Health, Abuja, Nigeria: Contact Dr Obiageli Nebe (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moc.oohay@joeben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>According to institutional agreements with the Minister of Health in Burundi, full dataset can be shared upon the Ministry of Health’s permission. Therefore, the full dataset cannot be shared at this stage.</t>
+  </si>
+  <si>
+    <t>We are unable to provide all of the data for legal reasons. Data are held in the Institute for Health Information from the Spanish Ministry of Health, Social Services and Equality. Researchers who meet the criteria can request the access to these data in the following link: http://www.msssi.gob.es/estadEstudios/estadisticas/estadisticas/estMinisterio/SolicitudCMBDdocs/Formulario_Peticion_Datos_CMBD.pdf.</t>
+  </si>
+  <si>
+    <t>All data used in this article are publicly available and accessible through the sources provided under the References section and in Additional file 1.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>All data are freely available, excepting the original epidemiological data, belonging to and collected under the auspices of the Onchocerciasis Control Programme (OCP). Since the cessation of the OCP, both the World Health Organization (WHO) and the African Programme for Onchocerciasis Control (APOC) are guardians of these data. Any request for these data should therefore be addressed to the current Director of APOC, Dr Jean-Baptiste Roungou at tni.ohw@juognuor.</t>
+  </si>
+  <si>
+    <t>The data that support the findings of this study are the property of the Togo Ministry of Health and are available on request to any interested party. Those who wish to use the data for publication must sign an agreement with the Togo MOH. Data are available from Dr. Sossinou Awoussi at moc.oohay@issuowa, Angle Av. 24 Janvier et Av. Sarakawa, Lomé, BP 336, Togo.</t>
+  </si>
+  <si>
+    <r>
+      <t>Epidemiological data were provided by the open access GNTD (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.gntd.org/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Landsat data can be downloaded from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://glovis.usgs.gov/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. SRTM data can be downloaded from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.cgiar-csi.org/data/srtm-90m-digital-elevation-database-v4-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. RapidEye data are freely accessible only for scientific purposes and can be downloaded by the public RapidEye Science Archive of DLR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://resa.blackbridge.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The scientific project ID of this study is 474.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data, including schistosomiasis-control fact sheets for the countries and territories assessed, are available at the purl website hosted on Stanford University library servers for public access: https://purl.stanford.edu/yt060bn1019.</t>
+  </si>
+  <si>
+    <t>The authors confirm that all data underlying the findings are fully available without restriction. Data is available upon request from the Ministry of Health. There doesn't exist a public repository of such data in Honduras so the data can't be deposited.</t>
+  </si>
+  <si>
+    <t>All relevant data are within the paper and its Supporting Information files. Data are available from the WHO PCT databank: http://www.who.int/neglected_diseases/preventive_chemotherapy/sth/db/?units=minimal®ion=all&amp;country=all&amp;countries=all&amp;year=2015.</t>
+  </si>
+  <si>
+    <t>The datasets used and/or analysed during the current study are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>All relevant data are within the paper and its Supporting Information files.</t>
+  </si>
+  <si>
+    <t>All relevant data at upazila and union level are available within the paper. School and individual student level data on TAS results are not freely available for ethical reasons as public availability would compromise student privacy. Data requests may be sent to the LF Programme data manager Ms. Shamima Sultana. Contact: moc.liamg@airalifmpd</t>
+  </si>
+  <si>
+    <t>Survey datasets analysed during this current study are available in the Expanded Special Project for Elimination of Neglected Tropical Diseases (ESPEN) repository http://espen.afro.who.int/countries/nigeria. Predictor datasets and R code are available upon reasonable request to the corresponding author.</t>
+  </si>
+  <si>
+    <t>Please contact author for additional data requests.</t>
+  </si>
+  <si>
+    <t>The authors confirm that all data underlying the findings are fully available without restriction. Data are included within the paper and its Supporting Information files.</t>
+  </si>
+  <si>
+    <t>All data generated or analysed during this study and supporting the conclusions of this article are included within the article.</t>
+  </si>
+  <si>
+    <t>Data supporting the conclusions of this article are included in the article. The datasets used and/or analysed during the current study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <t>All relevant aggregated data are within the paper and its supporting information files (village data set and codebook). Individual data can not be made public in compliance with the protocol approved by the research ethics board in order to respect participant privacy. ANU ethics committee can be contacted at ua.ude.una@reciffo.scihte.namuh.</t>
+  </si>
+  <si>
+    <t>Anonymised data are available via an open access repository held by the University of Liverpool (http://dx.doi.org/10.17638/datacat.liverpool.ac.uk/352).</t>
+  </si>
+  <si>
+    <t>Data were sourced from the University of the Philippines-Manila, School of Public Health. Data are available from the University of the Philippines Institutional Data Access / Ethics Committee for researchers who meet the criteria for access to confidential data: hp.ude.mpu.tsop@bermpu.</t>
+  </si>
+  <si>
+    <t>The datasets analysed during the current study is available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>The underlying data are owned by the Ethiopian Public Health Institute (EPHI), and are available from EPHI for those researchers who wish to analyse it. EPHI are especially keen on exploring opportunities for collaboration in the use of the data in order to further increase capacity development. Please contact Dr Adugna Woyessa (te.vog.ihpe@wanguda) in the first instance.</t>
+  </si>
+  <si>
+    <t>The datasets used to analysed during the current study are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <r>
+      <t>The disease data is not fully available without restriction. They are publicly available in the open-access Global Neglected Tropical Diseases (GNTDs) database (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.gntd.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Researchers need to register and login to fully access the data. Once researchers have logged into the database, please use Country="China" and Disease="Food-borne trematodiasis" as search criteria to access the whole dataset. The rest of the relevant data are within the paper or in publicly accessible data sources listed in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> of the paper.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data will not be shared because Maria de Fátima Chicarino Varajão Moraes-da-Silva, the principal investigator of this study, deceased in August 2015, before we could get her approval.</t>
+  </si>
+  <si>
+    <t>The data used in this study are available from www.capcvet.org.</t>
+  </si>
+  <si>
+    <t>IDEXX Laboratories, Inc. (Westbrook, ME) maintains the proprietary rights to the dataset. The corresponding author can be directly contacted for examination or potential use of the dataset.</t>
+  </si>
+  <si>
+    <t>All data generated or analysed during this study are included in this published article.</t>
+  </si>
+  <si>
+    <r>
+      <t>Patient samples (sera, paraffin embedded tissue blocks and extracted worms) and complete data obtained by diagnostic methods applied are deposited in National Reference Laboratory for Tissue Helminthoses, General University Hospital in Prague (Prague, Czech Republic). Corresponding microphotographs of extracted tissues/worms are included in MS (Figs. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​,2,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​,3,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​,4).4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Representative sets of obtained nucleic acid sequences were submitted to GenBank® (NCBI) and accession numbers are included in MS (Table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>The sequences are available in the GenBank database under the accession numbers KY828978-KY828986.</t>
+  </si>
+  <si>
+    <t>All relevant data are within the paper.</t>
+  </si>
+  <si>
+    <t>The data used in the present study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <t>All data analysed for this study are included in this manuscript. Raw data are available from the authors on request.</t>
+  </si>
+  <si>
+    <t>The datasets generated during and/or analysed during the current study are available in the Liverpool Research Data Catalogue, [http://dx.doi.org/10.17638/datacat.liverpool.ac.uk/406].</t>
+  </si>
+  <si>
+    <t>The datasets generated and/or analysed during the current study are not publicly available due to data protection requirements but are available from the corresponding author upon reasonable request and with permission of the Department of Agriculture Food and the Marine, Government of Ireland.</t>
+  </si>
+  <si>
+    <t>The datasets used and/or analysed during the current study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <t>The datasets generated during the current study and for this manuscript are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>Data is only partially available because the data includes the prevalence of TB and intestinal helminth infection and the name of survey sites (geographical position) in China. Public availability would compromise the privacy of survey sites. Data are available from the National Institute of Parasitic Diseases, China CDC, Institutional Data Access / Ethics Committee for researchers who meet the criteria for access to confidential data and can be contacted at moc.621@611oaixgnin.</t>
+  </si>
+  <si>
+    <t>The authors confirm that, for approved reasons, some access restrictions apply to the data underlying the findings. All relevant data are within the paper and its Supporting Information files except for the following: Deidentified individual records from the community surveys. This information is available from Becker Library at Washington University School of Medicine (URL http://digitalcommons.wustl.edu/open_access_pubs/3378/).</t>
+  </si>
+  <si>
+    <t>Most of these survey data have been previously summarised in Graves et al. [14], and the results are available in the online version of this paper and its additional file, as well as in the original materials and PhD theses cited. The exceptions are unpublished data from 2014 in East and West Sepik provinces which are in preparation for publication by Daniel Tisch et al. Due to small population sizes in some villages, locations could lead to identification of individuals. Geolocations of survey sites are available from authors on reasonable request.</t>
+  </si>
+  <si>
+    <t>Routine program data and reports during the period 2001–2016 were analysed in this paper. However, data are available from the corresponding author (KMW) and will be made accessible on request at the following e-mail: kyawtmonwin@gmail.com.</t>
+  </si>
+  <si>
+    <t>The datasets used during the current study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <r>
+      <t>The datasets supporting the conclusions of this article are included within the article and in Additional file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Table S1, Additional file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Table S2 and Additional file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Table S3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The data for Fig. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> are provided in Additional file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. All other data will be made available upon request to the corresponding author.</t>
+    </r>
+  </si>
+  <si>
+    <t>The complete datasets generated and/or analysed during the current study are available from the corresponding authors on reasonable request.</t>
+  </si>
+  <si>
+    <t>All data generated or analysed during this study are included in this published article. The dataset analysed is available from the corresponding author on reasonable request and can be made available with permission from the MOHS Sierra Leone.</t>
+  </si>
+  <si>
+    <t>Data are fully available at the following link: https://figshare.com/articles/Onchocerciasis_Transmission_Interruption_in_Bioko_Island_Equatorial_Guinea/6194288.</t>
+  </si>
+  <si>
+    <t>The raw data and all related materials are archived at the TDR Laboratory. They are available upon request.</t>
+  </si>
+  <si>
+    <t>Most of the data generated or analysed during this study are included in this article and its Additional file. The datasets generated during and/or analysed during the current study that are not included in this published article are part of a multi-year research study that is not yet concluded and published. These datasets might be available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>The data used to arrive at the conclusion of this paper are part of a large data set. However, they will be made available upon a request directed to the corresponding author.</t>
+  </si>
+  <si>
+    <t>All relevant data are within the paper and its Supporting Information files. Additional data is available upon request from the SCI biostatistician Dr Selvaraj Sivasubramaniam, ku.ca.lairepmi@jaravles.s.</t>
+  </si>
+  <si>
+    <t>Schistosomiasis prevalence data used in this study are reported in Supporting Information.</t>
+  </si>
+  <si>
+    <t>The datasets used and analysed during the current study are not publicly available as per the data sharing agreement in place with the Mozambique Ministry of Health, but are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>This is a scoping review with no formal dataset for analysis to share with other scientists. It includes a review of the available publications and grey literature obtained from the Ministry of Health and non-governmental organisations working in the area of controlling NTDs in Rwanda. All publications used in this review can be accessed online.</t>
+  </si>
+  <si>
+    <t>The dataset supporting the conclusions of this article is included within the article and its additional files.</t>
+  </si>
+  <si>
+    <t>The data supporting the conclusions of this article are included within the article.</t>
+  </si>
+  <si>
+    <t>The dataset used in the study is available from the corresponding author.</t>
+  </si>
+  <si>
+    <t>The authors confirm that all data underlying the findings are fully available without restriction. All relevant data are included in the manuscript.</t>
+  </si>
+  <si>
+    <t>The datasets analysed during the current study are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <r>
+      <t>All data presented in the study can be accessed in the SINAN and IBGE databases (available at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://datasus.saude.gov.br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.ibge.gov.br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, respectively).</t>
+    </r>
+  </si>
+  <si>
+    <t>The datasets generated and/or analyzed during the current study are not publicly available due to the agreement on data sharing signed between the researcher and the Rwanda Biomedical Centre, Division of Malaria and Others Parasitic Disease (RBC/M&amp;OPD) but are available from the corresponding author upon request.</t>
+  </si>
+  <si>
+    <t>The datasets supporting the conclusions of this article are included within the article and its additional files.</t>
+  </si>
+  <si>
+    <t>Data set used for this report can be availed by the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>All data generated or analyzed during this study are included in this published article. The dataset analyzed is available from the corresponding author on reasonable request and can be made available with permission from the MoHS Sierra Leone.</t>
+  </si>
+  <si>
+    <r>
+      <t>Data gathered from the survey will be managed with utmost confidentiality and be made accessible to only the Ministry of Health personnel and partners such as WHO and The Task Force for Global Health before official publication. Since we have pledged to protect the data generated from this study, anonymized data will be available from Mr Bakary Sanneh, National Public Health Laboratories, The Gambia (email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moc.oohay@yrakabkiehs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), and Kisito Ogoussan, Deputy NTD mapping Director, Taskforce for Global Health, USA (email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gro.ecrofksat@nassuogok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Anonymised data described in this study are available at: 10.17638/datacat.liverpool.ac.uk/448.</t>
+  </si>
+  <si>
+    <t>The data are archived in http://www.thiswormyworld.org/maps/by-country/na.</t>
+  </si>
+  <si>
+    <t>The complete dataset analyzed in this paper is not publicly available in its entirety due to ongoing analyses by other authors covering separate but related topics. Datasets required to reproduce analyses and results presented in this study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <t>The datasets generated and analysed during the current study are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>The authors confirm that all data underlying the findings are fully available without restriction. Data are from the Ivorian national cross-sectional survey 2011–2012 study and are provided as Supplementary file in S1 Table.</t>
+  </si>
+  <si>
+    <r>
+      <t>All relevant data are within the paper and its Supporting Information files. GBD 2016 results by location and year are available through of online visualization tools: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://vizhub.healthdata.org/gbd-compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://ghdx.healthdata.org/gbd-results-tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data contain privacy information of the participants and are stored in the National Neglected Tropical Disease Database, Ministry of Health, Burkina Faso. Data are available from the Ministry of Health of Burkina Faso by contacting Mr. Manadou Serme, Data Manager at Programme National de Lutte contre les Maladies Tropicales Négligées, Direction de la Lutte contre la Maladie, Ministère de la Sante, Ouagadougou, Burkina Faso (email: rf.oohay@uodamamemres).</t>
+  </si>
+  <si>
+    <t>All the data are presented in the manuscript.</t>
+  </si>
+  <si>
+    <t>Data supporting the conclusions of this article are included within the article and its additional file. All references found eligible in our literature review are included in Additional file 1.</t>
+  </si>
+  <si>
+    <t>All references found eligible in our literature review are included in the article.</t>
+  </si>
+  <si>
+    <r>
+      <t>The land cover classification data are available from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://eprints.soton.ac.uk/383135/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and the datasets used for analysis are available from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://datacat.liverpool.ac.uk/72/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data are available at the public database from the Instituto Nacional de Estadísticas y Censos (INEC- ECUADOR) at the web page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>www.inec.gob.ec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.ecuadorencifras.gob.ec/estadisticas-de-camas-y-egresos-hospitalarios-bases-de-datos/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.ecuadorencifras.gob.ec/censo-nacional-agropecuario/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://indestadistica.sni.gob.ec/QvAJAXZfc/opendoc.htm?document=SNI.qvw&amp;host=QVS@kukuri&amp;anonymous=truehttp://indestadistica.sni.gob.ec/QvAJAXZfc/opendoc.htm?document=SNI.qvw&amp;host=QVS@kukuri&amp;anonymous=true&amp;bookmark=Document/BM39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The data for this study cannot be made publically available because it would compromise participant privacy and confidentiality. Researchers can request the database with proper credentials by contact to Dr. Moyano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moc.liamg@onayomairamzul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Prof. Hector García Lescano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ude.hpshj@aicragh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, or Javier Bustos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ude.hpshj@sotsubj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The data for this study cannot be made publicly available because it would compromise participant privacy and confidentiality. Requests for data access should be directed to David Holmgren of the institutional review board at OHSU (ude.usho@bri).</t>
+  </si>
+  <si>
+    <t>This study involves the use of patient medical data from The Spanish Centralized Hospital Discharge Database (CMBD). These data are hosted by the Ministry of Health Social Services and Equality (MSSSI). Researchers working in public and private institutions can request the databases by filling, signing and sending a questionnaire available at the MSSSI website. In this questionnaire a signed Confidentiality Commitment is required. All data are anonymized and de-identified by the MSSSI before it is provided to applicants. According to this Confidentiality Commitment signed with the MSSSI, researchers cannot provide the data to other researchers that must request the data directly to the MSSSI in the following link: http://www.msssi.gob.es/en/estadEstudios/estadisticas/cmbdhome.htm.</t>
+  </si>
+  <si>
+    <t>The data supporting the findings of this study are included within the article and its Additional files.</t>
+  </si>
+  <si>
+    <t>The data used for this analysis contain the GPS positions of all participating households, which could be used to find and identify participating housholds and individuals. Thus making them publicly available would constitute a severe breach of confidentiality. Data are therefore only available for researchers who meet the criteria for access to confidential data from Dr. Verena Hoffmann, (email: ed.nehcneum-inu.zrl@nnamffoH.S.anereV), Division of Infectious Diseases and Tropical Medicine, Medical Center of the University of Munich (LMU), Leopoldstr. 5, 80802 Munich, Germany.</t>
+  </si>
+  <si>
+    <t>The authors confirm that, for approved reasons, some access restrictions apply to the data underlying the findings. Data are available from The University of Queensland Human Research Ethics Committee for researchers who meet the criteria for access to confidential data. (Contact person: Michael Tse, Human Ethics Coordinator, UQ Research and Innovation. ua.ude.qu.hcraeser@est.m). American Samoa has a very small population, and high resolution geo-referenced data would potentially allow identification of individuals and households, and breach confidentiality. In the maps included in this manuscript, point locations of houses were deliberately represented with symbols that were too large to allow location of specific households.</t>
+  </si>
+  <si>
+    <t>All relevant data are provided within the manuscript supporting documents. Human microfilaria surveillance records with personal identifiers and detailed household location information are confidential and not available for sharing.</t>
+  </si>
+  <si>
+    <r>
+      <t>Entomological data used in this paper have previously been published, and data are available from the journal's website: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0003087</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Results of the human data used in this study have also previously been published: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0003297</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Village-level human seroprevalence data used in the analyses are provided in an appendix - "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF642A8F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S1 Appendix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Village-level human serological data for Og4C3, Wb123 and Bm14". We are unable to provide individual-level serological and demographic data because of the potential for breaching participant confidentiality. The communities in American Samoa are very small, and individual-level data such as age, sex, occupation, and village of residence could potentially be used to identify specific persons.</t>
+    </r>
+  </si>
+  <si>
+    <t>The data sets generated and analyzed for this study are not publicly available, since they are the property of the Government of Vanuatu and contain identifiable information. However de-identified datasets are available from the corresponding author—FT on reasonable request.</t>
+  </si>
+  <si>
+    <t>All essential data generated or analyzed during this study are included in this article.</t>
+  </si>
+  <si>
+    <t>The datasets supporting the conclusions of this article are included within the article. The raw data are available from the corresponding author on request.</t>
+  </si>
+  <si>
+    <t>The 2007 and 2010 datasets used and/or analysed during the current study are available from the corresponding author on reasonable request. The authors confirm that for approved reasons, some access restrictions apply to the data underlying the findings. We are unable to provide individual-level serological and demographic data because of the potential for breaching participant confidentiality. The communities in American Samoa are very small, and individual-level data such as age, sex, occupation and village of residence could potentially be used to identify specific persons. Entomological data used in this paper have previously been published and are available from http://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0003087. Results of the human seroprevalence and demographic data used in this study have also previously been published: http://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0003297. Additional results of the human data used in this study analysed in different ways have previously been published: 
+http://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0005108.</t>
+  </si>
+  <si>
+    <t>All relevant data are within the paper text and tables and figs and its Supporting Information files except for the following: Deidentified individual records from the community surveys and school surveys. This information is available from Becker Library at Washington University School of Medicine (URL: http://digitalcommons.wustl.edu/open_access_pubs/6145).</t>
+  </si>
+  <si>
+    <t>Individual patient data collected during this study is not freely available for ethical reasons as public availability may compromise patient confidentiality. Data requests may however be made to the data manager at the Tanzanian National Institute for Medical Research, Alfred Meshack (moc.liamg@kcahsemmderfla).</t>
+  </si>
+  <si>
+    <t>The data sets generated and analyzed for this study are not publically available, since they are the property of the Government of Vanuatu and contain identifiable information due to small village sizes. De-identified datasets are available from the corresponding author—FT—on reasonable request.</t>
+  </si>
+  <si>
+    <t>The datasets generated, used, and/or analyzed during the current study in aggregated form as well as via web links are included in the published article and its additional files or are available from the corresponding author on reasonable request.</t>
+  </si>
+  <si>
+    <t>The datasets used and analyzed during this study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <t>Individual patient data collected during this study is not freely available for ethical reasons as public availability may compromise patient confidentiality. Data requests may however be made to the Project Manager at the National Podoconiosis Action Network, Dereje Assefa (gro.aipoihtenapan@a_ejered).</t>
+  </si>
+  <si>
+    <t>All data generated or analysed during this study are either included in this published article or are available from the corresponding author and can be made available with permission from the MOHS Sierra Leone.</t>
+  </si>
+  <si>
+    <t>Data supporting the conclusions of this article are included within the article. The datasets used and/or analyzed during the present study are available from the corresponding author upon reasonable request.</t>
+  </si>
+  <si>
+    <t>View dataset on Mendeley Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -26954,6 +27988,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF642A8F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -26976,7 +28025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27029,6 +28078,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -27346,16 +28398,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A845E-5A1C-224D-879C-239DE5930762}">
   <dimension ref="A1:P526"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O527" sqref="O527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="8" max="8" width="55.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="15" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" style="32" customWidth="1"/>
     <col min="16" max="16" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27452,7 +28511,9 @@
       <c r="N2" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="11" t="s">
+        <v>2457</v>
+      </c>
       <c r="P2" s="7" t="s">
         <v>64</v>
       </c>
@@ -27479,6 +28540,9 @@
       <c r="J3" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="O3" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P3" t="s">
         <v>1639</v>
       </c>
@@ -27526,7 +28590,9 @@
       <c r="N4" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
@@ -27572,7 +28638,9 @@
       <c r="N5" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
@@ -27616,7 +28684,9 @@
       <c r="N6" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P6" s="7" t="s">
         <v>111</v>
       </c>
@@ -27664,7 +28734,9 @@
       <c r="N7" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
@@ -27707,6 +28779,9 @@
       <c r="N8" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O8" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="7" t="s">
@@ -27751,7 +28826,9 @@
       <c r="N9" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="11" t="s">
+        <v>2458</v>
+      </c>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16">
@@ -27797,7 +28874,9 @@
       <c r="N10" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16">
@@ -27843,7 +28922,9 @@
       <c r="N11" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="11" t="s">
+        <v>2459</v>
+      </c>
       <c r="P11" s="7" t="s">
         <v>136</v>
       </c>
@@ -27891,7 +28972,9 @@
       <c r="N12" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="32" t="s">
+        <v>2460</v>
+      </c>
       <c r="P12" s="7" t="s">
         <v>301</v>
       </c>
@@ -27939,7 +29022,9 @@
       <c r="N13" s="7" t="s">
         <v>1996</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P13" s="7" t="s">
         <v>328</v>
       </c>
@@ -27987,7 +29072,9 @@
       <c r="N14" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
@@ -28033,7 +29120,9 @@
       <c r="N15" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P15" s="7" t="s">
         <v>441</v>
       </c>
@@ -28079,7 +29168,9 @@
       <c r="N16" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P16" s="7" t="s">
         <v>464</v>
       </c>
@@ -28127,7 +29218,9 @@
       <c r="N17" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O17" s="7"/>
+      <c r="O17" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
@@ -28169,7 +29262,9 @@
       <c r="N18" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P18" s="7" t="s">
         <v>570</v>
       </c>
@@ -28217,6 +29312,9 @@
       <c r="N19" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O19" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
@@ -28259,7 +29357,9 @@
       <c r="N20" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P20" s="7" t="s">
         <v>586</v>
       </c>
@@ -28305,7 +29405,9 @@
       <c r="N21" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P21" s="7" t="s">
         <v>590</v>
       </c>
@@ -28353,7 +29455,9 @@
       <c r="N22" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P22" s="7" t="s">
         <v>632</v>
       </c>
@@ -28399,7 +29503,9 @@
       <c r="N23" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="32" t="s">
+        <v>2461</v>
+      </c>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16">
@@ -28441,7 +29547,9 @@
       <c r="N24" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P24" s="7" t="s">
         <v>678</v>
       </c>
@@ -28485,7 +29593,9 @@
       <c r="N25" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O25" s="7"/>
+      <c r="O25" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
@@ -28531,7 +29641,9 @@
       <c r="N26" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O26" s="7"/>
+      <c r="O26" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16">
@@ -28577,7 +29689,9 @@
       <c r="N27" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O27" s="7"/>
+      <c r="O27" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16">
@@ -28621,7 +29735,9 @@
       <c r="N28" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16">
@@ -28663,7 +29779,9 @@
       <c r="N29" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O29" s="7"/>
+      <c r="O29" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P29" s="7" t="s">
         <v>696</v>
       </c>
@@ -28709,7 +29827,9 @@
       <c r="N30" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="32" t="s">
+        <v>2463</v>
+      </c>
       <c r="P30" s="7" t="s">
         <v>389</v>
       </c>
@@ -28757,7 +29877,9 @@
       <c r="N31" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O31" s="7"/>
+      <c r="O31" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P31" s="7" t="s">
         <v>746</v>
       </c>
@@ -28805,7 +29927,9 @@
       <c r="N32" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O32" s="7"/>
+      <c r="O32" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16">
@@ -28851,7 +29975,9 @@
       <c r="N33" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O33" s="7"/>
+      <c r="O33" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16">
@@ -28895,7 +30021,9 @@
       <c r="N34" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O34" s="7"/>
+      <c r="O34" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P34" s="7" t="s">
         <v>844</v>
       </c>
@@ -28941,7 +30069,9 @@
       <c r="N35" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O35" s="7"/>
+      <c r="O35" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P35" s="7" t="s">
         <v>1303</v>
       </c>
@@ -28989,7 +30119,9 @@
       <c r="N36" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O36" s="7"/>
+      <c r="O36" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P36" s="7"/>
     </row>
     <row r="37" spans="1:16">
@@ -29035,7 +30167,9 @@
       <c r="N37" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O37" s="7"/>
+      <c r="O37" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P37" s="7"/>
     </row>
     <row r="38" spans="1:16">
@@ -29081,7 +30215,9 @@
       <c r="N38" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O38" s="7"/>
+      <c r="O38" s="32" t="s">
+        <v>2464</v>
+      </c>
       <c r="P38" s="7" t="s">
         <v>1253</v>
       </c>
@@ -29129,7 +30265,9 @@
       <c r="N39" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O39" s="7"/>
+      <c r="O39" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P39" s="7" t="s">
         <v>1260</v>
       </c>
@@ -29177,7 +30315,9 @@
       <c r="N40" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O40" s="7"/>
+      <c r="O40" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P40" s="7" t="s">
         <v>1260</v>
       </c>
@@ -29223,7 +30363,9 @@
       <c r="N41" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O41" s="7"/>
+      <c r="O41" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P41" s="7" t="s">
         <v>1266</v>
       </c>
@@ -29267,7 +30409,9 @@
       <c r="N42" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O42" s="7"/>
+      <c r="O42" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P42" s="7" t="s">
         <v>1260</v>
       </c>
@@ -29311,7 +30455,9 @@
       <c r="N43" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O43" s="7"/>
+      <c r="O43" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P43" s="7"/>
     </row>
     <row r="44" spans="1:16">
@@ -29355,7 +30501,9 @@
       <c r="N44" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O44" s="7"/>
+      <c r="O44" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P44" s="7"/>
     </row>
     <row r="45" spans="1:16">
@@ -29399,7 +30547,9 @@
       <c r="N45" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O45" s="7"/>
+      <c r="O45" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P45" s="7" t="s">
         <v>1286</v>
       </c>
@@ -29445,7 +30595,9 @@
       <c r="N46" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O46" s="7"/>
+      <c r="O46" s="11" t="s">
+        <v>2465</v>
+      </c>
       <c r="P46" s="7" t="s">
         <v>2339</v>
       </c>
@@ -29491,7 +30643,9 @@
       <c r="N47" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O47" s="7"/>
+      <c r="O47" s="32" t="s">
+        <v>2466</v>
+      </c>
       <c r="P47" s="7" t="s">
         <v>1303</v>
       </c>
@@ -29535,7 +30689,9 @@
       <c r="N48" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O48" s="7"/>
+      <c r="O48" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P48" s="7" t="s">
         <v>1306</v>
       </c>
@@ -29581,7 +30737,9 @@
       <c r="N49" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O49" s="7"/>
+      <c r="O49" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P49" s="7" t="s">
         <v>294</v>
       </c>
@@ -29625,7 +30783,9 @@
       <c r="N50" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O50" s="7"/>
+      <c r="O50" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P50" s="7" t="s">
         <v>2425</v>
       </c>
@@ -29669,7 +30829,9 @@
       <c r="N51" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O51" s="7"/>
+      <c r="O51" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P51" s="7" t="s">
         <v>1295</v>
       </c>
@@ -29713,7 +30875,9 @@
       <c r="N52" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O52" s="7"/>
+      <c r="O52" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P52" s="7" t="s">
         <v>1306</v>
       </c>
@@ -29757,7 +30921,9 @@
       <c r="N53" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O53" s="7"/>
+      <c r="O53" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P53" s="7" t="s">
         <v>1339</v>
       </c>
@@ -29805,7 +30971,9 @@
       <c r="N54" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O54" s="7"/>
+      <c r="O54" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P54" s="7"/>
     </row>
     <row r="55" spans="1:16">
@@ -29851,7 +31019,9 @@
       <c r="N55" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O55" s="7"/>
+      <c r="O55" s="11" t="s">
+        <v>2467</v>
+      </c>
       <c r="P55" s="7" t="s">
         <v>1357</v>
       </c>
@@ -29899,7 +31069,9 @@
       <c r="N56" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O56" s="7"/>
+      <c r="O56" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P56" s="7"/>
     </row>
     <row r="57" spans="1:16">
@@ -29941,7 +31113,9 @@
       <c r="N57" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O57" s="7"/>
+      <c r="O57" s="32" t="s">
+        <v>2468</v>
+      </c>
       <c r="P57" s="7" t="s">
         <v>1366</v>
       </c>
@@ -29987,7 +31161,9 @@
       <c r="N58" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O58" s="7"/>
+      <c r="O58" s="11" t="s">
+        <v>2469</v>
+      </c>
       <c r="P58" s="7" t="s">
         <v>1416</v>
       </c>
@@ -30035,7 +31211,9 @@
       <c r="N59" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="O59" s="7"/>
+      <c r="O59" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P59" s="7" t="s">
         <v>1425</v>
       </c>
@@ -30074,6 +31252,9 @@
       <c r="N60" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O60" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P60" t="s">
         <v>1639</v>
       </c>
@@ -30121,7 +31302,9 @@
       <c r="N61" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O61" s="7"/>
+      <c r="O61" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P61" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30169,7 +31352,9 @@
       <c r="N62" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O62" s="7"/>
+      <c r="O62" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P62" s="7" t="s">
         <v>1483</v>
       </c>
@@ -30217,7 +31402,9 @@
       <c r="N63" s="7" t="s">
         <v>2273</v>
       </c>
-      <c r="O63" s="7"/>
+      <c r="O63" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P63" s="7"/>
     </row>
     <row r="64" spans="1:16" ht="18">
@@ -30263,7 +31450,9 @@
       <c r="N64" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O64" s="7"/>
+      <c r="O64" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P64" s="7" t="s">
         <v>1540</v>
       </c>
@@ -30311,7 +31500,9 @@
       <c r="N65" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O65" s="7"/>
+      <c r="O65" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P65" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30359,7 +31550,9 @@
       <c r="N66" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O66" s="7"/>
+      <c r="O66" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P66" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30407,7 +31600,9 @@
       <c r="N67" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O67" s="7"/>
+      <c r="O67" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P67" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30453,7 +31648,9 @@
       <c r="N68" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O68" s="7"/>
+      <c r="O68" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P68" s="7"/>
     </row>
     <row r="69" spans="1:16">
@@ -30497,7 +31694,9 @@
       <c r="N69" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O69" s="7"/>
+      <c r="O69" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P69" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30545,7 +31744,9 @@
       <c r="N70" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O70" s="7"/>
+      <c r="O70" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P70" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30593,7 +31794,9 @@
       <c r="N71" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O71" s="7"/>
+      <c r="O71" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P71" s="7"/>
     </row>
     <row r="72" spans="1:16">
@@ -30639,7 +31842,9 @@
       <c r="N72" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O72" s="7"/>
+      <c r="O72" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P72" s="7"/>
     </row>
     <row r="73" spans="1:16">
@@ -30683,7 +31888,9 @@
       <c r="N73" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O73" s="7"/>
+      <c r="O73" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P73" s="7" t="s">
         <v>1516</v>
       </c>
@@ -30731,7 +31938,9 @@
       <c r="N74" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O74" s="7"/>
+      <c r="O74" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P74" s="7" t="s">
         <v>1303</v>
       </c>
@@ -30779,7 +31988,9 @@
       <c r="N75" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O75" s="7"/>
+      <c r="O75" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P75" s="7"/>
     </row>
     <row r="76" spans="1:16">
@@ -30823,7 +32034,9 @@
       <c r="N76" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O76" s="7"/>
+      <c r="O76" s="32" t="s">
+        <v>2471</v>
+      </c>
       <c r="P76" s="7" t="s">
         <v>1562</v>
       </c>
@@ -30871,7 +32084,9 @@
       <c r="N77" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O77" s="7"/>
+      <c r="O77" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P77" s="7" t="s">
         <v>2119</v>
       </c>
@@ -30919,7 +32134,9 @@
       <c r="N78" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O78" s="7"/>
+      <c r="O78" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P78" s="7"/>
     </row>
     <row r="79" spans="1:16">
@@ -30965,7 +32182,9 @@
       <c r="N79" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O79" s="7"/>
+      <c r="O79" s="32" t="s">
+        <v>2472</v>
+      </c>
       <c r="P79" s="7"/>
     </row>
     <row r="80" spans="1:16">
@@ -31009,7 +32228,9 @@
       <c r="N80" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O80" s="7"/>
+      <c r="O80" s="11" t="s">
+        <v>2473</v>
+      </c>
       <c r="P80" s="7" t="s">
         <v>1303</v>
       </c>
@@ -31057,7 +32278,9 @@
       <c r="N81" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O81" s="7"/>
+      <c r="O81" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P81" s="7" t="s">
         <v>1303</v>
       </c>
@@ -31103,7 +32326,9 @@
       <c r="N82" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O82" s="7"/>
+      <c r="O82" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P82" s="7" t="s">
         <v>1613</v>
       </c>
@@ -31151,7 +32376,9 @@
       <c r="N83" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O83" s="7"/>
+      <c r="O83" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P83" s="7" t="s">
         <v>1303</v>
       </c>
@@ -31195,7 +32422,9 @@
       <c r="N84" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O84" s="7"/>
+      <c r="O84" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P84" s="7" t="s">
         <v>18</v>
       </c>
@@ -31241,7 +32470,9 @@
         <v>63</v>
       </c>
       <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
+      <c r="O85" s="11" t="s">
+        <v>2474</v>
+      </c>
       <c r="P85" s="7"/>
     </row>
     <row r="86" spans="1:16">
@@ -31287,7 +32518,9 @@
       <c r="N86" s="7" t="s">
         <v>1994</v>
       </c>
-      <c r="O86" s="7"/>
+      <c r="O86" s="11" t="s">
+        <v>2475</v>
+      </c>
       <c r="P86" s="7" t="s">
         <v>31</v>
       </c>
@@ -31331,7 +32564,9 @@
         <v>63</v>
       </c>
       <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
+      <c r="O87" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P87" s="7"/>
     </row>
     <row r="88" spans="1:16">
@@ -31371,6 +32606,9 @@
       <c r="N88" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O88" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="8" t="s">
@@ -31415,7 +32653,9 @@
       <c r="N89" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O89" s="7"/>
+      <c r="O89" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P89" s="7"/>
     </row>
     <row r="90" spans="1:16">
@@ -31461,7 +32701,9 @@
       <c r="N90" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O90" s="7"/>
+      <c r="O90" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P90" s="7"/>
     </row>
     <row r="91" spans="1:16">
@@ -31507,7 +32749,9 @@
       <c r="N91" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O91" s="7"/>
+      <c r="O91" s="11" t="s">
+        <v>2476</v>
+      </c>
       <c r="P91" s="7"/>
     </row>
     <row r="92" spans="1:16">
@@ -31553,7 +32797,9 @@
       <c r="N92" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O92" s="7"/>
+      <c r="O92" s="32" t="s">
+        <v>2477</v>
+      </c>
       <c r="P92" s="7"/>
     </row>
     <row r="93" spans="1:16">
@@ -31599,7 +32845,9 @@
       <c r="N93" s="7" t="s">
         <v>2268</v>
       </c>
-      <c r="O93" s="7"/>
+      <c r="O93" s="32" t="s">
+        <v>2478</v>
+      </c>
       <c r="P93" s="7" t="s">
         <v>78</v>
       </c>
@@ -31647,7 +32895,9 @@
       <c r="N94" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O94" s="7"/>
+      <c r="O94" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P94" s="7"/>
     </row>
     <row r="95" spans="1:16">
@@ -31693,7 +32943,9 @@
       <c r="N95" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O95" s="7"/>
+      <c r="O95" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P95" s="7"/>
     </row>
     <row r="96" spans="1:16">
@@ -31739,7 +32991,9 @@
       <c r="N96" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O96" s="7"/>
+      <c r="O96" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P96" s="7"/>
     </row>
     <row r="97" spans="1:16">
@@ -31782,6 +33036,9 @@
       <c r="N97" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O97" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="7" t="s">
@@ -31826,7 +33083,9 @@
       <c r="N98" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O98" s="7"/>
+      <c r="O98" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P98" s="7"/>
     </row>
     <row r="99" spans="1:16">
@@ -31872,7 +33131,9 @@
       <c r="N99" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O99" s="7"/>
+      <c r="O99" s="32" t="s">
+        <v>2479</v>
+      </c>
       <c r="P99" s="7"/>
     </row>
     <row r="100" spans="1:16">
@@ -31918,7 +33179,9 @@
       <c r="N100" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O100" s="7"/>
+      <c r="O100" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P100" s="7"/>
     </row>
     <row r="101" spans="1:16">
@@ -31964,7 +33227,9 @@
       <c r="N101" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O101" s="7"/>
+      <c r="O101" s="11" t="s">
+        <v>2480</v>
+      </c>
       <c r="P101" s="7"/>
     </row>
     <row r="102" spans="1:16">
@@ -32010,7 +33275,9 @@
       <c r="N102" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O102" s="7"/>
+      <c r="O102" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P102" s="7" t="s">
         <v>146</v>
       </c>
@@ -32058,7 +33325,9 @@
       <c r="N103" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O103" s="7"/>
+      <c r="O103" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P103" s="7"/>
     </row>
     <row r="104" spans="1:16">
@@ -32102,7 +33371,9 @@
       <c r="N104" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O104" s="7"/>
+      <c r="O104" s="32" t="s">
+        <v>2481</v>
+      </c>
       <c r="P104" s="7" t="s">
         <v>163</v>
       </c>
@@ -32150,7 +33421,9 @@
       <c r="N105" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O105" s="7"/>
+      <c r="O105" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P105" s="7" t="s">
         <v>64</v>
       </c>
@@ -32198,7 +33471,9 @@
       <c r="N106" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O106" s="7"/>
+      <c r="O106" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P106" s="7"/>
     </row>
     <row r="107" spans="1:16">
@@ -32244,7 +33519,9 @@
       <c r="N107" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O107" s="7"/>
+      <c r="O107" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P107" s="7"/>
     </row>
     <row r="108" spans="1:16">
@@ -32290,7 +33567,9 @@
       <c r="N108" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O108" s="7"/>
+      <c r="O108" s="11" t="s">
+        <v>2482</v>
+      </c>
       <c r="P108" s="7"/>
     </row>
     <row r="109" spans="1:16">
@@ -32336,7 +33615,9 @@
       <c r="N109" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O109" s="7"/>
+      <c r="O109" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P109" s="7"/>
     </row>
     <row r="110" spans="1:16">
@@ -32380,7 +33661,9 @@
       <c r="N110" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O110" s="7"/>
+      <c r="O110" s="11" t="s">
+        <v>2483</v>
+      </c>
       <c r="P110" s="7"/>
     </row>
     <row r="111" spans="1:16">
@@ -32426,7 +33709,9 @@
       <c r="N111" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O111" s="7"/>
+      <c r="O111" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P111" s="7"/>
     </row>
     <row r="112" spans="1:16">
@@ -32472,7 +33757,9 @@
       <c r="N112" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O112" s="7"/>
+      <c r="O112" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P112" s="7"/>
     </row>
     <row r="113" spans="1:16">
@@ -32518,7 +33805,9 @@
       <c r="N113" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O113" s="7"/>
+      <c r="O113" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P113" s="7"/>
     </row>
     <row r="114" spans="1:16">
@@ -32564,7 +33853,9 @@
       <c r="N114" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O114" s="7"/>
+      <c r="O114" s="11" t="s">
+        <v>2484</v>
+      </c>
       <c r="P114" s="7" t="s">
         <v>212</v>
       </c>
@@ -32612,7 +33903,9 @@
       <c r="N115" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O115" s="7"/>
+      <c r="O115" s="32" t="s">
+        <v>2485</v>
+      </c>
       <c r="P115" s="7"/>
     </row>
     <row r="116" spans="1:16">
@@ -32658,7 +33951,9 @@
       <c r="N116" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O116" s="7"/>
+      <c r="O116" s="11" t="s">
+        <v>2486</v>
+      </c>
       <c r="P116" s="7"/>
     </row>
     <row r="117" spans="1:16">
@@ -32704,7 +33999,9 @@
       <c r="N117" s="7" t="s">
         <v>2283</v>
       </c>
-      <c r="O117" s="7"/>
+      <c r="O117" s="11" t="s">
+        <v>2487</v>
+      </c>
       <c r="P117" s="7"/>
     </row>
     <row r="118" spans="1:16">
@@ -32748,7 +34045,9 @@
       <c r="N118" s="7" t="s">
         <v>2273</v>
       </c>
-      <c r="O118" s="7"/>
+      <c r="O118" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P118" s="7" t="s">
         <v>232</v>
       </c>
@@ -32794,7 +34093,9 @@
       <c r="N119" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O119" s="7"/>
+      <c r="O119" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P119" s="7" t="s">
         <v>235</v>
       </c>
@@ -32840,7 +34141,9 @@
       <c r="N120" s="7" t="s">
         <v>2275</v>
       </c>
-      <c r="O120" s="7"/>
+      <c r="O120" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P120" s="7" t="s">
         <v>235</v>
       </c>
@@ -32886,7 +34189,9 @@
       <c r="N121" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O121" s="7"/>
+      <c r="O121" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P121" s="7" t="s">
         <v>235</v>
       </c>
@@ -32932,7 +34237,9 @@
       <c r="N122" s="7" t="s">
         <v>2276</v>
       </c>
-      <c r="O122" s="7"/>
+      <c r="O122" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P122" s="7"/>
     </row>
     <row r="123" spans="1:16">
@@ -32978,7 +34285,9 @@
       <c r="N123" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O123" s="7"/>
+      <c r="O123" s="11" t="s">
+        <v>2488</v>
+      </c>
       <c r="P123" s="7"/>
     </row>
     <row r="124" spans="1:16">
@@ -33024,7 +34333,9 @@
       <c r="N124" s="7" t="s">
         <v>2277</v>
       </c>
-      <c r="O124" s="7"/>
+      <c r="O124" s="32" t="s">
+        <v>2489</v>
+      </c>
       <c r="P124" s="7" t="s">
         <v>253</v>
       </c>
@@ -33072,7 +34383,9 @@
       <c r="N125" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O125" s="7"/>
+      <c r="O125" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P125" s="7" t="s">
         <v>267</v>
       </c>
@@ -33118,7 +34431,9 @@
       <c r="N126" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O126" s="7"/>
+      <c r="O126" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P126" s="7" t="s">
         <v>273</v>
       </c>
@@ -33162,7 +34477,9 @@
       <c r="N127" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O127" s="7"/>
+      <c r="O127" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P127" s="7"/>
     </row>
     <row r="128" spans="1:16">
@@ -33206,7 +34523,9 @@
       <c r="N128" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O128" s="7"/>
+      <c r="O128" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P128" s="7" t="s">
         <v>281</v>
       </c>
@@ -33252,7 +34571,9 @@
       <c r="N129" s="7" t="s">
         <v>2277</v>
       </c>
-      <c r="O129" s="7"/>
+      <c r="O129" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P129" s="7" t="s">
         <v>286</v>
       </c>
@@ -33298,7 +34619,9 @@
       <c r="N130" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O130" s="7"/>
+      <c r="O130" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P130" s="7" t="s">
         <v>294</v>
       </c>
@@ -33344,7 +34667,9 @@
       <c r="N131" s="7" t="s">
         <v>2284</v>
       </c>
-      <c r="O131" s="7"/>
+      <c r="O131" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P131" s="7" t="s">
         <v>290</v>
       </c>
@@ -33386,6 +34711,9 @@
       <c r="N132" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O132" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P132" t="s">
         <v>1656</v>
       </c>
@@ -33433,7 +34761,9 @@
       <c r="N133" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O133" s="7"/>
+      <c r="O133" s="32" t="s">
+        <v>2490</v>
+      </c>
       <c r="P133" s="7"/>
     </row>
     <row r="134" spans="1:16">
@@ -33477,7 +34807,9 @@
       <c r="N134" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O134" s="7"/>
+      <c r="O134" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P134" s="7" t="s">
         <v>314</v>
       </c>
@@ -33525,7 +34857,9 @@
       <c r="N135" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O135" s="7"/>
+      <c r="O135" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P135" s="7"/>
     </row>
     <row r="136" spans="1:16">
@@ -33568,6 +34902,9 @@
       <c r="N136" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O136" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P136" s="7"/>
     </row>
     <row r="137" spans="1:16">
@@ -33610,6 +34947,9 @@
       <c r="N137" s="7" t="s">
         <v>1996</v>
       </c>
+      <c r="O137" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="17" t="s">
@@ -33651,6 +34991,9 @@
       <c r="N138" t="s">
         <v>1996</v>
       </c>
+      <c r="O138" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P138" t="s">
         <v>1662</v>
       </c>
@@ -33696,7 +35039,9 @@
       <c r="N139" s="7" t="s">
         <v>1996</v>
       </c>
-      <c r="O139" s="7"/>
+      <c r="O139" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P139" s="7"/>
     </row>
     <row r="140" spans="1:16">
@@ -33742,7 +35087,9 @@
       <c r="N140" s="7" t="s">
         <v>2278</v>
       </c>
-      <c r="O140" s="7"/>
+      <c r="O140" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P140" s="7"/>
     </row>
     <row r="141" spans="1:16">
@@ -33788,7 +35135,9 @@
       <c r="N141" s="7" t="s">
         <v>2283</v>
       </c>
-      <c r="O141" s="7"/>
+      <c r="O141" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P141" s="7" t="s">
         <v>347</v>
       </c>
@@ -33836,7 +35185,9 @@
       <c r="N142" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O142" s="7"/>
+      <c r="O142" s="11" t="s">
+        <v>2491</v>
+      </c>
       <c r="P142" s="7"/>
     </row>
     <row r="143" spans="1:16">
@@ -33882,7 +35233,9 @@
       <c r="N143" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O143" s="7"/>
+      <c r="O143" s="11" t="s">
+        <v>2491</v>
+      </c>
       <c r="P143" s="7"/>
     </row>
     <row r="144" spans="1:16">
@@ -33924,7 +35277,9 @@
       <c r="N144" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O144" s="7"/>
+      <c r="O144" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P144" s="7" t="s">
         <v>1670</v>
       </c>
@@ -33970,7 +35325,9 @@
       <c r="N145" s="7" t="s">
         <v>2279</v>
       </c>
-      <c r="O145" s="7"/>
+      <c r="O145" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P145" s="7" t="s">
         <v>163</v>
       </c>
@@ -34018,7 +35375,9 @@
       <c r="N146" s="7" t="s">
         <v>2280</v>
       </c>
-      <c r="O146" s="7"/>
+      <c r="O146" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P146" s="7"/>
     </row>
     <row r="147" spans="1:16">
@@ -34064,7 +35423,9 @@
       <c r="N147" s="7" t="s">
         <v>2281</v>
       </c>
-      <c r="O147" s="7"/>
+      <c r="O147" s="11" t="s">
+        <v>2492</v>
+      </c>
       <c r="P147" s="7"/>
     </row>
     <row r="148" spans="1:16">
@@ -34110,7 +35471,9 @@
       <c r="N148" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O148" s="7"/>
+      <c r="O148" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P148" s="7" t="s">
         <v>2285</v>
       </c>
@@ -34154,7 +35517,9 @@
         <v>63</v>
       </c>
       <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
+      <c r="O149" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P149" s="7" t="s">
         <v>389</v>
       </c>
@@ -34198,7 +35563,9 @@
       <c r="N150" s="7" t="s">
         <v>2286</v>
       </c>
-      <c r="O150" s="7"/>
+      <c r="O150" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P150" s="7"/>
     </row>
     <row r="151" spans="1:16">
@@ -34244,7 +35611,9 @@
       <c r="N151" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O151" s="7"/>
+      <c r="O151" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P151" s="7"/>
     </row>
     <row r="152" spans="1:16">
@@ -34290,7 +35659,9 @@
       <c r="N152" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O152" s="7"/>
+      <c r="O152" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P152" s="7" t="s">
         <v>430</v>
       </c>
@@ -34338,7 +35709,9 @@
       <c r="N153" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O153" s="7"/>
+      <c r="O153" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P153" s="7"/>
     </row>
     <row r="154" spans="1:16">
@@ -34381,6 +35754,9 @@
       <c r="N154" s="7" t="s">
         <v>1999</v>
       </c>
+      <c r="O154" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="17" t="s">
@@ -34419,6 +35795,9 @@
       <c r="N155" s="7" t="s">
         <v>2280</v>
       </c>
+      <c r="O155" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="17" t="s">
@@ -34460,6 +35839,9 @@
       <c r="N156" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O156" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="17" t="s">
@@ -34501,6 +35883,9 @@
       <c r="N157" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O157" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="17" t="s">
@@ -34542,6 +35927,9 @@
       <c r="N158" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O158" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="17" t="s">
@@ -34583,6 +35971,9 @@
       <c r="N159" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O159" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="8" t="s">
@@ -34625,7 +36016,9 @@
       <c r="N160" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O160" s="7"/>
+      <c r="O160" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P160" s="7"/>
     </row>
     <row r="161" spans="1:16">
@@ -34671,7 +36064,9 @@
       <c r="N161" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O161" s="7"/>
+      <c r="O161" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P161" s="7" t="s">
         <v>399</v>
       </c>
@@ -34717,7 +36112,9 @@
       <c r="N162" s="7" t="s">
         <v>1999</v>
       </c>
-      <c r="O162" s="7"/>
+      <c r="O162" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P162" s="7" t="s">
         <v>424</v>
       </c>
@@ -34759,6 +36156,9 @@
       <c r="N163" t="s">
         <v>1997</v>
       </c>
+      <c r="O163" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P163" t="s">
         <v>1113</v>
       </c>
@@ -34800,6 +36200,9 @@
       <c r="N164" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O164" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="8" t="s">
@@ -34842,7 +36245,9 @@
       <c r="N165" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O165" s="7"/>
+      <c r="O165" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P165" s="7" t="s">
         <v>404</v>
       </c>
@@ -34890,7 +36295,9 @@
       <c r="N166" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O166" s="7"/>
+      <c r="O166" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P166" s="7"/>
     </row>
     <row r="167" spans="1:16">
@@ -34936,7 +36343,9 @@
       <c r="N167" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O167" s="7"/>
+      <c r="O167" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P167" s="7"/>
     </row>
     <row r="168" spans="1:16">
@@ -34982,7 +36391,9 @@
       <c r="N168" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O168" s="7"/>
+      <c r="O168" s="32" t="s">
+        <v>2493</v>
+      </c>
       <c r="P168" s="7"/>
     </row>
     <row r="169" spans="1:16">
@@ -35028,6 +36439,9 @@
       <c r="N169" s="7" t="s">
         <v>2288</v>
       </c>
+      <c r="O169" s="11" t="s">
+        <v>2494</v>
+      </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="8" t="s">
@@ -35069,6 +36483,9 @@
       <c r="N170" t="s">
         <v>2288</v>
       </c>
+      <c r="O170" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="17" t="s">
@@ -35110,6 +36527,9 @@
       <c r="N171" s="7" t="s">
         <v>1999</v>
       </c>
+      <c r="O171" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="8" t="s">
@@ -35150,7 +36570,9 @@
       <c r="N172" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O172" s="7"/>
+      <c r="O172" s="11" t="s">
+        <v>2495</v>
+      </c>
       <c r="P172" s="7" t="s">
         <v>458</v>
       </c>
@@ -35194,7 +36616,9 @@
       <c r="N173" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O173" s="7"/>
+      <c r="O173" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P173" s="7" t="s">
         <v>469</v>
       </c>
@@ -35242,7 +36666,9 @@
       <c r="N174" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O174" s="7"/>
+      <c r="O174" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P174" s="7" t="s">
         <v>475</v>
       </c>
@@ -35290,7 +36716,9 @@
       <c r="N175" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O175" s="7"/>
+      <c r="O175" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P175" s="7"/>
     </row>
     <row r="176" spans="1:16">
@@ -35336,7 +36764,9 @@
       <c r="N176" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O176" s="7"/>
+      <c r="O176" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P176" s="7"/>
     </row>
     <row r="177" spans="1:16">
@@ -35382,7 +36812,9 @@
       <c r="N177" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O177" s="7"/>
+      <c r="O177" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P177" s="7"/>
     </row>
     <row r="178" spans="1:16">
@@ -35428,7 +36860,9 @@
       <c r="N178" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O178" s="7"/>
+      <c r="O178" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P178" s="7"/>
     </row>
     <row r="179" spans="1:16">
@@ -35474,7 +36908,9 @@
       <c r="N179" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O179" s="7"/>
+      <c r="O179" s="11" t="s">
+        <v>2496</v>
+      </c>
       <c r="P179" s="7"/>
     </row>
     <row r="180" spans="1:16">
@@ -35520,7 +36956,9 @@
       <c r="N180" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O180" s="7"/>
+      <c r="O180" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P180" s="7"/>
     </row>
     <row r="181" spans="1:16">
@@ -35566,7 +37004,9 @@
       <c r="N181" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O181" s="7"/>
+      <c r="O181" s="32" t="s">
+        <v>2497</v>
+      </c>
       <c r="P181" s="7" t="s">
         <v>514</v>
       </c>
@@ -35614,7 +37054,9 @@
       <c r="N182" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O182" s="7"/>
+      <c r="O182" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P182" s="7"/>
     </row>
     <row r="183" spans="1:16">
@@ -35660,6 +37102,9 @@
       <c r="N183" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O183" s="11" t="s">
+        <v>2470</v>
+      </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="7" t="s">
@@ -35704,7 +37149,9 @@
       <c r="N184" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O184" s="7"/>
+      <c r="O184" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P184" s="7"/>
     </row>
     <row r="185" spans="1:16">
@@ -35750,7 +37197,9 @@
       <c r="N185" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O185" s="7"/>
+      <c r="O185" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P185" s="7"/>
     </row>
     <row r="186" spans="1:16">
@@ -35794,7 +37243,9 @@
       <c r="N186" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O186" s="7"/>
+      <c r="O186" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P186" s="7"/>
     </row>
     <row r="187" spans="1:16">
@@ -35840,7 +37291,9 @@
       <c r="N187" s="7" t="s">
         <v>2295</v>
       </c>
-      <c r="O187" s="7"/>
+      <c r="O187" s="32" t="s">
+        <v>2498</v>
+      </c>
       <c r="P187" s="7" t="s">
         <v>527</v>
       </c>
@@ -35884,7 +37337,9 @@
       <c r="N188" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O188" s="7"/>
+      <c r="O188" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P188" s="7"/>
     </row>
     <row r="189" spans="1:16">
@@ -35930,7 +37385,9 @@
       <c r="N189" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O189" s="7"/>
+      <c r="O189" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P189" s="7"/>
     </row>
     <row r="190" spans="1:16">
@@ -35976,7 +37433,9 @@
       <c r="N190" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O190" s="7"/>
+      <c r="O190" s="32" t="s">
+        <v>2499</v>
+      </c>
       <c r="P190" s="7"/>
     </row>
     <row r="191" spans="1:16">
@@ -36022,7 +37481,9 @@
       <c r="N191" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O191" s="7"/>
+      <c r="O191" s="11" t="s">
+        <v>2500</v>
+      </c>
       <c r="P191" s="7"/>
     </row>
     <row r="192" spans="1:16">
@@ -36066,7 +37527,9 @@
       <c r="N192" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O192" s="7"/>
+      <c r="O192" s="11" t="s">
+        <v>2501</v>
+      </c>
       <c r="P192" s="7"/>
     </row>
     <row r="193" spans="1:16">
@@ -36112,7 +37575,9 @@
       <c r="N193" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O193" s="7"/>
+      <c r="O193" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P193" s="7"/>
     </row>
     <row r="194" spans="1:16">
@@ -36156,7 +37621,9 @@
       <c r="N194" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O194" s="7"/>
+      <c r="O194" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P194" s="7" t="s">
         <v>581</v>
       </c>
@@ -36200,7 +37667,9 @@
       <c r="N195" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O195" s="7"/>
+      <c r="O195" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P195" s="7" t="s">
         <v>593</v>
       </c>
@@ -36248,7 +37717,9 @@
       <c r="N196" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O196" s="7"/>
+      <c r="O196" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P196" s="7" t="s">
         <v>586</v>
       </c>
@@ -36296,7 +37767,9 @@
       <c r="N197" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O197" s="7"/>
+      <c r="O197" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P197" s="7" t="s">
         <v>608</v>
       </c>
@@ -36342,7 +37815,9 @@
       <c r="N198" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O198" s="7"/>
+      <c r="O198" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P198" s="7" t="s">
         <v>389</v>
       </c>
@@ -36390,7 +37865,9 @@
       <c r="N199" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O199" s="7"/>
+      <c r="O199" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P199" s="7"/>
     </row>
     <row r="200" spans="1:16">
@@ -36434,7 +37911,9 @@
       <c r="N200" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O200" s="7"/>
+      <c r="O200" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P200" s="7" t="s">
         <v>626</v>
       </c>
@@ -36482,7 +37961,9 @@
       <c r="N201" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O201" s="7"/>
+      <c r="O201" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P201" s="7"/>
     </row>
     <row r="202" spans="1:16">
@@ -36528,7 +38009,9 @@
       <c r="N202" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O202" s="7"/>
+      <c r="O202" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P202" s="7"/>
     </row>
     <row r="203" spans="1:16">
@@ -36574,7 +38057,9 @@
       <c r="N203" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O203" s="7"/>
+      <c r="O203" s="11" t="s">
+        <v>2502</v>
+      </c>
       <c r="P203" s="7"/>
     </row>
     <row r="204" spans="1:16">
@@ -36620,7 +38105,9 @@
       <c r="N204" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O204" s="7"/>
+      <c r="O204" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P204" s="7" t="s">
         <v>658</v>
       </c>
@@ -36666,7 +38153,9 @@
       <c r="N205" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O205" s="7"/>
+      <c r="O205" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P205" s="7"/>
     </row>
     <row r="206" spans="1:16">
@@ -36712,7 +38201,9 @@
       <c r="N206" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O206" s="7"/>
+      <c r="O206" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P206" s="7" t="s">
         <v>669</v>
       </c>
@@ -36756,7 +38247,9 @@
       <c r="N207" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O207" s="7"/>
+      <c r="O207" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P207" s="7"/>
     </row>
     <row r="208" spans="1:16">
@@ -36802,7 +38295,9 @@
       <c r="N208" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="O208" s="7"/>
+      <c r="O208" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P208" s="7"/>
     </row>
     <row r="209" spans="1:16">
@@ -36846,7 +38341,9 @@
       <c r="N209" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="O209" s="7"/>
+      <c r="O209" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P209" s="7" t="s">
         <v>759</v>
       </c>
@@ -36892,7 +38389,9 @@
       <c r="N210" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O210" s="7"/>
+      <c r="O210" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P210" s="7" t="s">
         <v>683</v>
       </c>
@@ -36938,7 +38437,9 @@
       <c r="N211" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="O211" s="7"/>
+      <c r="O211" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P211" s="7"/>
     </row>
     <row r="212" spans="1:16">
@@ -36984,7 +38485,9 @@
       <c r="N212" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="O212" s="7"/>
+      <c r="O212" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P212" s="7" t="s">
         <v>692</v>
       </c>
@@ -37032,7 +38535,9 @@
       <c r="N213" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O213" s="7"/>
+      <c r="O213" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P213" s="7"/>
     </row>
     <row r="214" spans="1:16">
@@ -37078,7 +38583,9 @@
       <c r="N214" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O214" s="7"/>
+      <c r="O214" s="11" t="s">
+        <v>2503</v>
+      </c>
       <c r="P214" s="7"/>
     </row>
     <row r="215" spans="1:16">
@@ -37122,7 +38629,9 @@
       <c r="N215" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O215" s="7"/>
+      <c r="O215" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P215" s="7"/>
     </row>
     <row r="216" spans="1:16">
@@ -37168,7 +38677,9 @@
       <c r="N216" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O216" s="7"/>
+      <c r="O216" s="11" t="s">
+        <v>2504</v>
+      </c>
       <c r="P216" s="7"/>
     </row>
     <row r="217" spans="1:16">
@@ -37214,7 +38725,9 @@
       <c r="N217" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O217" s="7"/>
+      <c r="O217" s="11" t="s">
+        <v>2505</v>
+      </c>
       <c r="P217" s="7" t="s">
         <v>715</v>
       </c>
@@ -37262,7 +38775,9 @@
       <c r="N218" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O218" s="7"/>
+      <c r="O218" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P218" s="7" t="s">
         <v>720</v>
       </c>
@@ -37310,7 +38825,9 @@
       <c r="N219" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="O219" s="7"/>
+      <c r="O219" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P219" s="7"/>
     </row>
     <row r="220" spans="1:16">
@@ -37354,7 +38871,9 @@
       <c r="N220" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O220" s="7"/>
+      <c r="O220" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P220" s="7"/>
     </row>
     <row r="221" spans="1:16">
@@ -37398,7 +38917,9 @@
       <c r="N221" s="7" t="s">
         <v>2250</v>
       </c>
-      <c r="O221" s="7"/>
+      <c r="O221" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P221" s="7"/>
     </row>
     <row r="222" spans="1:16">
@@ -37444,7 +38965,9 @@
       <c r="N222" s="7" t="s">
         <v>2302</v>
       </c>
-      <c r="O222" s="7"/>
+      <c r="O222" s="32" t="s">
+        <v>2506</v>
+      </c>
       <c r="P222" s="7"/>
     </row>
     <row r="223" spans="1:16">
@@ -37490,7 +39013,9 @@
       <c r="N223" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O223" s="7"/>
+      <c r="O223" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P223" s="7"/>
     </row>
     <row r="224" spans="1:16">
@@ -37536,7 +39061,9 @@
       <c r="N224" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O224" s="7"/>
+      <c r="O224" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P224" s="7"/>
     </row>
     <row r="225" spans="1:16">
@@ -37580,7 +39107,9 @@
       <c r="N225" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O225" s="7"/>
+      <c r="O225" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P225" s="7" t="s">
         <v>788</v>
       </c>
@@ -37622,6 +39151,9 @@
       <c r="N226" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O226" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="227" spans="1:16">
       <c r="A227" s="8" t="s">
@@ -37664,7 +39196,9 @@
       <c r="N227" s="7" t="s">
         <v>2304</v>
       </c>
-      <c r="O227" s="7"/>
+      <c r="O227" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P227" s="7" t="s">
         <v>314</v>
       </c>
@@ -37708,7 +39242,9 @@
       <c r="N228" s="7" t="s">
         <v>2304</v>
       </c>
-      <c r="O228" s="7"/>
+      <c r="O228" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P228" s="7"/>
     </row>
     <row r="229" spans="1:16">
@@ -37754,7 +39290,9 @@
       <c r="N229" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O229" s="7"/>
+      <c r="O229" s="11" t="s">
+        <v>2507</v>
+      </c>
       <c r="P229" s="7"/>
     </row>
     <row r="230" spans="1:16">
@@ -37796,7 +39334,9 @@
       <c r="N230" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O230" s="7"/>
+      <c r="O230" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P230" s="7" t="s">
         <v>804</v>
       </c>
@@ -37844,7 +39384,9 @@
       <c r="N231" s="7" t="s">
         <v>1995</v>
       </c>
-      <c r="O231" s="7"/>
+      <c r="O231" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P231" s="7"/>
     </row>
     <row r="232" spans="1:16">
@@ -37890,7 +39432,9 @@
       <c r="N232" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O232" s="7"/>
+      <c r="O232" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P232" s="7"/>
     </row>
     <row r="233" spans="1:16">
@@ -37934,7 +39478,9 @@
       <c r="N233" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O233" s="7"/>
+      <c r="O233" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P233" s="7"/>
     </row>
     <row r="234" spans="1:16">
@@ -37980,7 +39526,9 @@
       <c r="N234" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O234" s="7"/>
+      <c r="O234" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P234" s="7"/>
     </row>
     <row r="235" spans="1:16">
@@ -38026,7 +39574,9 @@
       <c r="N235" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O235" s="7"/>
+      <c r="O235" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P235" s="7"/>
     </row>
     <row r="236" spans="1:16">
@@ -38072,7 +39622,9 @@
       <c r="N236" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O236" s="7"/>
+      <c r="O236" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P236" s="7"/>
     </row>
     <row r="237" spans="1:16">
@@ -38116,7 +39668,9 @@
       <c r="N237" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O237" s="7"/>
+      <c r="O237" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P237" s="7" t="s">
         <v>892</v>
       </c>
@@ -38164,7 +39718,9 @@
       <c r="N238" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O238" s="7"/>
+      <c r="O238" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P238" s="7"/>
     </row>
     <row r="239" spans="1:16">
@@ -38210,7 +39766,9 @@
       <c r="N239" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O239" s="7"/>
+      <c r="O239" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P239" s="7"/>
     </row>
     <row r="240" spans="1:16">
@@ -38256,7 +39814,9 @@
       <c r="N240" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O240" s="7"/>
+      <c r="O240" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P240" s="7"/>
     </row>
     <row r="241" spans="1:16">
@@ -38302,7 +39862,9 @@
       <c r="N241" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O241" s="7"/>
+      <c r="O241" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P241" s="7"/>
     </row>
     <row r="242" spans="1:16">
@@ -38346,7 +39908,9 @@
       <c r="N242" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O242" s="7"/>
+      <c r="O242" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P242" s="7"/>
     </row>
     <row r="243" spans="1:16">
@@ -38392,7 +39956,9 @@
       <c r="N243" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O243" s="7"/>
+      <c r="O243" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P243" s="7"/>
     </row>
     <row r="244" spans="1:16">
@@ -38436,7 +40002,9 @@
       <c r="N244" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O244" s="7"/>
+      <c r="O244" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P244" s="7" t="s">
         <v>823</v>
       </c>
@@ -38484,7 +40052,9 @@
       <c r="N245" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O245" s="7"/>
+      <c r="O245" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P245" s="7"/>
     </row>
     <row r="246" spans="1:16">
@@ -38530,7 +40100,9 @@
       <c r="N246" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O246" s="7"/>
+      <c r="O246" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P246" s="7" t="s">
         <v>833</v>
       </c>
@@ -38576,7 +40148,9 @@
       <c r="N247" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O247" s="7"/>
+      <c r="O247" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P247" s="7" t="s">
         <v>881</v>
       </c>
@@ -38622,7 +40196,9 @@
       <c r="N248" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O248" s="7"/>
+      <c r="O248" s="11" t="s">
+        <v>2508</v>
+      </c>
       <c r="P248" s="7"/>
     </row>
     <row r="249" spans="1:16">
@@ -38668,7 +40244,9 @@
       <c r="N249" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O249" s="7"/>
+      <c r="O249" s="11" t="s">
+        <v>2509</v>
+      </c>
       <c r="P249" s="7"/>
     </row>
     <row r="250" spans="1:16">
@@ -38714,7 +40292,9 @@
       <c r="N250" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O250" s="7"/>
+      <c r="O250" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P250" s="7"/>
     </row>
     <row r="251" spans="1:16">
@@ -38760,7 +40340,9 @@
       <c r="N251" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O251" s="7"/>
+      <c r="O251" s="32" t="s">
+        <v>2510</v>
+      </c>
       <c r="P251" s="7"/>
     </row>
     <row r="252" spans="1:16">
@@ -38806,7 +40388,9 @@
       <c r="N252" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O252" s="7"/>
+      <c r="O252" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P252" s="7" t="s">
         <v>839</v>
       </c>
@@ -38854,7 +40438,9 @@
       <c r="N253" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O253" s="7"/>
+      <c r="O253" s="11" t="s">
+        <v>2511</v>
+      </c>
       <c r="P253" s="7" t="s">
         <v>849</v>
       </c>
@@ -38902,7 +40488,9 @@
       <c r="N254" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O254" s="7"/>
+      <c r="O254" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P254" s="7"/>
     </row>
     <row r="255" spans="1:16">
@@ -38948,7 +40536,9 @@
       <c r="N255" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O255" s="7"/>
+      <c r="O255" s="11" t="s">
+        <v>2512</v>
+      </c>
       <c r="P255" s="7"/>
     </row>
     <row r="256" spans="1:16">
@@ -38992,7 +40582,9 @@
       <c r="N256" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O256" s="7"/>
+      <c r="O256" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P256" s="7" t="s">
         <v>933</v>
       </c>
@@ -39040,7 +40632,9 @@
       <c r="N257" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O257" s="7"/>
+      <c r="O257" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P257" s="7" t="s">
         <v>658</v>
       </c>
@@ -39088,7 +40682,9 @@
       <c r="N258" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O258" s="7"/>
+      <c r="O258" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P258" s="7"/>
     </row>
     <row r="259" spans="1:16">
@@ -39132,7 +40728,9 @@
       <c r="N259" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O259" s="7"/>
+      <c r="O259" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P259" s="7"/>
     </row>
     <row r="260" spans="1:16">
@@ -39178,7 +40776,9 @@
       <c r="N260" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O260" s="7"/>
+      <c r="O260" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P260" s="7" t="s">
         <v>957</v>
       </c>
@@ -39224,7 +40824,9 @@
       <c r="N261" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O261" s="7"/>
+      <c r="O261" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P261" s="7" t="s">
         <v>163</v>
       </c>
@@ -39272,7 +40874,9 @@
       <c r="N262" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O262" s="7"/>
+      <c r="O262" s="11" t="s">
+        <v>2513</v>
+      </c>
       <c r="P262" s="7"/>
     </row>
     <row r="263" spans="1:16">
@@ -39312,7 +40916,9 @@
         <v>63</v>
       </c>
       <c r="N263" s="7"/>
-      <c r="O263" s="7"/>
+      <c r="O263" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P263" s="7"/>
     </row>
     <row r="264" spans="1:16">
@@ -39358,7 +40964,9 @@
       <c r="N264" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O264" s="7"/>
+      <c r="O264" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P264" s="7"/>
     </row>
     <row r="265" spans="1:16">
@@ -39398,6 +41006,9 @@
       <c r="N265" t="s">
         <v>1997</v>
       </c>
+      <c r="O265" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="266" spans="1:16">
       <c r="A266" s="8" t="s">
@@ -39442,7 +41053,9 @@
       <c r="N266" s="7" t="s">
         <v>2313</v>
       </c>
-      <c r="O266" s="7"/>
+      <c r="O266" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P266" s="7"/>
     </row>
     <row r="267" spans="1:16">
@@ -39486,7 +41099,9 @@
       <c r="N267" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O267" s="7"/>
+      <c r="O267" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P267" s="7"/>
     </row>
     <row r="268" spans="1:16">
@@ -39532,7 +41147,9 @@
       <c r="N268" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O268" s="7"/>
+      <c r="O268" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P268" s="7"/>
     </row>
     <row r="269" spans="1:16">
@@ -39578,7 +41195,9 @@
       <c r="N269" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O269" s="7"/>
+      <c r="O269" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P269" s="7"/>
     </row>
     <row r="270" spans="1:16">
@@ -39624,7 +41243,9 @@
       <c r="N270" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O270" s="7"/>
+      <c r="O270" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P270" s="7"/>
     </row>
     <row r="271" spans="1:16">
@@ -39668,7 +41289,9 @@
       <c r="N271" s="7" t="s">
         <v>2314</v>
       </c>
-      <c r="O271" s="7"/>
+      <c r="O271" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P271" s="7" t="s">
         <v>881</v>
       </c>
@@ -39713,6 +41336,9 @@
       <c r="N272" t="s">
         <v>2000</v>
       </c>
+      <c r="O272" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P272" t="s">
         <v>1742</v>
       </c>
@@ -39760,7 +41386,9 @@
       <c r="N273" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O273" s="7"/>
+      <c r="O273" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P273" s="7"/>
     </row>
     <row r="274" spans="1:16">
@@ -39804,7 +41432,9 @@
       <c r="N274" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O274" s="7"/>
+      <c r="O274" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P274" s="7"/>
     </row>
     <row r="275" spans="1:16">
@@ -39848,7 +41478,9 @@
       <c r="N275" s="7" t="s">
         <v>2315</v>
       </c>
-      <c r="O275" s="7"/>
+      <c r="O275" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P275" s="7"/>
     </row>
     <row r="276" spans="1:16">
@@ -39892,7 +41524,9 @@
       <c r="N276" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O276" s="7"/>
+      <c r="O276" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P276" s="7"/>
     </row>
     <row r="277" spans="1:16">
@@ -39929,6 +41563,9 @@
       <c r="N277" t="s">
         <v>1997</v>
       </c>
+      <c r="O277" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="278" spans="1:16">
       <c r="A278" s="8" t="s">
@@ -39967,7 +41604,9 @@
         <v>63</v>
       </c>
       <c r="N278" s="7"/>
-      <c r="O278" s="7"/>
+      <c r="O278" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P278" s="7" t="s">
         <v>966</v>
       </c>
@@ -40013,7 +41652,9 @@
       <c r="N279" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O279" s="7"/>
+      <c r="O279" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P279" s="7"/>
     </row>
     <row r="280" spans="1:16">
@@ -40057,7 +41698,9 @@
       <c r="N280" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O280" s="7"/>
+      <c r="O280" s="11" t="s">
+        <v>2490</v>
+      </c>
       <c r="P280" s="7"/>
     </row>
     <row r="281" spans="1:16">
@@ -40101,7 +41744,9 @@
       <c r="N281" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O281" s="7"/>
+      <c r="O281" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P281" s="7"/>
     </row>
     <row r="282" spans="1:16">
@@ -40145,7 +41790,9 @@
       <c r="N282" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O282" s="7"/>
+      <c r="O282" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P282" s="7"/>
     </row>
     <row r="283" spans="1:16">
@@ -40189,7 +41836,9 @@
       <c r="N283" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O283" s="7"/>
+      <c r="O283" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P283" s="7"/>
     </row>
     <row r="284" spans="1:16">
@@ -40231,7 +41880,9 @@
         <v>63</v>
       </c>
       <c r="N284" s="7"/>
-      <c r="O284" s="7"/>
+      <c r="O284" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P284" s="7"/>
     </row>
     <row r="285" spans="1:16">
@@ -40275,7 +41926,9 @@
       <c r="N285" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O285" s="7"/>
+      <c r="O285" s="11" t="s">
+        <v>2514</v>
+      </c>
       <c r="P285" s="7"/>
     </row>
     <row r="286" spans="1:16">
@@ -40319,7 +41972,9 @@
       <c r="N286" s="7" t="s">
         <v>2314</v>
       </c>
-      <c r="O286" s="7"/>
+      <c r="O286" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P286" s="7"/>
     </row>
     <row r="287" spans="1:16">
@@ -40359,6 +42014,9 @@
       <c r="N287" t="s">
         <v>1997</v>
       </c>
+      <c r="O287" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P287" t="s">
         <v>1748</v>
       </c>
@@ -40404,7 +42062,9 @@
       <c r="N288" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O288" s="7"/>
+      <c r="O288" s="11" t="s">
+        <v>2515</v>
+      </c>
       <c r="P288" s="7"/>
     </row>
     <row r="289" spans="1:16">
@@ -40448,7 +42108,9 @@
       <c r="N289" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O289" s="7"/>
+      <c r="O289" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P289" s="7"/>
     </row>
     <row r="290" spans="1:16">
@@ -40492,7 +42154,9 @@
       <c r="N290" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O290" s="7"/>
+      <c r="O290" s="11" t="s">
+        <v>2516</v>
+      </c>
       <c r="P290" s="7"/>
     </row>
     <row r="291" spans="1:16">
@@ -40538,7 +42202,9 @@
       <c r="N291" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O291" s="7"/>
+      <c r="O291" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P291" s="7"/>
     </row>
     <row r="292" spans="1:16">
@@ -40581,6 +42247,9 @@
       <c r="N292" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O292" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="293" spans="1:16">
       <c r="A293" s="8" t="s">
@@ -40621,7 +42290,9 @@
       <c r="N293" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O293" s="7"/>
+      <c r="O293" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P293" s="7"/>
     </row>
     <row r="294" spans="1:16">
@@ -40667,7 +42338,9 @@
       <c r="N294" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O294" s="7"/>
+      <c r="O294" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P294" s="7"/>
     </row>
     <row r="295" spans="1:16">
@@ -40713,7 +42386,9 @@
       <c r="N295" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O295" s="7"/>
+      <c r="O295" s="6" t="s">
+        <v>2462</v>
+      </c>
       <c r="P295" s="7"/>
     </row>
     <row r="296" spans="1:16">
@@ -40756,6 +42431,9 @@
       <c r="N296" t="s">
         <v>1997</v>
       </c>
+      <c r="O296" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P296" t="s">
         <v>1113</v>
       </c>
@@ -40803,7 +42481,9 @@
       <c r="N297" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O297" s="7"/>
+      <c r="O297" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P297" s="7" t="s">
         <v>1072</v>
       </c>
@@ -40849,7 +42529,9 @@
       <c r="N298" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O298" s="7"/>
+      <c r="O298" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P298" s="7"/>
     </row>
     <row r="299" spans="1:16">
@@ -40893,7 +42575,9 @@
       <c r="N299" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O299" s="7"/>
+      <c r="O299" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P299" s="7"/>
     </row>
     <row r="300" spans="1:16">
@@ -40939,7 +42623,9 @@
       <c r="N300" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O300" s="7"/>
+      <c r="O300" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P300" s="7"/>
     </row>
     <row r="301" spans="1:16">
@@ -40983,7 +42669,9 @@
       <c r="N301" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O301" s="7"/>
+      <c r="O301" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P301" s="7"/>
     </row>
     <row r="302" spans="1:16">
@@ -41023,6 +42711,9 @@
       <c r="M302" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="O302" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="303" spans="1:16">
       <c r="A303" s="8" t="s">
@@ -41067,7 +42758,9 @@
       <c r="N303" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O303" s="7"/>
+      <c r="O303" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P303" s="7" t="s">
         <v>1094</v>
       </c>
@@ -41113,7 +42806,9 @@
       <c r="N304" s="7" t="s">
         <v>2316</v>
       </c>
-      <c r="O304" s="7"/>
+      <c r="O304" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P304" s="7"/>
     </row>
     <row r="305" spans="1:16">
@@ -41159,7 +42854,9 @@
       <c r="N305" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O305" s="7"/>
+      <c r="O305" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P305" s="7"/>
     </row>
     <row r="306" spans="1:16">
@@ -41205,7 +42902,9 @@
       <c r="N306" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O306" s="7"/>
+      <c r="O306" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P306" s="7"/>
     </row>
     <row r="307" spans="1:16">
@@ -41248,6 +42947,9 @@
       <c r="N307" s="7" t="s">
         <v>2316</v>
       </c>
+      <c r="O307" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="308" spans="1:16">
       <c r="A308" s="8" t="s">
@@ -41292,7 +42994,9 @@
       <c r="N308" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O308" s="7"/>
+      <c r="O308" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P308" s="7"/>
     </row>
     <row r="309" spans="1:16">
@@ -41338,7 +43042,9 @@
       <c r="N309" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O309" s="7"/>
+      <c r="O309" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P309" s="7"/>
     </row>
     <row r="310" spans="1:16">
@@ -41384,7 +43090,9 @@
       <c r="N310" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O310" s="7"/>
+      <c r="O310" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P310" s="7"/>
     </row>
     <row r="311" spans="1:16">
@@ -41430,7 +43138,9 @@
       <c r="N311" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O311" s="7"/>
+      <c r="O311" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P311" s="7"/>
     </row>
     <row r="312" spans="1:16">
@@ -41476,7 +43186,9 @@
       <c r="N312" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O312" s="7"/>
+      <c r="O312" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P312" s="7" t="s">
         <v>1137</v>
       </c>
@@ -41524,7 +43236,9 @@
       <c r="N313" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O313" s="7"/>
+      <c r="O313" s="11" t="s">
+        <v>2517</v>
+      </c>
       <c r="P313" s="7"/>
     </row>
     <row r="314" spans="1:16">
@@ -41564,6 +43278,9 @@
       <c r="N314" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O314" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="315" spans="1:16">
       <c r="A315" s="17" t="s">
@@ -41602,6 +43319,9 @@
       <c r="N315" s="7" t="s">
         <v>2316</v>
       </c>
+      <c r="O315" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="316" spans="1:16">
       <c r="A316" s="8" t="s">
@@ -41644,7 +43364,9 @@
       <c r="N316" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O316" s="7"/>
+      <c r="O316" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P316" s="7"/>
     </row>
     <row r="317" spans="1:16">
@@ -41687,6 +43409,9 @@
       <c r="N317" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O317" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="318" spans="1:16">
       <c r="A318" s="8" t="s">
@@ -41731,7 +43456,9 @@
       <c r="N318" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O318" s="7"/>
+      <c r="O318" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P318" s="7" t="s">
         <v>715</v>
       </c>
@@ -41779,7 +43506,9 @@
       <c r="N319" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O319" s="7"/>
+      <c r="O319" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P319" s="7"/>
     </row>
     <row r="320" spans="1:16">
@@ -41825,7 +43554,9 @@
       <c r="N320" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O320" s="7"/>
+      <c r="O320" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P320" s="7"/>
     </row>
     <row r="321" spans="1:16">
@@ -41871,7 +43602,9 @@
       <c r="N321" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O321" s="7"/>
+      <c r="O321" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P321" s="7" t="s">
         <v>1099</v>
       </c>
@@ -41917,7 +43650,9 @@
       <c r="N322" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O322" s="7"/>
+      <c r="O322" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P322" s="7"/>
     </row>
     <row r="323" spans="1:16">
@@ -41963,7 +43698,9 @@
       <c r="N323" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O323" s="7"/>
+      <c r="O323" s="11" t="s">
+        <v>2518</v>
+      </c>
       <c r="P323" s="7"/>
     </row>
     <row r="324" spans="1:16">
@@ -42009,7 +43746,9 @@
       <c r="N324" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O324" s="7"/>
+      <c r="O324" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P324" s="7" t="s">
         <v>1145</v>
       </c>
@@ -42057,7 +43796,9 @@
       <c r="N325" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O325" s="7"/>
+      <c r="O325" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P325" s="7"/>
     </row>
     <row r="326" spans="1:16">
@@ -42103,7 +43844,9 @@
       <c r="N326" s="7" t="s">
         <v>2316</v>
       </c>
-      <c r="O326" s="7"/>
+      <c r="O326" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P326" s="7"/>
     </row>
     <row r="327" spans="1:16">
@@ -42147,7 +43890,9 @@
       <c r="N327" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O327" s="7"/>
+      <c r="O327" s="11" t="s">
+        <v>2519</v>
+      </c>
       <c r="P327" s="7"/>
     </row>
     <row r="328" spans="1:16">
@@ -42193,7 +43938,9 @@
       <c r="N328" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O328" s="7"/>
+      <c r="O328" s="11" t="s">
+        <v>2520</v>
+      </c>
       <c r="P328" s="7"/>
     </row>
     <row r="329" spans="1:16">
@@ -42236,6 +43983,9 @@
       <c r="N329" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O329" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="330" spans="1:16">
       <c r="A330" s="8" t="s">
@@ -42280,7 +44030,9 @@
       <c r="N330" s="7" t="s">
         <v>2316</v>
       </c>
-      <c r="O330" s="7"/>
+      <c r="O330" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P330" s="7"/>
     </row>
     <row r="331" spans="1:16">
@@ -42326,7 +44078,9 @@
       <c r="N331" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O331" s="7"/>
+      <c r="O331" s="11" t="s">
+        <v>2521</v>
+      </c>
       <c r="P331" s="7" t="s">
         <v>1113</v>
       </c>
@@ -42374,7 +44128,9 @@
       <c r="N332" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O332" s="7"/>
+      <c r="O332" s="11" t="s">
+        <v>2522</v>
+      </c>
       <c r="P332" s="7"/>
     </row>
     <row r="333" spans="1:16">
@@ -42418,7 +44174,9 @@
       <c r="N333" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O333" s="7"/>
+      <c r="O333" s="11" t="s">
+        <v>2523</v>
+      </c>
       <c r="P333" s="7" t="s">
         <v>163</v>
       </c>
@@ -42466,7 +44224,9 @@
       <c r="N334" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O334" s="7"/>
+      <c r="O334" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P334" s="7"/>
     </row>
     <row r="335" spans="1:16">
@@ -42512,7 +44272,9 @@
       <c r="N335" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O335" s="7"/>
+      <c r="O335" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P335" s="7"/>
     </row>
     <row r="336" spans="1:16">
@@ -42556,7 +44318,9 @@
       <c r="N336" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O336" s="7"/>
+      <c r="O336" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P336" s="7" t="s">
         <v>1229</v>
       </c>
@@ -42604,7 +44368,9 @@
       <c r="N337" s="7" t="s">
         <v>2323</v>
       </c>
-      <c r="O337" s="7"/>
+      <c r="O337" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P337" s="7"/>
     </row>
     <row r="338" spans="1:16">
@@ -42648,7 +44414,9 @@
       <c r="N338" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O338" s="7"/>
+      <c r="O338" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P338" s="7"/>
     </row>
     <row r="339" spans="1:16">
@@ -42694,7 +44462,9 @@
       <c r="N339" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O339" s="7"/>
+      <c r="O339" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P339" s="7"/>
     </row>
     <row r="340" spans="1:16">
@@ -42738,7 +44508,9 @@
       <c r="N340" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O340" s="7"/>
+      <c r="O340" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P340" s="7" t="s">
         <v>881</v>
       </c>
@@ -42784,7 +44556,9 @@
       <c r="N341" s="7" t="s">
         <v>2316</v>
       </c>
-      <c r="O341" s="7"/>
+      <c r="O341" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P341" s="7" t="s">
         <v>1195</v>
       </c>
@@ -42830,7 +44604,9 @@
       <c r="N342" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O342" s="7"/>
+      <c r="O342" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P342" s="7"/>
     </row>
     <row r="343" spans="1:16">
@@ -42876,7 +44652,9 @@
       <c r="N343" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O343" s="7"/>
+      <c r="O343" s="11" t="s">
+        <v>2524</v>
+      </c>
       <c r="P343" s="7"/>
     </row>
     <row r="344" spans="1:16">
@@ -42920,7 +44698,9 @@
       <c r="N344" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O344" s="7"/>
+      <c r="O344" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P344" s="7" t="s">
         <v>2325</v>
       </c>
@@ -42968,7 +44748,9 @@
       <c r="N345" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O345" s="7"/>
+      <c r="O345" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P345" s="7"/>
     </row>
     <row r="346" spans="1:16">
@@ -43012,7 +44794,9 @@
       <c r="N346" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O346" s="7"/>
+      <c r="O346" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P346" s="7" t="s">
         <v>2326</v>
       </c>
@@ -43060,7 +44844,9 @@
       <c r="N347" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O347" s="7"/>
+      <c r="O347" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P347" s="7"/>
     </row>
     <row r="348" spans="1:16">
@@ -43106,7 +44892,9 @@
       <c r="N348" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O348" s="7"/>
+      <c r="O348" s="32" t="s">
+        <v>2525</v>
+      </c>
       <c r="P348" s="7"/>
     </row>
     <row r="349" spans="1:16">
@@ -43152,7 +44940,9 @@
       <c r="N349" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O349" s="7"/>
+      <c r="O349" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P349" s="7" t="s">
         <v>1217</v>
       </c>
@@ -43200,7 +44990,9 @@
       <c r="N350" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O350" s="7"/>
+      <c r="O350" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P350" s="7"/>
     </row>
     <row r="351" spans="1:16">
@@ -43246,7 +45038,9 @@
       <c r="N351" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O351" s="7"/>
+      <c r="O351" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P351" s="7"/>
     </row>
     <row r="352" spans="1:16">
@@ -43288,7 +45082,9 @@
       <c r="N352" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O352" s="7"/>
+      <c r="O352" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P352" s="7" t="s">
         <v>1226</v>
       </c>
@@ -43336,7 +45132,9 @@
       <c r="N353" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O353" s="7"/>
+      <c r="O353" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P353" s="7"/>
     </row>
     <row r="354" spans="1:16">
@@ -43380,7 +45178,9 @@
       <c r="N354" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O354" s="7"/>
+      <c r="O354" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P354" s="7" t="s">
         <v>1247</v>
       </c>
@@ -43426,7 +45226,9 @@
       <c r="N355" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O355" s="7"/>
+      <c r="O355" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P355" s="7"/>
     </row>
     <row r="356" spans="1:16">
@@ -43472,7 +45274,9 @@
       <c r="N356" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O356" s="7"/>
+      <c r="O356" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P356" s="7" t="s">
         <v>2333</v>
       </c>
@@ -43520,7 +45324,9 @@
       <c r="N357" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O357" s="7"/>
+      <c r="O357" s="32" t="s">
+        <v>2526</v>
+      </c>
       <c r="P357" s="7" t="s">
         <v>1179</v>
       </c>
@@ -43568,7 +45374,9 @@
       <c r="N358" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O358" s="7"/>
+      <c r="O358" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P358" s="7"/>
     </row>
     <row r="359" spans="1:16">
@@ -43608,6 +45416,9 @@
       <c r="N359" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O359" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="360" spans="1:16">
       <c r="A360" s="8" t="s">
@@ -43648,7 +45459,9 @@
       <c r="N360" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="O360" s="7"/>
+      <c r="O360" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P360" s="7"/>
     </row>
     <row r="361" spans="1:16">
@@ -43692,7 +45505,9 @@
       <c r="N361" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O361" s="7"/>
+      <c r="O361" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P361" s="7" t="s">
         <v>1272</v>
       </c>
@@ -43740,7 +45555,9 @@
       <c r="N362" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O362" s="7"/>
+      <c r="O362" s="11" t="s">
+        <v>2527</v>
+      </c>
       <c r="P362" s="7"/>
     </row>
     <row r="363" spans="1:16">
@@ -43786,7 +45603,9 @@
       <c r="N363" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O363" s="7"/>
+      <c r="O363" s="11" t="s">
+        <v>2528</v>
+      </c>
       <c r="P363" s="7"/>
     </row>
     <row r="364" spans="1:16">
@@ -43828,7 +45647,9 @@
       <c r="N364" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O364" s="7"/>
+      <c r="O364" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P364" s="7" t="s">
         <v>294</v>
       </c>
@@ -43874,7 +45695,9 @@
       <c r="N365" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O365" s="7"/>
+      <c r="O365" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P365" s="7"/>
     </row>
     <row r="366" spans="1:16">
@@ -43916,7 +45739,9 @@
       <c r="N366" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O366" s="7"/>
+      <c r="O366" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P366" s="7"/>
     </row>
     <row r="367" spans="1:16">
@@ -43960,7 +45785,9 @@
       <c r="N367" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O367" s="7"/>
+      <c r="O367" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P367" s="7" t="s">
         <v>1313</v>
       </c>
@@ -44008,7 +45835,9 @@
       <c r="N368" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O368" s="7"/>
+      <c r="O368" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P368" s="7"/>
     </row>
     <row r="369" spans="1:16">
@@ -44052,7 +45881,9 @@
       <c r="N369" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O369" s="7"/>
+      <c r="O369" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P369" s="7"/>
     </row>
     <row r="370" spans="1:16">
@@ -44098,7 +45929,9 @@
       <c r="N370" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O370" s="7"/>
+      <c r="O370" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P370" s="7"/>
     </row>
     <row r="371" spans="1:16">
@@ -44142,7 +45975,9 @@
       <c r="N371" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O371" s="7"/>
+      <c r="O371" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P371" s="7" t="s">
         <v>1330</v>
       </c>
@@ -44190,7 +46025,9 @@
       <c r="N372" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O372" s="7"/>
+      <c r="O372" s="32" t="s">
+        <v>2529</v>
+      </c>
       <c r="P372" s="7" t="s">
         <v>1954</v>
       </c>
@@ -44236,7 +46073,9 @@
       <c r="N373" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O373" s="7"/>
+      <c r="O373" s="11" t="s">
+        <v>2530</v>
+      </c>
       <c r="P373" s="7"/>
     </row>
     <row r="374" spans="1:16">
@@ -44280,7 +46119,9 @@
       <c r="N374" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O374" s="7"/>
+      <c r="O374" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P374" s="7" t="s">
         <v>546</v>
       </c>
@@ -44326,7 +46167,9 @@
       <c r="N375" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O375" s="7"/>
+      <c r="O375" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P375" s="7"/>
     </row>
     <row r="376" spans="1:16">
@@ -44372,7 +46215,9 @@
       <c r="N376" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O376" s="7"/>
+      <c r="O376" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P376" s="7"/>
     </row>
     <row r="377" spans="1:16">
@@ -44418,7 +46263,9 @@
       <c r="N377" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O377" s="7"/>
+      <c r="O377" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P377" s="7"/>
     </row>
     <row r="378" spans="1:16">
@@ -44464,7 +46311,9 @@
       <c r="N378" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O378" s="7"/>
+      <c r="O378" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P378" s="7"/>
     </row>
     <row r="379" spans="1:16">
@@ -44510,7 +46359,9 @@
       <c r="N379" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O379" s="7"/>
+      <c r="O379" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P379" s="7" t="s">
         <v>1372</v>
       </c>
@@ -44554,7 +46405,9 @@
       <c r="N380" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O380" s="7"/>
+      <c r="O380" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P380" s="7" t="s">
         <v>294</v>
       </c>
@@ -44602,7 +46455,9 @@
       <c r="N381" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O381" s="7"/>
+      <c r="O381" s="32" t="s">
+        <v>2531</v>
+      </c>
       <c r="P381" s="7"/>
     </row>
     <row r="382" spans="1:16">
@@ -44648,7 +46503,9 @@
       <c r="N382" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O382" s="7"/>
+      <c r="O382" s="11" t="s">
+        <v>2532</v>
+      </c>
       <c r="P382" s="7"/>
     </row>
     <row r="383" spans="1:16">
@@ -44692,7 +46549,9 @@
       <c r="N383" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O383" s="7"/>
+      <c r="O383" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P383" s="7" t="s">
         <v>1975</v>
       </c>
@@ -44736,7 +46595,9 @@
       <c r="N384" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O384" s="7"/>
+      <c r="O384" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P384" s="7"/>
     </row>
     <row r="385" spans="1:16">
@@ -44780,7 +46641,9 @@
       <c r="N385" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O385" s="7"/>
+      <c r="O385" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P385" s="7" t="s">
         <v>1388</v>
       </c>
@@ -44828,7 +46691,9 @@
       <c r="N386" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O386" s="7"/>
+      <c r="O386" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P386" s="7"/>
     </row>
     <row r="387" spans="1:16">
@@ -44872,7 +46737,9 @@
       <c r="N387" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O387" s="7"/>
+      <c r="O387" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P387" s="7"/>
     </row>
     <row r="388" spans="1:16">
@@ -44918,7 +46785,9 @@
       <c r="N388" s="7" t="s">
         <v>2355</v>
       </c>
-      <c r="O388" s="7"/>
+      <c r="O388" s="32" t="s">
+        <v>2533</v>
+      </c>
       <c r="P388" s="7" t="s">
         <v>1401</v>
       </c>
@@ -44966,7 +46835,9 @@
       <c r="N389" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O389" s="7"/>
+      <c r="O389" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P389" s="7" t="s">
         <v>1406</v>
       </c>
@@ -45014,7 +46885,9 @@
       <c r="N390" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O390" s="7"/>
+      <c r="O390" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P390" s="7"/>
     </row>
     <row r="391" spans="1:16">
@@ -45060,7 +46933,9 @@
       <c r="N391" s="7" t="s">
         <v>2356</v>
       </c>
-      <c r="O391" s="7"/>
+      <c r="O391" s="11" t="s">
+        <v>2534</v>
+      </c>
       <c r="P391" s="7"/>
     </row>
     <row r="392" spans="1:16">
@@ -45106,7 +46981,9 @@
       <c r="N392" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="O392" s="7"/>
+      <c r="O392" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P392" s="7" t="s">
         <v>1421</v>
       </c>
@@ -45154,7 +47031,9 @@
       <c r="N393" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O393" s="7"/>
+      <c r="O393" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P393" s="7" t="s">
         <v>1428</v>
       </c>
@@ -45202,7 +47081,9 @@
       <c r="N394" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O394" s="7"/>
+      <c r="O394" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P394" s="7"/>
     </row>
     <row r="395" spans="1:16">
@@ -45246,7 +47127,9 @@
       <c r="N395" s="7" t="s">
         <v>2355</v>
       </c>
-      <c r="O395" s="7"/>
+      <c r="O395" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P395" s="7"/>
     </row>
     <row r="396" spans="1:16">
@@ -45292,7 +47175,9 @@
       <c r="N396" s="7" t="s">
         <v>2355</v>
       </c>
-      <c r="O396" s="7"/>
+      <c r="O396" s="11" t="s">
+        <v>2535</v>
+      </c>
       <c r="P396" s="7"/>
     </row>
     <row r="397" spans="1:16">
@@ -45338,7 +47223,9 @@
       <c r="N397" s="7" t="s">
         <v>2359</v>
       </c>
-      <c r="O397" s="7"/>
+      <c r="O397" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P397" s="7" t="s">
         <v>1421</v>
       </c>
@@ -45384,7 +47271,9 @@
       <c r="N398" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O398" s="7"/>
+      <c r="O398" s="11" t="s">
+        <v>2536</v>
+      </c>
       <c r="P398" s="7" t="s">
         <v>1441</v>
       </c>
@@ -45432,7 +47321,9 @@
       <c r="N399" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="O399" s="7"/>
+      <c r="O399" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P399" s="7" t="s">
         <v>2015</v>
       </c>
@@ -45480,7 +47371,9 @@
       <c r="N400" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O400" s="7"/>
+      <c r="O400" s="11" t="s">
+        <v>2537</v>
+      </c>
       <c r="P400" s="7"/>
     </row>
     <row r="401" spans="1:16">
@@ -45526,7 +47419,9 @@
       <c r="N401" s="7" t="s">
         <v>2355</v>
       </c>
-      <c r="O401" s="7"/>
+      <c r="O401" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P401" s="7"/>
     </row>
     <row r="402" spans="1:16">
@@ -45572,7 +47467,9 @@
       <c r="N402" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="O402" s="7"/>
+      <c r="O402" s="11" t="s">
+        <v>2469</v>
+      </c>
       <c r="P402" s="7"/>
     </row>
     <row r="403" spans="1:16">
@@ -45618,7 +47515,9 @@
       <c r="N403" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="O403" s="7"/>
+      <c r="O403" s="32" t="s">
+        <v>2538</v>
+      </c>
       <c r="P403" s="7" t="s">
         <v>1455</v>
       </c>
@@ -45666,7 +47565,9 @@
       <c r="N404" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O404" s="7"/>
+      <c r="O404" s="32" t="s">
+        <v>2539</v>
+      </c>
       <c r="P404" s="7"/>
     </row>
     <row r="405" spans="1:16">
@@ -45712,7 +47613,9 @@
       <c r="N405" s="7" t="s">
         <v>2355</v>
       </c>
-      <c r="O405" s="7"/>
+      <c r="O405" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P405" s="7" t="s">
         <v>1461</v>
       </c>
@@ -45756,7 +47659,9 @@
       <c r="N406" s="7" t="s">
         <v>2275</v>
       </c>
-      <c r="O406" s="7"/>
+      <c r="O406" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P406" s="7"/>
     </row>
     <row r="407" spans="1:16">
@@ -45802,7 +47707,9 @@
       <c r="N407" s="7" t="s">
         <v>2032</v>
       </c>
-      <c r="O407" s="7"/>
+      <c r="O407" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P407" s="7"/>
     </row>
     <row r="408" spans="1:16">
@@ -45844,7 +47751,9 @@
       <c r="N408" s="7" t="s">
         <v>2252</v>
       </c>
-      <c r="O408" s="7"/>
+      <c r="O408" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P408" s="7" t="s">
         <v>1789</v>
       </c>
@@ -45886,6 +47795,9 @@
       <c r="N409" s="7" t="s">
         <v>2283</v>
       </c>
+      <c r="O409" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P409" t="s">
         <v>1786</v>
       </c>
@@ -45933,7 +47845,9 @@
       <c r="N410" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="O410" s="7"/>
+      <c r="O410" s="11" t="s">
+        <v>2540</v>
+      </c>
       <c r="P410" s="7" t="s">
         <v>430</v>
       </c>
@@ -45981,7 +47895,9 @@
       <c r="N411" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O411" s="7"/>
+      <c r="O411" s="32" t="s">
+        <v>2541</v>
+      </c>
       <c r="P411" s="7"/>
     </row>
     <row r="412" spans="1:16">
@@ -46027,7 +47943,9 @@
       <c r="N412" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O412" s="7"/>
+      <c r="O412" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P412" s="7" t="s">
         <v>1479</v>
       </c>
@@ -46072,6 +47990,9 @@
       <c r="N413" s="7" t="s">
         <v>2295</v>
       </c>
+      <c r="O413" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="414" spans="1:16">
       <c r="A414" s="17" t="s">
@@ -46113,6 +48034,9 @@
       <c r="N414" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O414" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="415" spans="1:16">
       <c r="A415" s="8" t="s">
@@ -46157,7 +48081,9 @@
       <c r="N415" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O415" s="7"/>
+      <c r="O415" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P415" s="7"/>
     </row>
     <row r="416" spans="1:16">
@@ -46203,7 +48129,9 @@
       <c r="N416" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O416" s="7"/>
+      <c r="O416" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P416" s="7"/>
     </row>
     <row r="417" spans="1:16">
@@ -46249,7 +48177,9 @@
       <c r="N417" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O417" s="7"/>
+      <c r="O417" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P417" s="7"/>
     </row>
     <row r="418" spans="1:16">
@@ -46295,7 +48225,9 @@
       <c r="N418" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O418" s="7"/>
+      <c r="O418" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P418" s="7" t="s">
         <v>1486</v>
       </c>
@@ -46343,7 +48275,9 @@
       <c r="N419" s="7" t="s">
         <v>2295</v>
       </c>
-      <c r="O419" s="7"/>
+      <c r="O419" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P419" s="7"/>
     </row>
     <row r="420" spans="1:16">
@@ -46383,6 +48317,9 @@
       <c r="N420" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O420" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P420" t="s">
         <v>1807</v>
       </c>
@@ -46430,7 +48367,9 @@
       <c r="N421" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O421" s="7"/>
+      <c r="O421" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P421" s="7" t="s">
         <v>1494</v>
       </c>
@@ -46476,7 +48415,9 @@
       <c r="N422" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O422" s="7"/>
+      <c r="O422" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P422" s="7"/>
     </row>
     <row r="423" spans="1:16">
@@ -46520,7 +48461,9 @@
       <c r="N423" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O423" s="7"/>
+      <c r="O423" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P423" s="7"/>
     </row>
     <row r="424" spans="1:16">
@@ -46564,7 +48507,9 @@
       <c r="N424" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O424" s="7"/>
+      <c r="O424" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P424" s="7" t="s">
         <v>1621</v>
       </c>
@@ -46608,7 +48553,9 @@
       <c r="N425" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O425" s="7"/>
+      <c r="O425" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P425" s="7"/>
     </row>
     <row r="426" spans="1:16">
@@ -46652,7 +48599,9 @@
       <c r="N426" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O426" s="7"/>
+      <c r="O426" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P426" s="7"/>
     </row>
     <row r="427" spans="1:16">
@@ -46698,7 +48647,9 @@
       <c r="N427" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O427" s="7"/>
+      <c r="O427" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P427" s="7"/>
     </row>
     <row r="428" spans="1:16">
@@ -46742,7 +48693,9 @@
       <c r="N428" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O428" s="7"/>
+      <c r="O428" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P428" s="7" t="s">
         <v>1500</v>
       </c>
@@ -46790,6 +48743,9 @@
       <c r="N429" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O429" s="32" t="s">
+        <v>2542</v>
+      </c>
       <c r="P429" s="7" t="s">
         <v>2367</v>
       </c>
@@ -46835,7 +48791,9 @@
       <c r="N430" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O430" s="7"/>
+      <c r="O430" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P430" s="7"/>
     </row>
     <row r="431" spans="1:16">
@@ -46881,7 +48839,9 @@
       <c r="N431" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O431" s="7"/>
+      <c r="O431" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P431" s="7"/>
     </row>
     <row r="432" spans="1:16">
@@ -46927,7 +48887,9 @@
       <c r="N432" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O432" s="7"/>
+      <c r="O432" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P432" s="7"/>
     </row>
     <row r="433" spans="1:16">
@@ -46973,7 +48935,9 @@
       <c r="N433" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O433" s="7"/>
+      <c r="O433" s="32" t="s">
+        <v>2490</v>
+      </c>
       <c r="P433" s="7"/>
     </row>
     <row r="434" spans="1:16">
@@ -47019,7 +48983,9 @@
       <c r="N434" s="7" t="s">
         <v>2273</v>
       </c>
-      <c r="O434" s="7"/>
+      <c r="O434" s="11" t="s">
+        <v>2543</v>
+      </c>
       <c r="P434" s="7" t="s">
         <v>1536</v>
       </c>
@@ -47067,6 +49033,9 @@
       <c r="N435" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O435" s="11" t="s">
+        <v>2470</v>
+      </c>
     </row>
     <row r="436" spans="1:16">
       <c r="A436" s="8" t="s">
@@ -47111,6 +49080,9 @@
       <c r="N436" s="7" t="s">
         <v>2295</v>
       </c>
+      <c r="O436" s="11" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="437" spans="1:16">
       <c r="A437" s="8" t="s">
@@ -47153,7 +49125,9 @@
       <c r="N437" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O437" s="7"/>
+      <c r="O437" s="11" t="s">
+        <v>2545</v>
+      </c>
       <c r="P437" s="7" t="s">
         <v>546</v>
       </c>
@@ -47201,7 +49175,9 @@
       <c r="N438" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O438" s="7"/>
+      <c r="O438" s="11" t="s">
+        <v>2546</v>
+      </c>
       <c r="P438" s="7" t="s">
         <v>1510</v>
       </c>
@@ -47249,7 +49225,9 @@
       <c r="N439" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O439" s="7"/>
+      <c r="O439" s="11" t="s">
+        <v>2547</v>
+      </c>
       <c r="P439" s="7" t="s">
         <v>1513</v>
       </c>
@@ -47297,7 +49275,9 @@
       <c r="N440" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O440" s="7"/>
+      <c r="O440" s="34" t="s">
+        <v>2548</v>
+      </c>
       <c r="P440" s="7" t="s">
         <v>1516</v>
       </c>
@@ -47345,7 +49325,9 @@
       <c r="N441" s="7" t="s">
         <v>2295</v>
       </c>
-      <c r="O441" s="7"/>
+      <c r="O441" s="32" t="s">
+        <v>2549</v>
+      </c>
       <c r="P441" s="7"/>
     </row>
     <row r="442" spans="1:16">
@@ -47387,7 +49369,9 @@
       <c r="N442" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O442" s="7"/>
+      <c r="O442" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P442" s="7"/>
     </row>
     <row r="443" spans="1:16">
@@ -47431,7 +49415,9 @@
       <c r="N443" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O443" s="7"/>
+      <c r="O443" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P443" s="7" t="s">
         <v>546</v>
       </c>
@@ -47477,7 +49463,9 @@
       <c r="N444" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O444" s="7"/>
+      <c r="O444" s="32" t="s">
+        <v>2550</v>
+      </c>
       <c r="P444" s="7"/>
     </row>
     <row r="445" spans="1:16">
@@ -47521,7 +49509,9 @@
       <c r="N445" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O445" s="7"/>
+      <c r="O445" s="11" t="s">
+        <v>2551</v>
+      </c>
       <c r="P445" s="7" t="s">
         <v>546</v>
       </c>
@@ -47569,7 +49559,9 @@
       <c r="N446" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O446" s="7"/>
+      <c r="O446" s="11" t="s">
+        <v>2552</v>
+      </c>
       <c r="P446" s="7"/>
     </row>
     <row r="447" spans="1:16">
@@ -47615,7 +49607,9 @@
       <c r="N447" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O447" s="7"/>
+      <c r="O447" s="11" t="s">
+        <v>2553</v>
+      </c>
       <c r="P447" s="7"/>
     </row>
     <row r="448" spans="1:16">
@@ -47661,7 +49655,9 @@
       <c r="N448" s="7" t="s">
         <v>2295</v>
       </c>
-      <c r="O448" s="7"/>
+      <c r="O448" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P448" s="7"/>
     </row>
     <row r="449" spans="1:16">
@@ -47705,7 +49701,9 @@
       <c r="N449" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O449" s="7"/>
+      <c r="O449" s="32" t="s">
+        <v>2554</v>
+      </c>
       <c r="P449" s="7"/>
     </row>
     <row r="450" spans="1:16">
@@ -47751,7 +49749,9 @@
       <c r="N450" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O450" s="7"/>
+      <c r="O450" s="11" t="s">
+        <v>2555</v>
+      </c>
       <c r="P450" s="7" t="s">
         <v>1627</v>
       </c>
@@ -47799,7 +49799,9 @@
       <c r="N451" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O451" s="7"/>
+      <c r="O451" s="11" t="s">
+        <v>2556</v>
+      </c>
       <c r="P451" s="7"/>
     </row>
     <row r="452" spans="1:16">
@@ -47842,6 +49844,9 @@
       <c r="N452" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O452" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453" s="8" t="s">
@@ -47886,7 +49891,9 @@
       <c r="N453" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O453" s="7"/>
+      <c r="O453" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P453" s="7" t="s">
         <v>715</v>
       </c>
@@ -47934,7 +49941,9 @@
       <c r="N454" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O454" s="7"/>
+      <c r="O454" s="11" t="s">
+        <v>2470</v>
+      </c>
       <c r="P454" s="7"/>
     </row>
     <row r="455" spans="1:16">
@@ -47980,7 +49989,9 @@
       <c r="N455" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O455" s="7"/>
+      <c r="O455" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P455" s="7" t="s">
         <v>1629</v>
       </c>
@@ -48026,7 +50037,9 @@
       <c r="N456" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O456" s="7"/>
+      <c r="O456" s="32" t="s">
+        <v>2461</v>
+      </c>
       <c r="P456" s="7" t="s">
         <v>1631</v>
       </c>
@@ -48060,6 +50073,9 @@
       <c r="L457" s="7"/>
       <c r="M457" s="7"/>
       <c r="N457" s="7"/>
+      <c r="O457" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458" s="17" t="s">
@@ -48086,6 +50102,9 @@
       <c r="N458" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O458" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P458" t="s">
         <v>1639</v>
       </c>
@@ -48122,6 +50141,9 @@
       <c r="N459" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O459" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P459" t="s">
         <v>1639</v>
       </c>
@@ -48157,6 +50179,9 @@
       <c r="N460" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O460" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P460" t="s">
         <v>1639</v>
       </c>
@@ -48189,6 +50214,9 @@
       <c r="N461" s="7" t="s">
         <v>1995</v>
       </c>
+      <c r="O461" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P461" t="s">
         <v>1639</v>
       </c>
@@ -48221,6 +50249,9 @@
       <c r="N462" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O462" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P462" t="s">
         <v>1639</v>
       </c>
@@ -48256,6 +50287,9 @@
       <c r="N463" t="s">
         <v>1995</v>
       </c>
+      <c r="O463" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P463" t="s">
         <v>1653</v>
       </c>
@@ -48292,6 +50326,9 @@
       <c r="N464" t="s">
         <v>1996</v>
       </c>
+      <c r="O464" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P464" t="s">
         <v>1666</v>
       </c>
@@ -48321,6 +50358,9 @@
       <c r="N465" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O465" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P465" t="s">
         <v>1639</v>
       </c>
@@ -48354,6 +50394,9 @@
       <c r="N466" t="s">
         <v>1996</v>
       </c>
+      <c r="O466" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P466" t="s">
         <v>1639</v>
       </c>
@@ -48389,6 +50432,9 @@
       <c r="N467" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O467" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" s="17" t="s">
@@ -48424,6 +50470,9 @@
       <c r="N468" t="s">
         <v>2282</v>
       </c>
+      <c r="O468" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P468" s="7" t="s">
         <v>1639</v>
       </c>
@@ -48459,6 +50508,9 @@
       <c r="N469" t="s">
         <v>1998</v>
       </c>
+      <c r="O469" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P469" t="s">
         <v>1639</v>
       </c>
@@ -48491,6 +50543,9 @@
       <c r="N470" t="s">
         <v>2158</v>
       </c>
+      <c r="O470" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P470" t="s">
         <v>1639</v>
       </c>
@@ -48526,6 +50581,9 @@
       <c r="N471" s="7" t="s">
         <v>2287</v>
       </c>
+      <c r="O471" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P471" t="s">
         <v>1698</v>
       </c>
@@ -48561,6 +50619,9 @@
       <c r="N472" s="7" t="s">
         <v>2288</v>
       </c>
+      <c r="O472" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P472" t="s">
         <v>1639</v>
       </c>
@@ -48590,6 +50651,9 @@
       <c r="M473" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="O473" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P473" t="s">
         <v>1639</v>
       </c>
@@ -48628,6 +50692,9 @@
       <c r="N474" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O474" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P474" t="s">
         <v>1639</v>
       </c>
@@ -48663,6 +50730,9 @@
       <c r="N475" t="s">
         <v>1998</v>
       </c>
+      <c r="O475" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="476" spans="1:16">
       <c r="A476" s="17" t="s">
@@ -48695,6 +50765,9 @@
       <c r="N476" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O476" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P476" t="s">
         <v>1639</v>
       </c>
@@ -48730,6 +50803,9 @@
       <c r="N477" s="7" t="s">
         <v>1998</v>
       </c>
+      <c r="O477" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P477" t="s">
         <v>1639</v>
       </c>
@@ -48762,6 +50838,9 @@
       <c r="N478" t="s">
         <v>1998</v>
       </c>
+      <c r="O478" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P478" t="s">
         <v>1639</v>
       </c>
@@ -48795,6 +50874,9 @@
       <c r="N479" t="s">
         <v>2186</v>
       </c>
+      <c r="O479" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P479" s="7" t="s">
         <v>1639</v>
       </c>
@@ -48828,6 +50910,9 @@
       <c r="N480" t="s">
         <v>1999</v>
       </c>
+      <c r="O480" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P480" s="7" t="s">
         <v>1639</v>
       </c>
@@ -48842,6 +50927,9 @@
       <c r="D481" s="6" t="s">
         <v>1710</v>
       </c>
+      <c r="E481" t="s">
+        <v>59</v>
+      </c>
       <c r="F481" s="7" t="s">
         <v>597</v>
       </c>
@@ -48856,6 +50944,9 @@
       </c>
       <c r="N481" s="7" t="s">
         <v>2035</v>
+      </c>
+      <c r="O481" s="32" t="s">
+        <v>2462</v>
       </c>
       <c r="P481" t="s">
         <v>1711</v>
@@ -48892,6 +50983,9 @@
       <c r="N482" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O482" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P482" t="s">
         <v>1639</v>
       </c>
@@ -48922,6 +51016,9 @@
       <c r="N483" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O483" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P483" s="7" t="s">
         <v>1639</v>
       </c>
@@ -48950,6 +51047,9 @@
       </c>
       <c r="M484" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="O484" s="32" t="s">
+        <v>2462</v>
       </c>
       <c r="P484" t="s">
         <v>1639</v>
@@ -48990,7 +51090,9 @@
       <c r="N485" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="O485" s="7"/>
+      <c r="O485" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P485" s="7" t="s">
         <v>1721</v>
       </c>
@@ -49026,6 +51128,9 @@
       <c r="N486" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O486" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P486" s="7" t="s">
         <v>1639</v>
       </c>
@@ -49059,6 +51164,9 @@
       <c r="M487" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="O487" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="488" spans="1:16">
       <c r="A488" s="17" t="s">
@@ -49091,6 +51199,9 @@
       <c r="N488" t="s">
         <v>1997</v>
       </c>
+      <c r="O488" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P488" s="7" t="s">
         <v>1726</v>
       </c>
@@ -49120,6 +51231,9 @@
       <c r="N489" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O489" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P489" t="s">
         <v>1639</v>
       </c>
@@ -49158,6 +51272,9 @@
       <c r="N490" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O490" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P490" t="s">
         <v>1639</v>
       </c>
@@ -49193,6 +51310,9 @@
       <c r="N491" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O491" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P491" t="s">
         <v>1639</v>
       </c>
@@ -49228,6 +51348,9 @@
       <c r="N492" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O492" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P492" t="s">
         <v>1732</v>
       </c>
@@ -49260,6 +51383,9 @@
       <c r="N493" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O493" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P493" t="s">
         <v>1639</v>
       </c>
@@ -49292,6 +51418,9 @@
       <c r="N494" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O494" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P494" t="s">
         <v>1639</v>
       </c>
@@ -49327,6 +51456,9 @@
       <c r="N495" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O495" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P495" t="s">
         <v>1639</v>
       </c>
@@ -49359,6 +51491,9 @@
       <c r="N496" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O496" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P496" t="s">
         <v>1639</v>
       </c>
@@ -49391,6 +51526,9 @@
       <c r="N497" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O497" s="33" t="s">
+        <v>2557</v>
+      </c>
       <c r="P497" t="s">
         <v>1639</v>
       </c>
@@ -49426,6 +51564,9 @@
       <c r="N498" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O498" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="499" spans="1:16">
       <c r="A499" s="17" t="s">
@@ -49455,6 +51596,9 @@
       <c r="N499" t="s">
         <v>2213</v>
       </c>
+      <c r="O499" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P499" t="s">
         <v>1639</v>
       </c>
@@ -49490,6 +51634,9 @@
       <c r="N500" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O500" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P500" t="s">
         <v>1639</v>
       </c>
@@ -49525,6 +51672,9 @@
       <c r="N501" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O501" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="502" spans="1:16">
       <c r="A502" s="17" t="s">
@@ -49560,6 +51710,9 @@
       <c r="N502" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O502" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503" s="17" t="s">
@@ -49595,6 +51748,9 @@
       <c r="N503" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O503" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P503" t="s">
         <v>1639</v>
       </c>
@@ -49627,6 +51783,9 @@
       <c r="M504" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="O504" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P504" t="s">
         <v>1639</v>
       </c>
@@ -49665,6 +51824,9 @@
       <c r="N505" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O505" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P505" t="s">
         <v>1639</v>
       </c>
@@ -49700,6 +51862,9 @@
       <c r="N506" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O506" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="507" spans="1:16">
       <c r="A507" s="17" t="s">
@@ -49729,6 +51894,9 @@
       <c r="N507" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O507" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P507" t="s">
         <v>1639</v>
       </c>
@@ -49761,6 +51929,9 @@
       <c r="N508" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O508" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P508" t="s">
         <v>1639</v>
       </c>
@@ -49796,6 +51967,9 @@
       <c r="N509" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O509" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510" s="17" t="s">
@@ -49826,6 +52000,9 @@
       <c r="N510" t="s">
         <v>2245</v>
       </c>
+      <c r="O510" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P510" s="7" t="s">
         <v>1639</v>
       </c>
@@ -49861,6 +52038,9 @@
       <c r="N511" t="s">
         <v>2245</v>
       </c>
+      <c r="O511" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P511" s="7" t="s">
         <v>1777</v>
       </c>
@@ -49896,6 +52076,9 @@
       <c r="N512" t="s">
         <v>2245</v>
       </c>
+      <c r="O512" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P512" s="7" t="s">
         <v>1639</v>
       </c>
@@ -49931,6 +52114,9 @@
       <c r="N513" t="s">
         <v>2245</v>
       </c>
+      <c r="O513" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P513" s="7" t="s">
         <v>1639</v>
       </c>
@@ -49969,6 +52155,9 @@
       <c r="N514" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O514" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="515" spans="1:16">
       <c r="A515" s="17" t="s">
@@ -50001,6 +52190,9 @@
       <c r="N515" t="s">
         <v>2250</v>
       </c>
+      <c r="O515" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P515" s="7" t="s">
         <v>2360</v>
       </c>
@@ -50028,6 +52220,9 @@
       <c r="N516" s="7" t="s">
         <v>2254</v>
       </c>
+      <c r="O516" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P516" s="7" t="s">
         <v>1795</v>
       </c>
@@ -50055,6 +52250,9 @@
       <c r="N517" s="7" t="s">
         <v>2362</v>
       </c>
+      <c r="O517" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P517" s="7" t="s">
         <v>1793</v>
       </c>
@@ -50084,6 +52282,9 @@
       <c r="N518" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O518" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P518" t="s">
         <v>1639</v>
       </c>
@@ -50119,6 +52320,9 @@
       <c r="N519" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O519" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P519" t="s">
         <v>1639</v>
       </c>
@@ -50151,6 +52355,9 @@
       <c r="N520" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O520" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P520" t="s">
         <v>1639</v>
       </c>
@@ -50186,6 +52393,9 @@
       <c r="N521" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O521" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P521" t="s">
         <v>1639</v>
       </c>
@@ -50221,6 +52431,9 @@
       <c r="N522" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O522" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P522" t="s">
         <v>1639</v>
       </c>
@@ -50256,6 +52469,9 @@
       <c r="N523" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O523" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P523" t="s">
         <v>1639</v>
       </c>
@@ -50291,6 +52507,9 @@
       <c r="N524" s="7" t="s">
         <v>2035</v>
       </c>
+      <c r="O524" s="32" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="525" spans="1:16">
       <c r="A525" s="17" t="s">
@@ -50323,6 +52542,9 @@
       <c r="N525" s="7" t="s">
         <v>2295</v>
       </c>
+      <c r="O525" s="32" t="s">
+        <v>2462</v>
+      </c>
       <c r="P525" t="s">
         <v>1639</v>
       </c>
@@ -50348,6 +52570,9 @@
       </c>
       <c r="M526" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="O526" s="32" t="s">
+        <v>2462</v>
       </c>
     </row>
   </sheetData>
@@ -50419,301 +52644,303 @@
     <hyperlink ref="D147" r:id="rId61" location="CR15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5422951/ - CR15" xr:uid="{6017AD30-6F89-DE4D-9A45-3B725A9DE86E}"/>
     <hyperlink ref="D162" r:id="rId62" xr:uid="{E81466CA-B16D-384A-97DD-2A766D506B6A}"/>
     <hyperlink ref="D410" r:id="rId63" xr:uid="{FCEEAD14-72B6-2B4B-B452-C98D0E3F8CCC}"/>
-    <hyperlink ref="D152" r:id="rId64" xr:uid="{1EA442F5-1FA6-8344-91EC-D9295615328C}"/>
-    <hyperlink ref="D153" r:id="rId65" xr:uid="{CCEA7526-F095-3746-A645-6ED9F70DA3E3}"/>
-    <hyperlink ref="D366" r:id="rId66" xr:uid="{E033519D-CF2A-1947-8439-28C95B16F4B8}"/>
-    <hyperlink ref="D15" r:id="rId67" xr:uid="{F820D008-09DE-ED4E-BFA8-A5F4C5ABBEE9}"/>
-    <hyperlink ref="D145" r:id="rId68" xr:uid="{DC382213-BE31-4D40-B771-88DE1E386D6E}"/>
-    <hyperlink ref="D151" r:id="rId69" xr:uid="{D94CB6C6-E0C5-0445-94E9-52502C52266D}"/>
-    <hyperlink ref="D150" r:id="rId70" xr:uid="{E427304E-7FCE-AC42-8096-2ECA1C827E8A}"/>
-    <hyperlink ref="D218" r:id="rId71" xr:uid="{2582DA81-1A4E-7E4C-A5E4-2C5112D5CE06}"/>
-    <hyperlink ref="D219" r:id="rId72" xr:uid="{5A38480A-3C47-D944-8F38-415258AF4BAC}"/>
-    <hyperlink ref="D220" r:id="rId73" xr:uid="{00F8A977-E25A-884A-BA69-D1D0D5E2A58D}"/>
-    <hyperlink ref="D79" r:id="rId74" xr:uid="{CE959161-90DB-C641-A8E7-7371734899EA}"/>
-    <hyperlink ref="D448" r:id="rId75" xr:uid="{530ACF73-0202-1943-B288-797AFA70137A}"/>
-    <hyperlink ref="D221" r:id="rId76" xr:uid="{9810B5B0-669D-B940-A5FE-97872CEB8C40}"/>
-    <hyperlink ref="D441" r:id="rId77" xr:uid="{DF9780DF-66EC-7A4B-BC3D-2FE3A709FCD7}"/>
-    <hyperlink ref="D215" r:id="rId78" xr:uid="{DCC718F3-821B-BE4E-9131-5A70BC615907}"/>
-    <hyperlink ref="D214" r:id="rId79" xr:uid="{0438A472-FC72-624C-9E54-321DE79DA936}"/>
-    <hyperlink ref="D434" r:id="rId80" xr:uid="{7386BA58-94EC-E947-8A83-36CC5B39639A}"/>
-    <hyperlink ref="D31" r:id="rId81" xr:uid="{E327E388-708A-F44A-9273-EDB1CBA64157}"/>
-    <hyperlink ref="D187" r:id="rId82" xr:uid="{4729D712-EE8D-C740-A187-2F20D64F7618}"/>
-    <hyperlink ref="D28" r:id="rId83" xr:uid="{EE5FC579-008A-384E-856E-04DDCAE41592}"/>
-    <hyperlink ref="D211" r:id="rId84" xr:uid="{9D5C6CCD-7F32-9542-9847-0DAD73B11BC7}"/>
-    <hyperlink ref="D209" r:id="rId85" xr:uid="{221BE6A6-9BCE-E44C-8F86-F2F143AA4E19}"/>
-    <hyperlink ref="D26" r:id="rId86" xr:uid="{0161E459-B69B-D542-9863-85080075BC03}"/>
-    <hyperlink ref="D25" r:id="rId87" xr:uid="{28931478-EC36-304D-A87F-FD141ADCB656}"/>
-    <hyperlink ref="D299" r:id="rId88" xr:uid="{AD6D0A4A-676F-FE43-B10F-BFDA990C9AC6}"/>
-    <hyperlink ref="D208" r:id="rId89" xr:uid="{6A6578AA-2EDD-E54A-BCF8-DB52EAF5BBFE}"/>
-    <hyperlink ref="D369" r:id="rId90" xr:uid="{64F4CCB5-5CDC-8745-8A09-694CE8C41729}"/>
-    <hyperlink ref="D383" r:id="rId91" xr:uid="{B0384B3B-75C1-404C-8E43-C4F135F70F5F}"/>
-    <hyperlink ref="D229" r:id="rId92" xr:uid="{9E784FC5-3D77-D743-83F9-B2E44844043A}"/>
-    <hyperlink ref="D100" r:id="rId93" xr:uid="{D8FEEB1E-87C3-894F-ACD5-5D7CF02FB8C0}"/>
-    <hyperlink ref="D355" r:id="rId94" xr:uid="{68F29B5D-6DA9-8C4D-96E7-E6D996EEBAD8}"/>
-    <hyperlink ref="D64" r:id="rId95" xr:uid="{7D7BF098-FD3F-0846-9121-C8E0FE2E1403}"/>
-    <hyperlink ref="D451" r:id="rId96" xr:uid="{5B6CA09D-7BF5-454F-AF65-BE1ADDF0C771}"/>
-    <hyperlink ref="D109" r:id="rId97" xr:uid="{95E77E0D-D833-0C4B-8D8E-6A2A890880A3}"/>
-    <hyperlink ref="D190" r:id="rId98" xr:uid="{5F45316C-87CC-A441-9C55-9A02C5732265}"/>
-    <hyperlink ref="D449" r:id="rId99" xr:uid="{196063E6-D974-9B43-9B37-B5EAAB2485FD}"/>
-    <hyperlink ref="D80" r:id="rId100" xr:uid="{6330DAAE-4EE2-A548-8F37-896C521A64D1}"/>
-    <hyperlink ref="D191" r:id="rId101" xr:uid="{207447B2-76FD-E14E-85F1-798112C74453}"/>
-    <hyperlink ref="D192" r:id="rId102" xr:uid="{87E4B45D-BD8B-D640-A213-92966942688B}"/>
-    <hyperlink ref="D74" r:id="rId103" xr:uid="{588A7CED-730E-DF47-B105-700595A49256}"/>
-    <hyperlink ref="D442" r:id="rId104" xr:uid="{AFA7A9B4-5F7A-D143-BD5C-9E43BE3513EE}"/>
-    <hyperlink ref="D443" r:id="rId105" xr:uid="{644AC97E-DEC3-1E4D-B683-688538C96DA0}"/>
-    <hyperlink ref="D75" r:id="rId106" xr:uid="{6A59CC8B-63EF-9747-95AA-2BD60C7AB921}"/>
-    <hyperlink ref="D444" r:id="rId107" xr:uid="{0E969C27-701C-8544-BAC1-8F0D7F286FED}"/>
-    <hyperlink ref="D445" r:id="rId108" xr:uid="{8E28836A-41C8-174B-A5E3-098EEA16B0DA}"/>
-    <hyperlink ref="D437" r:id="rId109" xr:uid="{F892AB00-EC95-264E-A5DD-C574E25174EC}"/>
-    <hyperlink ref="D76" r:id="rId110" xr:uid="{FE4D0CB8-91F2-4148-857A-D699E556C70A}"/>
-    <hyperlink ref="D72" r:id="rId111" xr:uid="{A6C391F0-E332-4440-A7A1-C9CC1F9A2E75}"/>
-    <hyperlink ref="D432" r:id="rId112" xr:uid="{89A860F5-469D-7446-AC98-22653AAEA170}"/>
-    <hyperlink ref="D433" r:id="rId113" xr:uid="{C020FAAF-06C8-CA48-9F36-A37BA5800816}"/>
-    <hyperlink ref="D188" r:id="rId114" xr:uid="{53765BBA-1BE3-1D4A-B188-FEA1CBDDE85A}"/>
-    <hyperlink ref="D425" r:id="rId115" xr:uid="{AEB3C24E-CF13-B447-A3FA-C309EBC61471}"/>
-    <hyperlink ref="D426" r:id="rId116" xr:uid="{843B8A51-57EC-2744-A7B2-0C5B3D5652AC}"/>
-    <hyperlink ref="D186" r:id="rId117" xr:uid="{6B3B65E2-5164-ED49-8BE9-267B20D94B00}"/>
-    <hyperlink ref="D423" r:id="rId118" xr:uid="{FE6F45FC-D28E-7141-BA71-793531450956}"/>
-    <hyperlink ref="D69" r:id="rId119" xr:uid="{5D733668-EF9D-9E43-AECA-C50A4A1DFFCE}"/>
-    <hyperlink ref="D70" r:id="rId120" xr:uid="{2187405F-58ED-424E-BA01-5356455F1023}"/>
-    <hyperlink ref="D65" r:id="rId121" xr:uid="{E78B933C-A5D4-2D4D-A653-C15A33098A56}"/>
-    <hyperlink ref="D422" r:id="rId122" xr:uid="{338C20D9-8DC1-7749-9563-8A0FF7DF1BEA}"/>
-    <hyperlink ref="D66" r:id="rId123" xr:uid="{50BCF870-7CDC-2347-94B6-D706C0B2D0D3}"/>
-    <hyperlink ref="D67" r:id="rId124" xr:uid="{3057F6B2-38F0-C743-989C-4CB1841DA309}"/>
-    <hyperlink ref="D375" r:id="rId125" xr:uid="{D9862C3B-43D1-A040-980B-FA93809D7BB1}"/>
-    <hyperlink ref="D68" r:id="rId126" xr:uid="{C332DC24-6DBE-0B4A-B0CD-3B9D6C7EE881}"/>
-    <hyperlink ref="D374" r:id="rId127" xr:uid="{FF54C3DB-9314-8A47-8480-6D7A9C3B22BC}"/>
-    <hyperlink ref="D185" r:id="rId128" xr:uid="{989D9127-3EF1-6342-92A5-CEC3FEDE8333}"/>
-    <hyperlink ref="D417" r:id="rId129" xr:uid="{F1A85FDA-B8E8-1541-8074-E330D9CCFA19}"/>
-    <hyperlink ref="D34" r:id="rId130" xr:uid="{2B75CCF4-4918-C642-A073-AFEC1C5A8E53}"/>
-    <hyperlink ref="D416" r:id="rId131" xr:uid="{9AE03A0B-F8B9-A147-9071-3A844E37842C}"/>
-    <hyperlink ref="D415" r:id="rId132" xr:uid="{A8BFA12D-2E9E-A947-8050-CE13AFE2A3F2}"/>
-    <hyperlink ref="D61" r:id="rId133" xr:uid="{8E673ECF-66CE-334F-ABB9-1736F58F3289}"/>
-    <hyperlink ref="D332" r:id="rId134" xr:uid="{98A7DCF0-5D84-CD4F-96F1-83284C7207CB}"/>
-    <hyperlink ref="D51" r:id="rId135" xr:uid="{724D30E7-C331-5542-8C29-1A78056AFE6D}"/>
-    <hyperlink ref="D293" r:id="rId136" xr:uid="{29FE81B1-F174-C949-A604-0872A1642AC0}"/>
-    <hyperlink ref="D333" r:id="rId137" xr:uid="{8D1CC80E-ED00-9E45-8DDD-B343A0EFBCC7}"/>
-    <hyperlink ref="D50" r:id="rId138" xr:uid="{A8B7313C-0AF6-4740-B9CA-3A2DF2768C69}"/>
-    <hyperlink ref="D253" r:id="rId139" xr:uid="{DAAF32AE-3AAB-6B46-A6B9-D0E726472C53}"/>
-    <hyperlink ref="D360" r:id="rId140" xr:uid="{83255465-8969-3448-808B-37ED8BD0A039}"/>
-    <hyperlink ref="D331" r:id="rId141" xr:uid="{385A4327-0445-7043-A70C-7605D9B8D1D6}"/>
-    <hyperlink ref="D254" r:id="rId142" xr:uid="{9887BDD5-71AD-4249-850E-4D077073E09E}"/>
-    <hyperlink ref="D255" r:id="rId143" xr:uid="{7688A929-816E-4A41-81E4-B972C431C436}"/>
-    <hyperlink ref="D346" r:id="rId144" xr:uid="{E8112282-C66D-8C44-960D-D7BC929C8F63}"/>
-    <hyperlink ref="D251" r:id="rId145" xr:uid="{4F1256D6-68B2-9546-A320-B4B285836410}"/>
-    <hyperlink ref="D446" r:id="rId146" xr:uid="{D8B37DF2-8439-F549-826D-FD076B9884F7}"/>
-    <hyperlink ref="D322" r:id="rId147" xr:uid="{BDAEDC0B-71F2-0C47-8020-19091E2C9604}"/>
-    <hyperlink ref="D343" r:id="rId148" xr:uid="{45A5DB95-8C1C-CC4A-A35B-578C320F8217}"/>
-    <hyperlink ref="D368" r:id="rId149" xr:uid="{2EB01B54-6A9D-FC43-A148-0713EC1CE3DF}"/>
-    <hyperlink ref="D323" r:id="rId150" xr:uid="{D801A54F-334D-D949-9B03-99202780FF46}"/>
-    <hyperlink ref="D35" r:id="rId151" xr:uid="{2AF41651-E80F-0649-88D1-5C1EC5130316}"/>
-    <hyperlink ref="D48" r:id="rId152" xr:uid="{394EC545-4EFE-6B4D-9556-DE3ED39390FD}"/>
-    <hyperlink ref="D248" r:id="rId153" xr:uid="{3D305B46-6F4B-A848-9615-63FD72D3195C}"/>
-    <hyperlink ref="D47" r:id="rId154" xr:uid="{FAB4AE77-1EBA-5142-8C39-EDEC8E44B669}"/>
-    <hyperlink ref="D249" r:id="rId155" xr:uid="{F990EA12-9F67-EA42-AD90-32AC3A11E194}"/>
-    <hyperlink ref="D284" r:id="rId156" xr:uid="{A00FAE0A-3BEB-B444-8BEF-AB301A4FF7B2}"/>
-    <hyperlink ref="D250" r:id="rId157" xr:uid="{C4C807ED-E688-EF4C-9714-3451D618AA4C}"/>
-    <hyperlink ref="D319" r:id="rId158" xr:uid="{747AF86E-501F-414E-B6A5-4175422E89C0}"/>
-    <hyperlink ref="D247" r:id="rId159" xr:uid="{584F23C2-50BE-9440-95DC-EFE1881DA61B}"/>
-    <hyperlink ref="D46" r:id="rId160" xr:uid="{0DED6B98-A6B3-7749-A634-BDCDCFE2C846}"/>
-    <hyperlink ref="D367" r:id="rId161" xr:uid="{1B314322-DCF7-4245-BC28-FB640FCB9DFF}"/>
-    <hyperlink ref="D42" r:id="rId162" xr:uid="{51B0AA4C-A2DC-B24E-8856-FE03F691AB34}"/>
-    <hyperlink ref="D279" r:id="rId163" xr:uid="{11A55A01-07EB-E44B-A73C-8905F7D6174C}"/>
-    <hyperlink ref="D280" r:id="rId164" xr:uid="{2B3EF862-ABA8-C94F-A577-8476878E351F}"/>
-    <hyperlink ref="D341" r:id="rId165" xr:uid="{CA1A30C3-4EE5-8745-B52A-5B09900197C6}"/>
-    <hyperlink ref="D316" r:id="rId166" xr:uid="{4981B3F0-9D45-A146-9E17-FF3DFE461128}"/>
-    <hyperlink ref="D372" r:id="rId167" xr:uid="{DFE76FC7-D2FE-E64F-A2A1-4A1E86DF7640}"/>
-    <hyperlink ref="D273" r:id="rId168" xr:uid="{CF5F16E3-8D09-5A4C-AE8E-07283CBE90FD}"/>
-    <hyperlink ref="D311" r:id="rId169" xr:uid="{B53500D4-D527-2F49-800E-4A438B968F52}"/>
-    <hyperlink ref="D274" r:id="rId170" xr:uid="{5880223F-CA7A-8A41-BFC2-55B61C24F9A2}"/>
-    <hyperlink ref="D241" r:id="rId171" xr:uid="{F4FA2456-5D79-B441-9A1B-F6357EE3D301}"/>
-    <hyperlink ref="D268" r:id="rId172" xr:uid="{811028B5-7A88-764C-A892-24A65B77687F}"/>
-    <hyperlink ref="D269" r:id="rId173" xr:uid="{52F9A758-721F-D04C-BFFC-BA7E3183CD23}"/>
-    <hyperlink ref="D242" r:id="rId174" xr:uid="{C90F3418-BFE6-4949-9A17-0A77F2C007D4}"/>
-    <hyperlink ref="D44" r:id="rId175" xr:uid="{4823D179-699E-E743-85EA-9B661BE63587}"/>
-    <hyperlink ref="D340" r:id="rId176" xr:uid="{A67E09F3-EE8E-F944-BB29-23EBA35CAE84}"/>
-    <hyperlink ref="D337" r:id="rId177" xr:uid="{E6634632-691F-5042-B16E-61176DC84621}"/>
-    <hyperlink ref="D237" r:id="rId178" xr:uid="{0AE2328F-046D-8A45-9C8A-0D236B034B3C}"/>
-    <hyperlink ref="D338" r:id="rId179" xr:uid="{DBBCACCF-9C73-E84A-AAD5-A647B49A4FA7}"/>
-    <hyperlink ref="D238" r:id="rId180" xr:uid="{5D63383A-0AAC-5B4B-B184-750AF20CB152}"/>
-    <hyperlink ref="D239" r:id="rId181" xr:uid="{A52F295F-DEEC-DD4B-A10C-CB1D86AD4168}"/>
-    <hyperlink ref="D339" r:id="rId182" xr:uid="{9D62082D-53C2-1F45-A955-95126953D0DD}"/>
-    <hyperlink ref="D43" r:id="rId183" xr:uid="{CA6F6261-21A4-4E48-878A-B549462D4B0A}"/>
-    <hyperlink ref="D52" r:id="rId184" xr:uid="{5171754F-5B61-044E-85FE-4525C4740821}"/>
-    <hyperlink ref="D236" r:id="rId185" xr:uid="{974E7EB9-5DFB-E74D-89B5-8801FE08BE2B}"/>
-    <hyperlink ref="D234" r:id="rId186" xr:uid="{0DD0745A-F590-F34C-9AF0-A1E3CAAFBB4B}"/>
-    <hyperlink ref="D33" r:id="rId187" xr:uid="{579369B1-A055-6741-B239-69EEC03BD398}"/>
-    <hyperlink ref="D235" r:id="rId188" xr:uid="{66A8E6B8-3102-5E47-975F-B39FCC4785E9}"/>
-    <hyperlink ref="D298" r:id="rId189" xr:uid="{0BDF2E28-6761-B141-8814-D2B9D45FD4EA}"/>
-    <hyperlink ref="D233" r:id="rId190" xr:uid="{7D4CDCE2-AC22-8044-9988-B043CA452620}"/>
-    <hyperlink ref="D335" r:id="rId191" xr:uid="{93854249-D5AE-3C4A-830C-6933D492729D}"/>
-    <hyperlink ref="D294" r:id="rId192" xr:uid="{3C004B8E-F1D4-1F41-A4AF-B5CDF1E77DBB}"/>
-    <hyperlink ref="D295" r:id="rId193" xr:uid="{F6A2A183-6828-E048-91AC-0EEDD404C7FC}"/>
-    <hyperlink ref="D232" r:id="rId194" xr:uid="{ED874E9D-0962-5E40-A7AD-A0B724FF06E2}"/>
-    <hyperlink ref="D32" r:id="rId195" xr:uid="{2C93106F-25EA-3542-8290-C9B818098602}"/>
-    <hyperlink ref="D263" r:id="rId196" xr:uid="{3CCFD4C7-09CC-6242-833A-93FE6748EB65}"/>
-    <hyperlink ref="D288" r:id="rId197" xr:uid="{3B82EBCD-C7E7-264E-A273-162018CBC922}"/>
-    <hyperlink ref="D285" r:id="rId198" xr:uid="{AB25A879-098B-334E-8B64-C411D0E8DC3A}"/>
-    <hyperlink ref="D289" r:id="rId199" xr:uid="{871BCAEE-A2C7-3C4E-A393-4C35C0EED0C7}"/>
-    <hyperlink ref="D281" r:id="rId200" xr:uid="{2F21CBA3-7E03-7246-BFFB-71B5F7FD285E}"/>
-    <hyperlink ref="D266" r:id="rId201" xr:uid="{1F8CAE97-57A4-C547-B7B6-4FCDDAD112F3}"/>
-    <hyperlink ref="D270" r:id="rId202" xr:uid="{BE275F21-BEAC-154B-AE65-C866F3A2710D}"/>
-    <hyperlink ref="D275" r:id="rId203" xr:uid="{AC9E0005-D049-DB44-AD4C-912E43A250B3}"/>
-    <hyperlink ref="D282" r:id="rId204" xr:uid="{C0B00406-258B-4443-A244-5AB0334930B5}"/>
-    <hyperlink ref="D271" r:id="rId205" xr:uid="{A25E951C-481B-2646-AD44-56AB56B327C9}"/>
-    <hyperlink ref="D283" r:id="rId206" xr:uid="{5FA072BE-8E78-DF44-8D8D-30009057222B}"/>
-    <hyperlink ref="D264" r:id="rId207" xr:uid="{7F7FA0EB-6322-4048-939A-C43D239CA238}"/>
-    <hyperlink ref="D290" r:id="rId208" xr:uid="{E240249B-4957-AA47-B3BE-0B2C3871C2EA}"/>
-    <hyperlink ref="D291" r:id="rId209" xr:uid="{C75C148B-016F-DE4E-9BFA-17D1A90BB78F}"/>
-    <hyperlink ref="D267" r:id="rId210" xr:uid="{2CB268C9-FD6D-2B4B-AF76-1E84DDEEA47A}"/>
-    <hyperlink ref="D286" r:id="rId211" xr:uid="{D27C0042-102C-C04A-BB32-D20FFD19F3E9}"/>
-    <hyperlink ref="D276" r:id="rId212" xr:uid="{A28C3D1B-7322-7C4E-99BF-23168B994887}"/>
-    <hyperlink ref="D312" r:id="rId213" xr:uid="{0622B956-1948-A046-9DB5-A163BDA43792}"/>
-    <hyperlink ref="D308" r:id="rId214" xr:uid="{8A6173AA-65FA-2F4B-BBEE-ECFE3B7F48FF}"/>
-    <hyperlink ref="D324" r:id="rId215" xr:uid="{447CC63A-C1AB-0543-AD7F-BE564421659C}"/>
-    <hyperlink ref="D325" r:id="rId216" xr:uid="{DC5BB609-7215-F545-A3A6-37A0FF8F602B}"/>
-    <hyperlink ref="D304" r:id="rId217" xr:uid="{71ABCAE0-E766-CD41-934D-1528EF1960CD}"/>
-    <hyperlink ref="D326" r:id="rId218" xr:uid="{BAF95203-35D5-0346-AEC9-6AB2DB41F812}"/>
-    <hyperlink ref="D327" r:id="rId219" xr:uid="{CA0F9F74-808F-3047-823C-D84D6A9DED34}"/>
-    <hyperlink ref="D363" r:id="rId220" xr:uid="{2D389AF4-1967-594D-BBE8-881246B8428E}"/>
-    <hyperlink ref="D313" r:id="rId221" xr:uid="{3D7EE8CE-C14E-3845-BAE3-25C828E8112C}"/>
-    <hyperlink ref="D352" r:id="rId222" xr:uid="{249FF964-1BD6-7748-B8B0-AEDA749B1B1B}"/>
-    <hyperlink ref="D305" r:id="rId223" xr:uid="{FCEC3011-37DD-3943-9F8B-8097A3FB6127}"/>
-    <hyperlink ref="D300" r:id="rId224" xr:uid="{C1EB9507-9EDC-4745-BCBA-E02405DA49FE}"/>
-    <hyperlink ref="D301" r:id="rId225" xr:uid="{3E018633-61FB-024D-A95B-AB3E5020A463}"/>
-    <hyperlink ref="D328" r:id="rId226" xr:uid="{1F6E872E-AC66-9F45-B844-50C19E897469}"/>
-    <hyperlink ref="D306" r:id="rId227" xr:uid="{BD57B9C0-B59F-5849-A0AB-0106E2BA020B}"/>
-    <hyperlink ref="D384" r:id="rId228" xr:uid="{DC54403D-D135-A34D-84DA-2E4906F798F5}"/>
-    <hyperlink ref="D435" r:id="rId229" xr:uid="{2FD75BB2-A4F9-964C-B5E6-E0DF15A20C71}"/>
-    <hyperlink ref="D137" r:id="rId230" xr:uid="{F57C197A-6A05-5943-8D3B-91C47476D9E4}"/>
-    <hyperlink ref="D183" r:id="rId231" xr:uid="{9829812E-D8B7-9B4B-B34A-79460509F009}"/>
-    <hyperlink ref="D19" r:id="rId232" xr:uid="{D77E15DF-A93C-A34D-A8BE-A01EA2994281}"/>
-    <hyperlink ref="D169" r:id="rId233" xr:uid="{3E75D910-8D37-B140-B457-61D526684F36}"/>
-    <hyperlink ref="D429" r:id="rId234" xr:uid="{B193B3D0-B6EF-9848-8EB6-47EF719C3C0D}"/>
-    <hyperlink ref="D436" r:id="rId235" xr:uid="{F58F150A-A2AA-9145-8F1C-60FED8466C8D}"/>
-    <hyperlink ref="D413" r:id="rId236" xr:uid="{AC6B6D59-3FFD-3348-825E-98B3AAEA8E69}"/>
-    <hyperlink ref="D84" r:id="rId237" xr:uid="{5C17FCD3-FED1-1D4D-B816-086CDA142062}"/>
-    <hyperlink ref="D86" r:id="rId238" xr:uid="{80E6D7CB-AAF2-D149-859D-0E33E4220DB2}"/>
-    <hyperlink ref="D90" r:id="rId239" xr:uid="{A967322C-D7E9-5245-8C78-12BE438764A0}"/>
-    <hyperlink ref="D196" r:id="rId240" xr:uid="{FF4D29CE-CD01-914B-835E-44FC4BA2FCDE}"/>
-    <hyperlink ref="D216" r:id="rId241" xr:uid="{2C79F6D3-0F99-2849-8E62-77ACACFF6ECA}"/>
-    <hyperlink ref="B485" r:id="rId242" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{7C575BE6-8892-384E-B6D0-54556AE5EA93}"/>
-    <hyperlink ref="D409" r:id="rId243" xr:uid="{8C3F0F7B-26C3-AB4F-B88F-06D91E5C63BF}"/>
-    <hyperlink ref="D517" r:id="rId244" xr:uid="{8536C761-FC01-0C48-9217-0262B9B8E6D2}"/>
-    <hyperlink ref="D516" r:id="rId245" xr:uid="{FCD2EC35-5FEC-D04E-B785-614EBEF35448}"/>
-    <hyperlink ref="D515" r:id="rId246" xr:uid="{89593E22-BF6D-DB4C-8EB4-D026E99AEFF0}"/>
-    <hyperlink ref="D483" r:id="rId247" xr:uid="{C85F788E-BA45-E243-AC0A-167678CCDFE2}"/>
-    <hyperlink ref="D486" r:id="rId248" xr:uid="{4BD1388F-54AD-6545-91C1-B7237EC1A25E}"/>
-    <hyperlink ref="D480" r:id="rId249" xr:uid="{5D7AE706-AAF3-7447-84EC-B4FE1DC2D374}"/>
-    <hyperlink ref="D479" r:id="rId250" xr:uid="{21AF7497-0972-8446-9EB1-B89709BC02BB}"/>
-    <hyperlink ref="D511" r:id="rId251" xr:uid="{F272C6FD-0F54-3C47-9880-6D292CD81E2B}"/>
-    <hyperlink ref="D512" r:id="rId252" xr:uid="{7ED6505A-C00C-7446-823E-F431764C45C6}"/>
-    <hyperlink ref="D513" r:id="rId253" xr:uid="{9979DA16-7189-C245-B2B9-126F93E905E6}"/>
-    <hyperlink ref="D510" r:id="rId254" xr:uid="{7CD280F5-13A2-BE45-AA06-51D4C120C7BB}"/>
-    <hyperlink ref="D468" r:id="rId255" xr:uid="{7D3CFF7E-5BF4-9847-A80E-36E9802EF21C}"/>
-    <hyperlink ref="D488" r:id="rId256" xr:uid="{0D26BFAD-DAF5-1A4F-B30F-B8E00FAC8C1D}"/>
-    <hyperlink ref="D487" r:id="rId257" xr:uid="{89B75002-CC71-CF48-885D-4E33BCB01D57}"/>
-    <hyperlink ref="D226" r:id="rId258" xr:uid="{09AA4631-5D25-5B4C-86C6-14026AF74CC9}"/>
-    <hyperlink ref="D136" r:id="rId259" xr:uid="{2A254A98-F69C-D547-87FC-D7EC060B5498}"/>
-    <hyperlink ref="D467" r:id="rId260" xr:uid="{5C4797F6-6133-0C45-A8E6-CE8354DB99EC}"/>
-    <hyperlink ref="D138" r:id="rId261" xr:uid="{AB080ADF-DC30-B443-A23C-4FC2F2EF2481}"/>
-    <hyperlink ref="D466" r:id="rId262" xr:uid="{6E5410E1-921B-B64C-BF4E-637BC687822D}"/>
-    <hyperlink ref="D465" r:id="rId263" xr:uid="{28A1C577-58E7-6644-B4F7-D4A6D5F7B423}"/>
-    <hyperlink ref="D464" r:id="rId264" xr:uid="{1D8209BB-E605-D441-87EF-A28F917FAAF4}"/>
-    <hyperlink ref="D514" r:id="rId265" xr:uid="{64ADE380-1AAE-984E-9A25-AE7C8584796F}"/>
-    <hyperlink ref="D463" r:id="rId266" xr:uid="{A03D2525-3950-C949-9E3E-9C44C998AF0F}"/>
-    <hyperlink ref="D462" r:id="rId267" xr:uid="{3C0102A1-FC2E-4247-B222-26EB1ABB2C23}"/>
-    <hyperlink ref="D132" r:id="rId268" xr:uid="{F873BC3A-CBD9-0D49-86BA-1AA0C3C18EB9}"/>
-    <hyperlink ref="D457" r:id="rId269" xr:uid="{7378A5E2-2B60-DC44-9030-E249B694B260}"/>
-    <hyperlink ref="D461" r:id="rId270" xr:uid="{9E131836-E86F-0A49-AE39-24B5A7E245D2}"/>
-    <hyperlink ref="D484" r:id="rId271" xr:uid="{1F2786FB-C4D3-EB4E-A0E2-D6630736647A}"/>
-    <hyperlink ref="D526" r:id="rId272" xr:uid="{FBEAF6D6-42AF-6648-A08E-E0707FC32D56}"/>
-    <hyperlink ref="D520" r:id="rId273" xr:uid="{564C253B-3F03-D444-A0DA-F22F7A419E85}"/>
-    <hyperlink ref="D482" r:id="rId274" xr:uid="{F57AA370-C7CD-4146-90BE-24AB41171B75}"/>
-    <hyperlink ref="D481" r:id="rId275" xr:uid="{841561B6-850F-5846-B906-18C07AD2B502}"/>
-    <hyperlink ref="D458" r:id="rId276" xr:uid="{BFBCB742-0CFB-6543-A0FA-AEEF4AAD877C}"/>
-    <hyperlink ref="D292" r:id="rId277" xr:uid="{65A9E2CC-DD1C-D74D-A2E4-4C59835563A6}"/>
-    <hyperlink ref="D459" r:id="rId278" xr:uid="{A87F7000-9F1F-5343-A29C-ABF3AAE9520B}"/>
-    <hyperlink ref="D460" r:id="rId279" xr:uid="{1F248109-43E3-3D4E-B4EC-68F5D3891791}"/>
-    <hyperlink ref="D97" r:id="rId280" xr:uid="{B7E8F49A-F40B-D547-9701-5AE1D94EFC42}"/>
-    <hyperlink ref="D509" r:id="rId281" xr:uid="{D59F2DA7-3BB5-D74B-BE8A-8D6929EF6FE3}"/>
-    <hyperlink ref="D3" r:id="rId282" xr:uid="{DA81A9F7-36EF-D344-B037-09A953B55026}"/>
-    <hyperlink ref="D171" r:id="rId283" xr:uid="{7F820FB9-DB32-654F-B198-6751E9F397F3}"/>
-    <hyperlink ref="D170" r:id="rId284" xr:uid="{5C3C065A-02E2-D54D-B3DF-61F6AA4138CB}"/>
-    <hyperlink ref="D478" r:id="rId285" xr:uid="{C1E2D801-35CB-7C4B-91F2-175C103263FA}"/>
-    <hyperlink ref="D163" r:id="rId286" xr:uid="{70EA6F1B-B84B-2149-8484-CC30367387AD}"/>
-    <hyperlink ref="D164" r:id="rId287" xr:uid="{F9BBB066-D526-A54A-A367-955ACF7E74F6}"/>
-    <hyperlink ref="D154" r:id="rId288" xr:uid="{2562DA79-1E02-114C-A26B-69AEE0BDA6F6}"/>
-    <hyperlink ref="D155" r:id="rId289" xr:uid="{269863D3-7777-2F43-8E96-F9B38A08DA59}"/>
-    <hyperlink ref="D156" r:id="rId290" xr:uid="{7D49D92C-44D3-5F42-8597-BC317A16EBA4}"/>
-    <hyperlink ref="D157" r:id="rId291" xr:uid="{B351C830-8C08-5546-8CE5-100BE1CD2B1C}"/>
-    <hyperlink ref="D158" r:id="rId292" xr:uid="{4A5DC1F1-ABB1-014C-A88E-CEB8B2E9040F}"/>
-    <hyperlink ref="D159" r:id="rId293" xr:uid="{56E6DE95-1133-BB4A-966B-2A11825DB3CB}"/>
-    <hyperlink ref="D476" r:id="rId294" xr:uid="{118CA25C-6A84-3745-B39E-C00C5D62F060}"/>
-    <hyperlink ref="D477" r:id="rId295" xr:uid="{76480FD9-0632-BC41-9775-BEEAD9A843E1}"/>
-    <hyperlink ref="D475" r:id="rId296" xr:uid="{1AE12A4C-66D3-134C-8BE0-F26BFF1DA89B}"/>
-    <hyperlink ref="D473" r:id="rId297" xr:uid="{CA1D1148-0871-2B4D-A9D9-C32EC87572F4}"/>
-    <hyperlink ref="D474" r:id="rId298" xr:uid="{EAD9824B-649D-1446-B7DD-4ABD46342B18}"/>
-    <hyperlink ref="D471" r:id="rId299" xr:uid="{4F6E7A00-B54C-E64A-A6FD-24490F43ABBE}"/>
-    <hyperlink ref="D472" r:id="rId300" xr:uid="{D2381026-A9A2-2E4D-895E-5309D91996B2}"/>
-    <hyperlink ref="D469" r:id="rId301" xr:uid="{B7583D80-7495-0C47-B793-E78EF60B3763}"/>
-    <hyperlink ref="D470" r:id="rId302" xr:uid="{B97210B2-C3D1-9E4E-985F-6782EF1661B4}"/>
-    <hyperlink ref="D88" r:id="rId303" xr:uid="{5343036F-E0A5-564D-8334-311A1FA9BDF8}"/>
-    <hyperlink ref="D8" r:id="rId304" xr:uid="{552EE392-3D68-5B4A-9418-369F6F7885F1}"/>
-    <hyperlink ref="D523" r:id="rId305" xr:uid="{6AD8353A-EFE9-B04A-9D00-D03666E5721E}"/>
-    <hyperlink ref="D414" r:id="rId306" xr:uid="{871F9FA4-8B8A-004F-80FA-71BF19926966}"/>
-    <hyperlink ref="D519" r:id="rId307" xr:uid="{57B09C3B-73B5-3E41-9F94-C0387A1F7B70}"/>
-    <hyperlink ref="D452" r:id="rId308" xr:uid="{ECA7DD9C-8EE5-6745-BEC8-D7B672A053E5}"/>
-    <hyperlink ref="D524" r:id="rId309" xr:uid="{A83DADD5-77C6-AE4C-9778-46C48E4CF8DD}"/>
-    <hyperlink ref="D60" r:id="rId310" xr:uid="{8A731B4E-111D-3E41-8A9D-E3657F9C5AA8}"/>
-    <hyperlink ref="D525" r:id="rId311" xr:uid="{8FCD4668-3390-244E-AB86-3F664E70F07C}"/>
-    <hyperlink ref="D420" r:id="rId312" xr:uid="{0708D165-AA00-0349-B66F-5BAE1D1BB42D}"/>
-    <hyperlink ref="D521" r:id="rId313" xr:uid="{FBD9DFAD-E5C6-8843-9C78-03BB388B6ED3}"/>
-    <hyperlink ref="D522" r:id="rId314" xr:uid="{965E8E5E-1323-4947-A37C-FBFF12FD3D76}"/>
-    <hyperlink ref="D518" r:id="rId315" xr:uid="{8A2B9A70-42BB-7A44-AC72-471B17126B64}"/>
-    <hyperlink ref="D359" r:id="rId316" xr:uid="{1564F2FC-7B58-9747-9228-11D083C4DDBD}"/>
-    <hyperlink ref="D490" r:id="rId317" xr:uid="{3496F59A-F344-CD47-8627-28A3B1F9A7A2}"/>
-    <hyperlink ref="D507" r:id="rId318" xr:uid="{D06D70FB-720F-9C44-8873-7E558B848862}"/>
-    <hyperlink ref="D508" r:id="rId319" xr:uid="{CFEF78E3-B838-3246-AC94-7270772CB6BB}"/>
-    <hyperlink ref="D492" r:id="rId320" xr:uid="{DA1A8C26-DEB3-7043-BDE7-73B437314D9C}"/>
-    <hyperlink ref="D491" r:id="rId321" xr:uid="{CA40CC9D-18C6-D74B-AD43-F3C7243BF52D}"/>
-    <hyperlink ref="D489" r:id="rId322" xr:uid="{36F53C43-38CA-504D-830F-B3F7D1AA7F91}"/>
-    <hyperlink ref="D496" r:id="rId323" xr:uid="{DFBD737E-AFAB-F941-9561-AF27D9DEAAD3}"/>
-    <hyperlink ref="D497" r:id="rId324" xr:uid="{510818BF-9320-BD44-B860-9A3E2AE10545}"/>
-    <hyperlink ref="D494" r:id="rId325" xr:uid="{2D4B2EAE-6FDE-2E4A-8A85-89596E1FE1B5}"/>
-    <hyperlink ref="D272" r:id="rId326" xr:uid="{F2B16516-118D-914D-892B-3EE4DF99EF62}"/>
-    <hyperlink ref="D498" r:id="rId327" xr:uid="{46BE4D39-9477-B941-A8C4-9D31E73AB81E}"/>
-    <hyperlink ref="D495" r:id="rId328" xr:uid="{0823BE2A-1374-D14E-8336-A56C3279C3CC}"/>
-    <hyperlink ref="D277" r:id="rId329" xr:uid="{1B363E77-0DCE-0E45-A058-74C4BA005F3B}"/>
-    <hyperlink ref="D287" r:id="rId330" xr:uid="{A2BB4DEF-0D7D-4743-892F-5DABC7F21C26}"/>
-    <hyperlink ref="D493" r:id="rId331" xr:uid="{06029C6C-8EC9-A64D-AE2A-521FE23A4E43}"/>
-    <hyperlink ref="D499" r:id="rId332" xr:uid="{C9AFBC4F-A4FB-094D-B9C7-CFCB822AB20F}"/>
-    <hyperlink ref="D265" r:id="rId333" xr:uid="{21A1A05D-A167-764C-BC3F-B67C3FB3EFF1}"/>
-    <hyperlink ref="D329" r:id="rId334" xr:uid="{040EE538-A4F8-A84B-BC8B-B3580B864755}"/>
-    <hyperlink ref="D317" r:id="rId335" xr:uid="{EF1A76B6-770F-B245-AC9D-A2487B93D545}"/>
-    <hyperlink ref="D502" r:id="rId336" xr:uid="{51C68E0B-C6C2-634F-8FA0-BD0951914F85}"/>
-    <hyperlink ref="D506" r:id="rId337" xr:uid="{62D6F049-6FA2-EA45-80BE-82880D716F47}"/>
-    <hyperlink ref="D505" r:id="rId338" xr:uid="{1BADE965-448F-2449-8320-BB20A0208E97}"/>
-    <hyperlink ref="D314" r:id="rId339" xr:uid="{83C2F6BA-58B2-F641-8BA0-A00EC7729026}"/>
-    <hyperlink ref="D504" r:id="rId340" xr:uid="{110875FE-F21B-C945-82A2-836CA9B8EC70}"/>
-    <hyperlink ref="D315" r:id="rId341" xr:uid="{26B232CA-3D77-9A4B-9235-099D5DE371E2}"/>
-    <hyperlink ref="D307" r:id="rId342" xr:uid="{05F84512-13AE-9445-A69E-E8370EF2DA67}"/>
-    <hyperlink ref="D296" r:id="rId343" xr:uid="{81F39D59-3F05-6149-B8DC-8C0A18AABB9F}"/>
-    <hyperlink ref="D503" r:id="rId344" xr:uid="{DB8F9FB3-3BEC-6747-9BA2-F9AFCD4BEF6E}"/>
-    <hyperlink ref="D302" r:id="rId345" xr:uid="{83DDF491-9F57-1946-85A9-70B896A2D975}"/>
-    <hyperlink ref="D500" r:id="rId346" xr:uid="{D87AFE85-5BE5-4540-A233-79F5EA91942A}"/>
-    <hyperlink ref="D345" r:id="rId347" xr:uid="{E6E12C35-039F-401E-897F-6C8FF62D9633}"/>
-    <hyperlink ref="D336" r:id="rId348" xr:uid="{2D964555-4405-423B-9922-2EA469ACEAEC}"/>
-    <hyperlink ref="D55" r:id="rId349" xr:uid="{58E72F0F-F446-4760-90CC-8AA2764001AD}"/>
-    <hyperlink ref="D388" r:id="rId350" xr:uid="{9DAA0A7E-AD83-475D-8D82-91528E2C3B0A}"/>
-    <hyperlink ref="D431" r:id="rId351" xr:uid="{71E581C7-DACA-49CB-BAD9-4771868A2002}"/>
-    <hyperlink ref="D82" r:id="rId352" xr:uid="{31C41166-FA96-4906-880F-AE4C35B55BFF}"/>
-    <hyperlink ref="D108" r:id="rId353" xr:uid="{733275D3-E025-462B-A60D-DC325650942F}"/>
-    <hyperlink ref="D501" r:id="rId354" xr:uid="{62685576-2D77-2E42-AED6-53C0EFD59075}"/>
-    <hyperlink ref="D365" r:id="rId355" xr:uid="{904C3531-B323-41F9-817E-8823B671EEB5}"/>
+    <hyperlink ref="D153" r:id="rId64" xr:uid="{CCEA7526-F095-3746-A645-6ED9F70DA3E3}"/>
+    <hyperlink ref="D366" r:id="rId65" xr:uid="{E033519D-CF2A-1947-8439-28C95B16F4B8}"/>
+    <hyperlink ref="D15" r:id="rId66" xr:uid="{F820D008-09DE-ED4E-BFA8-A5F4C5ABBEE9}"/>
+    <hyperlink ref="D145" r:id="rId67" xr:uid="{DC382213-BE31-4D40-B771-88DE1E386D6E}"/>
+    <hyperlink ref="D151" r:id="rId68" xr:uid="{D94CB6C6-E0C5-0445-94E9-52502C52266D}"/>
+    <hyperlink ref="D150" r:id="rId69" xr:uid="{E427304E-7FCE-AC42-8096-2ECA1C827E8A}"/>
+    <hyperlink ref="D218" r:id="rId70" xr:uid="{2582DA81-1A4E-7E4C-A5E4-2C5112D5CE06}"/>
+    <hyperlink ref="D219" r:id="rId71" xr:uid="{5A38480A-3C47-D944-8F38-415258AF4BAC}"/>
+    <hyperlink ref="D220" r:id="rId72" xr:uid="{00F8A977-E25A-884A-BA69-D1D0D5E2A58D}"/>
+    <hyperlink ref="D79" r:id="rId73" xr:uid="{CE959161-90DB-C641-A8E7-7371734899EA}"/>
+    <hyperlink ref="D448" r:id="rId74" xr:uid="{530ACF73-0202-1943-B288-797AFA70137A}"/>
+    <hyperlink ref="D221" r:id="rId75" xr:uid="{9810B5B0-669D-B940-A5FE-97872CEB8C40}"/>
+    <hyperlink ref="D441" r:id="rId76" xr:uid="{DF9780DF-66EC-7A4B-BC3D-2FE3A709FCD7}"/>
+    <hyperlink ref="D215" r:id="rId77" xr:uid="{DCC718F3-821B-BE4E-9131-5A70BC615907}"/>
+    <hyperlink ref="D214" r:id="rId78" xr:uid="{0438A472-FC72-624C-9E54-321DE79DA936}"/>
+    <hyperlink ref="D434" r:id="rId79" xr:uid="{7386BA58-94EC-E947-8A83-36CC5B39639A}"/>
+    <hyperlink ref="D31" r:id="rId80" xr:uid="{E327E388-708A-F44A-9273-EDB1CBA64157}"/>
+    <hyperlink ref="D187" r:id="rId81" xr:uid="{4729D712-EE8D-C740-A187-2F20D64F7618}"/>
+    <hyperlink ref="D28" r:id="rId82" xr:uid="{EE5FC579-008A-384E-856E-04DDCAE41592}"/>
+    <hyperlink ref="D211" r:id="rId83" xr:uid="{9D5C6CCD-7F32-9542-9847-0DAD73B11BC7}"/>
+    <hyperlink ref="D209" r:id="rId84" xr:uid="{221BE6A6-9BCE-E44C-8F86-F2F143AA4E19}"/>
+    <hyperlink ref="D26" r:id="rId85" xr:uid="{0161E459-B69B-D542-9863-85080075BC03}"/>
+    <hyperlink ref="D25" r:id="rId86" xr:uid="{28931478-EC36-304D-A87F-FD141ADCB656}"/>
+    <hyperlink ref="D299" r:id="rId87" xr:uid="{AD6D0A4A-676F-FE43-B10F-BFDA990C9AC6}"/>
+    <hyperlink ref="D208" r:id="rId88" xr:uid="{6A6578AA-2EDD-E54A-BCF8-DB52EAF5BBFE}"/>
+    <hyperlink ref="D369" r:id="rId89" xr:uid="{64F4CCB5-5CDC-8745-8A09-694CE8C41729}"/>
+    <hyperlink ref="D383" r:id="rId90" xr:uid="{B0384B3B-75C1-404C-8E43-C4F135F70F5F}"/>
+    <hyperlink ref="D229" r:id="rId91" xr:uid="{9E784FC5-3D77-D743-83F9-B2E44844043A}"/>
+    <hyperlink ref="D100" r:id="rId92" xr:uid="{D8FEEB1E-87C3-894F-ACD5-5D7CF02FB8C0}"/>
+    <hyperlink ref="D355" r:id="rId93" xr:uid="{68F29B5D-6DA9-8C4D-96E7-E6D996EEBAD8}"/>
+    <hyperlink ref="D64" r:id="rId94" xr:uid="{7D7BF098-FD3F-0846-9121-C8E0FE2E1403}"/>
+    <hyperlink ref="D451" r:id="rId95" xr:uid="{5B6CA09D-7BF5-454F-AF65-BE1ADDF0C771}"/>
+    <hyperlink ref="D109" r:id="rId96" xr:uid="{95E77E0D-D833-0C4B-8D8E-6A2A890880A3}"/>
+    <hyperlink ref="D190" r:id="rId97" xr:uid="{5F45316C-87CC-A441-9C55-9A02C5732265}"/>
+    <hyperlink ref="D449" r:id="rId98" xr:uid="{196063E6-D974-9B43-9B37-B5EAAB2485FD}"/>
+    <hyperlink ref="D80" r:id="rId99" xr:uid="{6330DAAE-4EE2-A548-8F37-896C521A64D1}"/>
+    <hyperlink ref="D191" r:id="rId100" xr:uid="{207447B2-76FD-E14E-85F1-798112C74453}"/>
+    <hyperlink ref="D192" r:id="rId101" xr:uid="{87E4B45D-BD8B-D640-A213-92966942688B}"/>
+    <hyperlink ref="D74" r:id="rId102" xr:uid="{588A7CED-730E-DF47-B105-700595A49256}"/>
+    <hyperlink ref="D442" r:id="rId103" xr:uid="{AFA7A9B4-5F7A-D143-BD5C-9E43BE3513EE}"/>
+    <hyperlink ref="D443" r:id="rId104" xr:uid="{644AC97E-DEC3-1E4D-B683-688538C96DA0}"/>
+    <hyperlink ref="D75" r:id="rId105" xr:uid="{6A59CC8B-63EF-9747-95AA-2BD60C7AB921}"/>
+    <hyperlink ref="D444" r:id="rId106" xr:uid="{0E969C27-701C-8544-BAC1-8F0D7F286FED}"/>
+    <hyperlink ref="D445" r:id="rId107" xr:uid="{8E28836A-41C8-174B-A5E3-098EEA16B0DA}"/>
+    <hyperlink ref="D437" r:id="rId108" xr:uid="{F892AB00-EC95-264E-A5DD-C574E25174EC}"/>
+    <hyperlink ref="D76" r:id="rId109" xr:uid="{FE4D0CB8-91F2-4148-857A-D699E556C70A}"/>
+    <hyperlink ref="D72" r:id="rId110" xr:uid="{A6C391F0-E332-4440-A7A1-C9CC1F9A2E75}"/>
+    <hyperlink ref="D432" r:id="rId111" xr:uid="{89A860F5-469D-7446-AC98-22653AAEA170}"/>
+    <hyperlink ref="D433" r:id="rId112" xr:uid="{C020FAAF-06C8-CA48-9F36-A37BA5800816}"/>
+    <hyperlink ref="D188" r:id="rId113" xr:uid="{53765BBA-1BE3-1D4A-B188-FEA1CBDDE85A}"/>
+    <hyperlink ref="D425" r:id="rId114" xr:uid="{AEB3C24E-CF13-B447-A3FA-C309EBC61471}"/>
+    <hyperlink ref="D426" r:id="rId115" xr:uid="{843B8A51-57EC-2744-A7B2-0C5B3D5652AC}"/>
+    <hyperlink ref="D186" r:id="rId116" xr:uid="{6B3B65E2-5164-ED49-8BE9-267B20D94B00}"/>
+    <hyperlink ref="D423" r:id="rId117" xr:uid="{FE6F45FC-D28E-7141-BA71-793531450956}"/>
+    <hyperlink ref="D69" r:id="rId118" xr:uid="{5D733668-EF9D-9E43-AECA-C50A4A1DFFCE}"/>
+    <hyperlink ref="D70" r:id="rId119" xr:uid="{2187405F-58ED-424E-BA01-5356455F1023}"/>
+    <hyperlink ref="D65" r:id="rId120" xr:uid="{E78B933C-A5D4-2D4D-A653-C15A33098A56}"/>
+    <hyperlink ref="D422" r:id="rId121" xr:uid="{338C20D9-8DC1-7749-9563-8A0FF7DF1BEA}"/>
+    <hyperlink ref="D66" r:id="rId122" xr:uid="{50BCF870-7CDC-2347-94B6-D706C0B2D0D3}"/>
+    <hyperlink ref="D67" r:id="rId123" xr:uid="{3057F6B2-38F0-C743-989C-4CB1841DA309}"/>
+    <hyperlink ref="D375" r:id="rId124" xr:uid="{D9862C3B-43D1-A040-980B-FA93809D7BB1}"/>
+    <hyperlink ref="D68" r:id="rId125" xr:uid="{C332DC24-6DBE-0B4A-B0CD-3B9D6C7EE881}"/>
+    <hyperlink ref="D374" r:id="rId126" xr:uid="{FF54C3DB-9314-8A47-8480-6D7A9C3B22BC}"/>
+    <hyperlink ref="D185" r:id="rId127" xr:uid="{989D9127-3EF1-6342-92A5-CEC3FEDE8333}"/>
+    <hyperlink ref="D417" r:id="rId128" xr:uid="{F1A85FDA-B8E8-1541-8074-E330D9CCFA19}"/>
+    <hyperlink ref="D34" r:id="rId129" xr:uid="{2B75CCF4-4918-C642-A073-AFEC1C5A8E53}"/>
+    <hyperlink ref="D416" r:id="rId130" xr:uid="{9AE03A0B-F8B9-A147-9071-3A844E37842C}"/>
+    <hyperlink ref="D415" r:id="rId131" xr:uid="{A8BFA12D-2E9E-A947-8050-CE13AFE2A3F2}"/>
+    <hyperlink ref="D61" r:id="rId132" xr:uid="{8E673ECF-66CE-334F-ABB9-1736F58F3289}"/>
+    <hyperlink ref="D332" r:id="rId133" xr:uid="{98A7DCF0-5D84-CD4F-96F1-83284C7207CB}"/>
+    <hyperlink ref="D51" r:id="rId134" xr:uid="{724D30E7-C331-5542-8C29-1A78056AFE6D}"/>
+    <hyperlink ref="D293" r:id="rId135" xr:uid="{29FE81B1-F174-C949-A604-0872A1642AC0}"/>
+    <hyperlink ref="D333" r:id="rId136" xr:uid="{8D1CC80E-ED00-9E45-8DDD-B343A0EFBCC7}"/>
+    <hyperlink ref="D50" r:id="rId137" xr:uid="{A8B7313C-0AF6-4740-B9CA-3A2DF2768C69}"/>
+    <hyperlink ref="D253" r:id="rId138" xr:uid="{DAAF32AE-3AAB-6B46-A6B9-D0E726472C53}"/>
+    <hyperlink ref="D360" r:id="rId139" xr:uid="{83255465-8969-3448-808B-37ED8BD0A039}"/>
+    <hyperlink ref="D331" r:id="rId140" xr:uid="{385A4327-0445-7043-A70C-7605D9B8D1D6}"/>
+    <hyperlink ref="D254" r:id="rId141" xr:uid="{9887BDD5-71AD-4249-850E-4D077073E09E}"/>
+    <hyperlink ref="D255" r:id="rId142" xr:uid="{7688A929-816E-4A41-81E4-B972C431C436}"/>
+    <hyperlink ref="D346" r:id="rId143" xr:uid="{E8112282-C66D-8C44-960D-D7BC929C8F63}"/>
+    <hyperlink ref="D251" r:id="rId144" xr:uid="{4F1256D6-68B2-9546-A320-B4B285836410}"/>
+    <hyperlink ref="D446" r:id="rId145" xr:uid="{D8B37DF2-8439-F549-826D-FD076B9884F7}"/>
+    <hyperlink ref="D322" r:id="rId146" xr:uid="{BDAEDC0B-71F2-0C47-8020-19091E2C9604}"/>
+    <hyperlink ref="D343" r:id="rId147" xr:uid="{45A5DB95-8C1C-CC4A-A35B-578C320F8217}"/>
+    <hyperlink ref="D368" r:id="rId148" xr:uid="{2EB01B54-6A9D-FC43-A148-0713EC1CE3DF}"/>
+    <hyperlink ref="D323" r:id="rId149" xr:uid="{D801A54F-334D-D949-9B03-99202780FF46}"/>
+    <hyperlink ref="D35" r:id="rId150" xr:uid="{2AF41651-E80F-0649-88D1-5C1EC5130316}"/>
+    <hyperlink ref="D48" r:id="rId151" xr:uid="{394EC545-4EFE-6B4D-9556-DE3ED39390FD}"/>
+    <hyperlink ref="D248" r:id="rId152" xr:uid="{3D305B46-6F4B-A848-9615-63FD72D3195C}"/>
+    <hyperlink ref="D47" r:id="rId153" xr:uid="{FAB4AE77-1EBA-5142-8C39-EDEC8E44B669}"/>
+    <hyperlink ref="D249" r:id="rId154" xr:uid="{F990EA12-9F67-EA42-AD90-32AC3A11E194}"/>
+    <hyperlink ref="D284" r:id="rId155" xr:uid="{A00FAE0A-3BEB-B444-8BEF-AB301A4FF7B2}"/>
+    <hyperlink ref="D250" r:id="rId156" xr:uid="{C4C807ED-E688-EF4C-9714-3451D618AA4C}"/>
+    <hyperlink ref="D319" r:id="rId157" xr:uid="{747AF86E-501F-414E-B6A5-4175422E89C0}"/>
+    <hyperlink ref="D247" r:id="rId158" xr:uid="{584F23C2-50BE-9440-95DC-EFE1881DA61B}"/>
+    <hyperlink ref="D46" r:id="rId159" xr:uid="{0DED6B98-A6B3-7749-A634-BDCDCFE2C846}"/>
+    <hyperlink ref="D367" r:id="rId160" xr:uid="{1B314322-DCF7-4245-BC28-FB640FCB9DFF}"/>
+    <hyperlink ref="D42" r:id="rId161" xr:uid="{51B0AA4C-A2DC-B24E-8856-FE03F691AB34}"/>
+    <hyperlink ref="D279" r:id="rId162" xr:uid="{11A55A01-07EB-E44B-A73C-8905F7D6174C}"/>
+    <hyperlink ref="D280" r:id="rId163" xr:uid="{2B3EF862-ABA8-C94F-A577-8476878E351F}"/>
+    <hyperlink ref="D341" r:id="rId164" xr:uid="{CA1A30C3-4EE5-8745-B52A-5B09900197C6}"/>
+    <hyperlink ref="D316" r:id="rId165" xr:uid="{4981B3F0-9D45-A146-9E17-FF3DFE461128}"/>
+    <hyperlink ref="D372" r:id="rId166" xr:uid="{DFE76FC7-D2FE-E64F-A2A1-4A1E86DF7640}"/>
+    <hyperlink ref="D273" r:id="rId167" xr:uid="{CF5F16E3-8D09-5A4C-AE8E-07283CBE90FD}"/>
+    <hyperlink ref="D311" r:id="rId168" xr:uid="{B53500D4-D527-2F49-800E-4A438B968F52}"/>
+    <hyperlink ref="D274" r:id="rId169" xr:uid="{5880223F-CA7A-8A41-BFC2-55B61C24F9A2}"/>
+    <hyperlink ref="D241" r:id="rId170" xr:uid="{F4FA2456-5D79-B441-9A1B-F6357EE3D301}"/>
+    <hyperlink ref="D268" r:id="rId171" xr:uid="{811028B5-7A88-764C-A892-24A65B77687F}"/>
+    <hyperlink ref="D269" r:id="rId172" xr:uid="{52F9A758-721F-D04C-BFFC-BA7E3183CD23}"/>
+    <hyperlink ref="D242" r:id="rId173" xr:uid="{C90F3418-BFE6-4949-9A17-0A77F2C007D4}"/>
+    <hyperlink ref="D44" r:id="rId174" xr:uid="{4823D179-699E-E743-85EA-9B661BE63587}"/>
+    <hyperlink ref="D340" r:id="rId175" xr:uid="{A67E09F3-EE8E-F944-BB29-23EBA35CAE84}"/>
+    <hyperlink ref="D337" r:id="rId176" xr:uid="{E6634632-691F-5042-B16E-61176DC84621}"/>
+    <hyperlink ref="D237" r:id="rId177" xr:uid="{0AE2328F-046D-8A45-9C8A-0D236B034B3C}"/>
+    <hyperlink ref="D338" r:id="rId178" xr:uid="{DBBCACCF-9C73-E84A-AAD5-A647B49A4FA7}"/>
+    <hyperlink ref="D238" r:id="rId179" xr:uid="{5D63383A-0AAC-5B4B-B184-750AF20CB152}"/>
+    <hyperlink ref="D239" r:id="rId180" xr:uid="{A52F295F-DEEC-DD4B-A10C-CB1D86AD4168}"/>
+    <hyperlink ref="D339" r:id="rId181" xr:uid="{9D62082D-53C2-1F45-A955-95126953D0DD}"/>
+    <hyperlink ref="D43" r:id="rId182" xr:uid="{CA6F6261-21A4-4E48-878A-B549462D4B0A}"/>
+    <hyperlink ref="D52" r:id="rId183" xr:uid="{5171754F-5B61-044E-85FE-4525C4740821}"/>
+    <hyperlink ref="D236" r:id="rId184" xr:uid="{974E7EB9-5DFB-E74D-89B5-8801FE08BE2B}"/>
+    <hyperlink ref="D234" r:id="rId185" xr:uid="{0DD0745A-F590-F34C-9AF0-A1E3CAAFBB4B}"/>
+    <hyperlink ref="D33" r:id="rId186" xr:uid="{579369B1-A055-6741-B239-69EEC03BD398}"/>
+    <hyperlink ref="D235" r:id="rId187" xr:uid="{66A8E6B8-3102-5E47-975F-B39FCC4785E9}"/>
+    <hyperlink ref="D298" r:id="rId188" xr:uid="{0BDF2E28-6761-B141-8814-D2B9D45FD4EA}"/>
+    <hyperlink ref="D233" r:id="rId189" xr:uid="{7D4CDCE2-AC22-8044-9988-B043CA452620}"/>
+    <hyperlink ref="D335" r:id="rId190" xr:uid="{93854249-D5AE-3C4A-830C-6933D492729D}"/>
+    <hyperlink ref="D294" r:id="rId191" xr:uid="{3C004B8E-F1D4-1F41-A4AF-B5CDF1E77DBB}"/>
+    <hyperlink ref="D295" r:id="rId192" xr:uid="{F6A2A183-6828-E048-91AC-0EEDD404C7FC}"/>
+    <hyperlink ref="D232" r:id="rId193" xr:uid="{ED874E9D-0962-5E40-A7AD-A0B724FF06E2}"/>
+    <hyperlink ref="D32" r:id="rId194" xr:uid="{2C93106F-25EA-3542-8290-C9B818098602}"/>
+    <hyperlink ref="D263" r:id="rId195" xr:uid="{3CCFD4C7-09CC-6242-833A-93FE6748EB65}"/>
+    <hyperlink ref="D288" r:id="rId196" xr:uid="{3B82EBCD-C7E7-264E-A273-162018CBC922}"/>
+    <hyperlink ref="D285" r:id="rId197" xr:uid="{AB25A879-098B-334E-8B64-C411D0E8DC3A}"/>
+    <hyperlink ref="D289" r:id="rId198" xr:uid="{871BCAEE-A2C7-3C4E-A393-4C35C0EED0C7}"/>
+    <hyperlink ref="D281" r:id="rId199" xr:uid="{2F21CBA3-7E03-7246-BFFB-71B5F7FD285E}"/>
+    <hyperlink ref="D266" r:id="rId200" xr:uid="{1F8CAE97-57A4-C547-B7B6-4FCDDAD112F3}"/>
+    <hyperlink ref="D270" r:id="rId201" xr:uid="{BE275F21-BEAC-154B-AE65-C866F3A2710D}"/>
+    <hyperlink ref="D275" r:id="rId202" xr:uid="{AC9E0005-D049-DB44-AD4C-912E43A250B3}"/>
+    <hyperlink ref="D282" r:id="rId203" xr:uid="{C0B00406-258B-4443-A244-5AB0334930B5}"/>
+    <hyperlink ref="D271" r:id="rId204" xr:uid="{A25E951C-481B-2646-AD44-56AB56B327C9}"/>
+    <hyperlink ref="D283" r:id="rId205" xr:uid="{5FA072BE-8E78-DF44-8D8D-30009057222B}"/>
+    <hyperlink ref="D264" r:id="rId206" xr:uid="{7F7FA0EB-6322-4048-939A-C43D239CA238}"/>
+    <hyperlink ref="D290" r:id="rId207" xr:uid="{E240249B-4957-AA47-B3BE-0B2C3871C2EA}"/>
+    <hyperlink ref="D291" r:id="rId208" xr:uid="{C75C148B-016F-DE4E-9BFA-17D1A90BB78F}"/>
+    <hyperlink ref="D267" r:id="rId209" xr:uid="{2CB268C9-FD6D-2B4B-AF76-1E84DDEEA47A}"/>
+    <hyperlink ref="D286" r:id="rId210" xr:uid="{D27C0042-102C-C04A-BB32-D20FFD19F3E9}"/>
+    <hyperlink ref="D276" r:id="rId211" xr:uid="{A28C3D1B-7322-7C4E-99BF-23168B994887}"/>
+    <hyperlink ref="D312" r:id="rId212" xr:uid="{0622B956-1948-A046-9DB5-A163BDA43792}"/>
+    <hyperlink ref="D308" r:id="rId213" xr:uid="{8A6173AA-65FA-2F4B-BBEE-ECFE3B7F48FF}"/>
+    <hyperlink ref="D324" r:id="rId214" xr:uid="{447CC63A-C1AB-0543-AD7F-BE564421659C}"/>
+    <hyperlink ref="D325" r:id="rId215" xr:uid="{DC5BB609-7215-F545-A3A6-37A0FF8F602B}"/>
+    <hyperlink ref="D304" r:id="rId216" xr:uid="{71ABCAE0-E766-CD41-934D-1528EF1960CD}"/>
+    <hyperlink ref="D326" r:id="rId217" xr:uid="{BAF95203-35D5-0346-AEC9-6AB2DB41F812}"/>
+    <hyperlink ref="D327" r:id="rId218" xr:uid="{CA0F9F74-808F-3047-823C-D84D6A9DED34}"/>
+    <hyperlink ref="D363" r:id="rId219" xr:uid="{2D389AF4-1967-594D-BBE8-881246B8428E}"/>
+    <hyperlink ref="D313" r:id="rId220" xr:uid="{3D7EE8CE-C14E-3845-BAE3-25C828E8112C}"/>
+    <hyperlink ref="D352" r:id="rId221" xr:uid="{249FF964-1BD6-7748-B8B0-AEDA749B1B1B}"/>
+    <hyperlink ref="D305" r:id="rId222" xr:uid="{FCEC3011-37DD-3943-9F8B-8097A3FB6127}"/>
+    <hyperlink ref="D300" r:id="rId223" xr:uid="{C1EB9507-9EDC-4745-BCBA-E02405DA49FE}"/>
+    <hyperlink ref="D301" r:id="rId224" xr:uid="{3E018633-61FB-024D-A95B-AB3E5020A463}"/>
+    <hyperlink ref="D328" r:id="rId225" xr:uid="{1F6E872E-AC66-9F45-B844-50C19E897469}"/>
+    <hyperlink ref="D306" r:id="rId226" xr:uid="{BD57B9C0-B59F-5849-A0AB-0106E2BA020B}"/>
+    <hyperlink ref="D384" r:id="rId227" xr:uid="{DC54403D-D135-A34D-84DA-2E4906F798F5}"/>
+    <hyperlink ref="D435" r:id="rId228" xr:uid="{2FD75BB2-A4F9-964C-B5E6-E0DF15A20C71}"/>
+    <hyperlink ref="D137" r:id="rId229" xr:uid="{F57C197A-6A05-5943-8D3B-91C47476D9E4}"/>
+    <hyperlink ref="D183" r:id="rId230" xr:uid="{9829812E-D8B7-9B4B-B34A-79460509F009}"/>
+    <hyperlink ref="D19" r:id="rId231" xr:uid="{D77E15DF-A93C-A34D-A8BE-A01EA2994281}"/>
+    <hyperlink ref="D169" r:id="rId232" xr:uid="{3E75D910-8D37-B140-B457-61D526684F36}"/>
+    <hyperlink ref="D429" r:id="rId233" xr:uid="{B193B3D0-B6EF-9848-8EB6-47EF719C3C0D}"/>
+    <hyperlink ref="D436" r:id="rId234" xr:uid="{F58F150A-A2AA-9145-8F1C-60FED8466C8D}"/>
+    <hyperlink ref="D413" r:id="rId235" xr:uid="{AC6B6D59-3FFD-3348-825E-98B3AAEA8E69}"/>
+    <hyperlink ref="D84" r:id="rId236" xr:uid="{5C17FCD3-FED1-1D4D-B816-086CDA142062}"/>
+    <hyperlink ref="D86" r:id="rId237" xr:uid="{80E6D7CB-AAF2-D149-859D-0E33E4220DB2}"/>
+    <hyperlink ref="D90" r:id="rId238" xr:uid="{A967322C-D7E9-5245-8C78-12BE438764A0}"/>
+    <hyperlink ref="D196" r:id="rId239" xr:uid="{FF4D29CE-CD01-914B-835E-44FC4BA2FCDE}"/>
+    <hyperlink ref="D216" r:id="rId240" xr:uid="{2C79F6D3-0F99-2849-8E62-77ACACFF6ECA}"/>
+    <hyperlink ref="B485" r:id="rId241" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{7C575BE6-8892-384E-B6D0-54556AE5EA93}"/>
+    <hyperlink ref="D409" r:id="rId242" xr:uid="{8C3F0F7B-26C3-AB4F-B88F-06D91E5C63BF}"/>
+    <hyperlink ref="D517" r:id="rId243" xr:uid="{8536C761-FC01-0C48-9217-0262B9B8E6D2}"/>
+    <hyperlink ref="D516" r:id="rId244" xr:uid="{FCD2EC35-5FEC-D04E-B785-614EBEF35448}"/>
+    <hyperlink ref="D515" r:id="rId245" xr:uid="{89593E22-BF6D-DB4C-8EB4-D026E99AEFF0}"/>
+    <hyperlink ref="D483" r:id="rId246" xr:uid="{C85F788E-BA45-E243-AC0A-167678CCDFE2}"/>
+    <hyperlink ref="D486" r:id="rId247" xr:uid="{4BD1388F-54AD-6545-91C1-B7237EC1A25E}"/>
+    <hyperlink ref="D480" r:id="rId248" xr:uid="{5D7AE706-AAF3-7447-84EC-B4FE1DC2D374}"/>
+    <hyperlink ref="D479" r:id="rId249" xr:uid="{21AF7497-0972-8446-9EB1-B89709BC02BB}"/>
+    <hyperlink ref="D511" r:id="rId250" xr:uid="{F272C6FD-0F54-3C47-9880-6D292CD81E2B}"/>
+    <hyperlink ref="D512" r:id="rId251" xr:uid="{7ED6505A-C00C-7446-823E-F431764C45C6}"/>
+    <hyperlink ref="D513" r:id="rId252" xr:uid="{9979DA16-7189-C245-B2B9-126F93E905E6}"/>
+    <hyperlink ref="D510" r:id="rId253" xr:uid="{7CD280F5-13A2-BE45-AA06-51D4C120C7BB}"/>
+    <hyperlink ref="D468" r:id="rId254" xr:uid="{7D3CFF7E-5BF4-9847-A80E-36E9802EF21C}"/>
+    <hyperlink ref="D488" r:id="rId255" xr:uid="{0D26BFAD-DAF5-1A4F-B30F-B8E00FAC8C1D}"/>
+    <hyperlink ref="D487" r:id="rId256" xr:uid="{89B75002-CC71-CF48-885D-4E33BCB01D57}"/>
+    <hyperlink ref="D226" r:id="rId257" xr:uid="{09AA4631-5D25-5B4C-86C6-14026AF74CC9}"/>
+    <hyperlink ref="D136" r:id="rId258" xr:uid="{2A254A98-F69C-D547-87FC-D7EC060B5498}"/>
+    <hyperlink ref="D467" r:id="rId259" xr:uid="{5C4797F6-6133-0C45-A8E6-CE8354DB99EC}"/>
+    <hyperlink ref="D138" r:id="rId260" xr:uid="{AB080ADF-DC30-B443-A23C-4FC2F2EF2481}"/>
+    <hyperlink ref="D466" r:id="rId261" xr:uid="{6E5410E1-921B-B64C-BF4E-637BC687822D}"/>
+    <hyperlink ref="D465" r:id="rId262" xr:uid="{28A1C577-58E7-6644-B4F7-D4A6D5F7B423}"/>
+    <hyperlink ref="D464" r:id="rId263" xr:uid="{1D8209BB-E605-D441-87EF-A28F917FAAF4}"/>
+    <hyperlink ref="D514" r:id="rId264" xr:uid="{64ADE380-1AAE-984E-9A25-AE7C8584796F}"/>
+    <hyperlink ref="D463" r:id="rId265" xr:uid="{A03D2525-3950-C949-9E3E-9C44C998AF0F}"/>
+    <hyperlink ref="D462" r:id="rId266" xr:uid="{3C0102A1-FC2E-4247-B222-26EB1ABB2C23}"/>
+    <hyperlink ref="D132" r:id="rId267" xr:uid="{F873BC3A-CBD9-0D49-86BA-1AA0C3C18EB9}"/>
+    <hyperlink ref="D457" r:id="rId268" xr:uid="{7378A5E2-2B60-DC44-9030-E249B694B260}"/>
+    <hyperlink ref="D461" r:id="rId269" xr:uid="{9E131836-E86F-0A49-AE39-24B5A7E245D2}"/>
+    <hyperlink ref="D484" r:id="rId270" xr:uid="{1F2786FB-C4D3-EB4E-A0E2-D6630736647A}"/>
+    <hyperlink ref="D526" r:id="rId271" xr:uid="{FBEAF6D6-42AF-6648-A08E-E0707FC32D56}"/>
+    <hyperlink ref="D520" r:id="rId272" xr:uid="{564C253B-3F03-D444-A0DA-F22F7A419E85}"/>
+    <hyperlink ref="D482" r:id="rId273" xr:uid="{F57AA370-C7CD-4146-90BE-24AB41171B75}"/>
+    <hyperlink ref="D481" r:id="rId274" xr:uid="{841561B6-850F-5846-B906-18C07AD2B502}"/>
+    <hyperlink ref="D458" r:id="rId275" xr:uid="{BFBCB742-0CFB-6543-A0FA-AEEF4AAD877C}"/>
+    <hyperlink ref="D292" r:id="rId276" xr:uid="{65A9E2CC-DD1C-D74D-A2E4-4C59835563A6}"/>
+    <hyperlink ref="D459" r:id="rId277" xr:uid="{A87F7000-9F1F-5343-A29C-ABF3AAE9520B}"/>
+    <hyperlink ref="D460" r:id="rId278" xr:uid="{1F248109-43E3-3D4E-B4EC-68F5D3891791}"/>
+    <hyperlink ref="D97" r:id="rId279" xr:uid="{B7E8F49A-F40B-D547-9701-5AE1D94EFC42}"/>
+    <hyperlink ref="D3" r:id="rId280" xr:uid="{DA81A9F7-36EF-D344-B037-09A953B55026}"/>
+    <hyperlink ref="D171" r:id="rId281" xr:uid="{7F820FB9-DB32-654F-B198-6751E9F397F3}"/>
+    <hyperlink ref="D170" r:id="rId282" xr:uid="{5C3C065A-02E2-D54D-B3DF-61F6AA4138CB}"/>
+    <hyperlink ref="D478" r:id="rId283" xr:uid="{C1E2D801-35CB-7C4B-91F2-175C103263FA}"/>
+    <hyperlink ref="D163" r:id="rId284" xr:uid="{70EA6F1B-B84B-2149-8484-CC30367387AD}"/>
+    <hyperlink ref="D164" r:id="rId285" xr:uid="{F9BBB066-D526-A54A-A367-955ACF7E74F6}"/>
+    <hyperlink ref="D154" r:id="rId286" xr:uid="{2562DA79-1E02-114C-A26B-69AEE0BDA6F6}"/>
+    <hyperlink ref="D155" r:id="rId287" xr:uid="{269863D3-7777-2F43-8E96-F9B38A08DA59}"/>
+    <hyperlink ref="D157" r:id="rId288" xr:uid="{B351C830-8C08-5546-8CE5-100BE1CD2B1C}"/>
+    <hyperlink ref="D158" r:id="rId289" xr:uid="{4A5DC1F1-ABB1-014C-A88E-CEB8B2E9040F}"/>
+    <hyperlink ref="D159" r:id="rId290" xr:uid="{56E6DE95-1133-BB4A-966B-2A11825DB3CB}"/>
+    <hyperlink ref="D476" r:id="rId291" xr:uid="{118CA25C-6A84-3745-B39E-C00C5D62F060}"/>
+    <hyperlink ref="D477" r:id="rId292" xr:uid="{76480FD9-0632-BC41-9775-BEEAD9A843E1}"/>
+    <hyperlink ref="D475" r:id="rId293" xr:uid="{1AE12A4C-66D3-134C-8BE0-F26BFF1DA89B}"/>
+    <hyperlink ref="D473" r:id="rId294" xr:uid="{CA1D1148-0871-2B4D-A9D9-C32EC87572F4}"/>
+    <hyperlink ref="D474" r:id="rId295" xr:uid="{EAD9824B-649D-1446-B7DD-4ABD46342B18}"/>
+    <hyperlink ref="D471" r:id="rId296" xr:uid="{4F6E7A00-B54C-E64A-A6FD-24490F43ABBE}"/>
+    <hyperlink ref="D472" r:id="rId297" xr:uid="{D2381026-A9A2-2E4D-895E-5309D91996B2}"/>
+    <hyperlink ref="D469" r:id="rId298" xr:uid="{B7583D80-7495-0C47-B793-E78EF60B3763}"/>
+    <hyperlink ref="D470" r:id="rId299" xr:uid="{B97210B2-C3D1-9E4E-985F-6782EF1661B4}"/>
+    <hyperlink ref="D88" r:id="rId300" xr:uid="{5343036F-E0A5-564D-8334-311A1FA9BDF8}"/>
+    <hyperlink ref="D8" r:id="rId301" xr:uid="{552EE392-3D68-5B4A-9418-369F6F7885F1}"/>
+    <hyperlink ref="D523" r:id="rId302" xr:uid="{6AD8353A-EFE9-B04A-9D00-D03666E5721E}"/>
+    <hyperlink ref="D414" r:id="rId303" xr:uid="{871F9FA4-8B8A-004F-80FA-71BF19926966}"/>
+    <hyperlink ref="D519" r:id="rId304" xr:uid="{57B09C3B-73B5-3E41-9F94-C0387A1F7B70}"/>
+    <hyperlink ref="D452" r:id="rId305" xr:uid="{ECA7DD9C-8EE5-6745-BEC8-D7B672A053E5}"/>
+    <hyperlink ref="D524" r:id="rId306" xr:uid="{A83DADD5-77C6-AE4C-9778-46C48E4CF8DD}"/>
+    <hyperlink ref="D60" r:id="rId307" xr:uid="{8A731B4E-111D-3E41-8A9D-E3657F9C5AA8}"/>
+    <hyperlink ref="D525" r:id="rId308" xr:uid="{8FCD4668-3390-244E-AB86-3F664E70F07C}"/>
+    <hyperlink ref="D420" r:id="rId309" xr:uid="{0708D165-AA00-0349-B66F-5BAE1D1BB42D}"/>
+    <hyperlink ref="D521" r:id="rId310" xr:uid="{FBD9DFAD-E5C6-8843-9C78-03BB388B6ED3}"/>
+    <hyperlink ref="D522" r:id="rId311" xr:uid="{965E8E5E-1323-4947-A37C-FBFF12FD3D76}"/>
+    <hyperlink ref="D518" r:id="rId312" xr:uid="{8A2B9A70-42BB-7A44-AC72-471B17126B64}"/>
+    <hyperlink ref="D359" r:id="rId313" xr:uid="{1564F2FC-7B58-9747-9228-11D083C4DDBD}"/>
+    <hyperlink ref="D490" r:id="rId314" xr:uid="{3496F59A-F344-CD47-8627-28A3B1F9A7A2}"/>
+    <hyperlink ref="D507" r:id="rId315" xr:uid="{D06D70FB-720F-9C44-8873-7E558B848862}"/>
+    <hyperlink ref="D508" r:id="rId316" xr:uid="{CFEF78E3-B838-3246-AC94-7270772CB6BB}"/>
+    <hyperlink ref="D492" r:id="rId317" xr:uid="{DA1A8C26-DEB3-7043-BDE7-73B437314D9C}"/>
+    <hyperlink ref="D491" r:id="rId318" xr:uid="{CA40CC9D-18C6-D74B-AD43-F3C7243BF52D}"/>
+    <hyperlink ref="D489" r:id="rId319" xr:uid="{36F53C43-38CA-504D-830F-B3F7D1AA7F91}"/>
+    <hyperlink ref="D496" r:id="rId320" xr:uid="{DFBD737E-AFAB-F941-9561-AF27D9DEAAD3}"/>
+    <hyperlink ref="D497" r:id="rId321" xr:uid="{510818BF-9320-BD44-B860-9A3E2AE10545}"/>
+    <hyperlink ref="D494" r:id="rId322" xr:uid="{2D4B2EAE-6FDE-2E4A-8A85-89596E1FE1B5}"/>
+    <hyperlink ref="D272" r:id="rId323" xr:uid="{F2B16516-118D-914D-892B-3EE4DF99EF62}"/>
+    <hyperlink ref="D498" r:id="rId324" xr:uid="{46BE4D39-9477-B941-A8C4-9D31E73AB81E}"/>
+    <hyperlink ref="D495" r:id="rId325" xr:uid="{0823BE2A-1374-D14E-8336-A56C3279C3CC}"/>
+    <hyperlink ref="D277" r:id="rId326" xr:uid="{1B363E77-0DCE-0E45-A058-74C4BA005F3B}"/>
+    <hyperlink ref="D287" r:id="rId327" xr:uid="{A2BB4DEF-0D7D-4743-892F-5DABC7F21C26}"/>
+    <hyperlink ref="D493" r:id="rId328" xr:uid="{06029C6C-8EC9-A64D-AE2A-521FE23A4E43}"/>
+    <hyperlink ref="D499" r:id="rId329" xr:uid="{C9AFBC4F-A4FB-094D-B9C7-CFCB822AB20F}"/>
+    <hyperlink ref="D265" r:id="rId330" xr:uid="{21A1A05D-A167-764C-BC3F-B67C3FB3EFF1}"/>
+    <hyperlink ref="D329" r:id="rId331" xr:uid="{040EE538-A4F8-A84B-BC8B-B3580B864755}"/>
+    <hyperlink ref="D317" r:id="rId332" xr:uid="{EF1A76B6-770F-B245-AC9D-A2487B93D545}"/>
+    <hyperlink ref="D502" r:id="rId333" xr:uid="{51C68E0B-C6C2-634F-8FA0-BD0951914F85}"/>
+    <hyperlink ref="D506" r:id="rId334" xr:uid="{62D6F049-6FA2-EA45-80BE-82880D716F47}"/>
+    <hyperlink ref="D505" r:id="rId335" xr:uid="{1BADE965-448F-2449-8320-BB20A0208E97}"/>
+    <hyperlink ref="D314" r:id="rId336" xr:uid="{83C2F6BA-58B2-F641-8BA0-A00EC7729026}"/>
+    <hyperlink ref="D504" r:id="rId337" xr:uid="{110875FE-F21B-C945-82A2-836CA9B8EC70}"/>
+    <hyperlink ref="D315" r:id="rId338" xr:uid="{26B232CA-3D77-9A4B-9235-099D5DE371E2}"/>
+    <hyperlink ref="D307" r:id="rId339" xr:uid="{05F84512-13AE-9445-A69E-E8370EF2DA67}"/>
+    <hyperlink ref="D296" r:id="rId340" xr:uid="{81F39D59-3F05-6149-B8DC-8C0A18AABB9F}"/>
+    <hyperlink ref="D503" r:id="rId341" xr:uid="{DB8F9FB3-3BEC-6747-9BA2-F9AFCD4BEF6E}"/>
+    <hyperlink ref="D302" r:id="rId342" xr:uid="{83DDF491-9F57-1946-85A9-70B896A2D975}"/>
+    <hyperlink ref="D500" r:id="rId343" xr:uid="{D87AFE85-5BE5-4540-A233-79F5EA91942A}"/>
+    <hyperlink ref="D345" r:id="rId344" xr:uid="{E6E12C35-039F-401E-897F-6C8FF62D9633}"/>
+    <hyperlink ref="D336" r:id="rId345" xr:uid="{2D964555-4405-423B-9922-2EA469ACEAEC}"/>
+    <hyperlink ref="D55" r:id="rId346" xr:uid="{58E72F0F-F446-4760-90CC-8AA2764001AD}"/>
+    <hyperlink ref="D388" r:id="rId347" xr:uid="{9DAA0A7E-AD83-475D-8D82-91528E2C3B0A}"/>
+    <hyperlink ref="D431" r:id="rId348" xr:uid="{71E581C7-DACA-49CB-BAD9-4771868A2002}"/>
+    <hyperlink ref="D82" r:id="rId349" xr:uid="{31C41166-FA96-4906-880F-AE4C35B55BFF}"/>
+    <hyperlink ref="D108" r:id="rId350" xr:uid="{733275D3-E025-462B-A60D-DC325650942F}"/>
+    <hyperlink ref="D501" r:id="rId351" xr:uid="{62685576-2D77-2E42-AED6-53C0EFD59075}"/>
+    <hyperlink ref="D365" r:id="rId352" xr:uid="{904C3531-B323-41F9-817E-8823B671EEB5}"/>
+    <hyperlink ref="D152" r:id="rId353" xr:uid="{1EA442F5-1FA6-8344-91EC-D9295615328C}"/>
+    <hyperlink ref="D156" r:id="rId354" xr:uid="{7D49D92C-44D3-5F42-8597-BC317A16EBA4}"/>
+    <hyperlink ref="O295" r:id="rId355" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC421731/" xr:uid="{0193A0B0-79A3-6E40-A41F-02307EF257F7}"/>
+    <hyperlink ref="O497" r:id="rId356" display="https://data.mendeley.com/datasets/vch6n3pd8f/1" xr:uid="{1109AA93-BACB-1148-BF25-A8FAFE928A81}"/>
+    <hyperlink ref="D509" r:id="rId357" xr:uid="{D59F2DA7-3BB5-D74B-BE8A-8D6929EF6FE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId356"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId358"/>
 </worksheet>
 </file>
 
@@ -51971,7 +54198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C944E90D-02AE-47DC-9475-B71493DC5877}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
